--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{EB91E18A-4911-4DBE-8588-60ECE4A46359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A60C96B-BB7D-40C3-B6D1-275B30CC1C25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E03455-697B-413A-BDDD-AC95D2EBE350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Imput" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="View_Print" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -440,7 +440,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E03455-697B-413A-BDDD-AC95D2EBE350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1987F640-2137-48DE-94C8-635A8125F1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -101,10 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +441,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,26 +453,62 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2">
+        <v>3</v>
+      </c>
+      <c r="P1" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -545,57 +582,23 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -1404,12 +1407,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B0FB71-62C7-4DD6-B6F4-AE0CDDD55057}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0E89A4-1EEF-494C-A8DD-6524F86E33EA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -38,15 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- </t>
   </si>
 </sst>
 </file>
@@ -441,11 +435,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -456,98 +448,38 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2">
-        <v>1</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2">
-        <v>3</v>
-      </c>
-      <c r="P1" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>5</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
@@ -1423,9 +1355,45 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1436,86 +1404,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B0FB71-62C7-4DD6-B6F4-AE0CDDD55057}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1">
+      <c r="C1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D1">
+        <v>#N/A</v>
+      </c>
+      <c r="D1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E1">
+        <v>#N/A</v>
+      </c>
+      <c r="E1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,6,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F1">
+        <v>#N/A</v>
+      </c>
+      <c r="F1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,7,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G1">
+        <v>#N/A</v>
+      </c>
+      <c r="G1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,8,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H1">
+        <v>#N/A</v>
+      </c>
+      <c r="H1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,9,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I1">
+        <v>#N/A</v>
+      </c>
+      <c r="I1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,10,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J1">
+        <v>#N/A</v>
+      </c>
+      <c r="J1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,11,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K1">
+        <v>#N/A</v>
+      </c>
+      <c r="K1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L1">
+        <v>#N/A</v>
+      </c>
+      <c r="L1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,13,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M1">
+        <v>#N/A</v>
+      </c>
+      <c r="M1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N1">
+        <v>#N/A</v>
+      </c>
+      <c r="N1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,15,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O1">
+        <v>#N/A</v>
+      </c>
+      <c r="O1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,16,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P1">
+        <v>#N/A</v>
+      </c>
+      <c r="P1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q1">
+        <v>#N/A</v>
+      </c>
+      <c r="Q1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,18,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,19,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>#N/A</v>
+      </c>
+      <c r="B2" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$KY$1999,20,FALSE)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1525,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <f t="shared" ref="A2:A65" si="0">B4&amp;"- "&amp;C4</f>
+        <f t="shared" ref="A4:A65" si="0">B4&amp;"- "&amp;C4</f>
         <v xml:space="preserve">- </v>
       </c>
     </row>
@@ -13541,19 +13507,19 @@
     </row>
     <row r="2001" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2001" t="str">
-        <f t="shared" ref="A1987:A2001" si="32">B2001&amp;"- "&amp;C2001</f>
+        <f t="shared" ref="A2001" si="32">B2001&amp;"- "&amp;C2001</f>
         <v xml:space="preserve">- </v>
       </c>
     </row>
     <row r="2002" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2002" t="str">
-        <f t="shared" ref="A1988:A2002" si="33">B2002&amp;"- "&amp;C2002</f>
+        <f t="shared" ref="A2002" si="33">B2002&amp;"- "&amp;C2002</f>
         <v xml:space="preserve">- </v>
       </c>
     </row>
     <row r="2003" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2003" t="str">
-        <f t="shared" ref="A1989:A2003" si="34">B2003&amp;"- "&amp;C2003</f>
+        <f t="shared" ref="A2003" si="34">B2003&amp;"- "&amp;C2003</f>
         <v xml:space="preserve">- </v>
       </c>
     </row>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0E89A4-1EEF-494C-A8DD-6524F86E33EA}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321B66B7-78DC-415E-9A7D-18E106691C66}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -37,10 +37,83 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Descrition</t>
+  </si>
+  <si>
+    <t>ID- Descrition</t>
+  </si>
+  <si>
+    <t>Log 2</t>
+  </si>
+  <si>
+    <t>Log 1</t>
+  </si>
+  <si>
+    <t>Log 3</t>
+  </si>
+  <si>
+    <t>Log 4</t>
+  </si>
+  <si>
+    <t>Log 5</t>
+  </si>
+  <si>
+    <t>Log 6</t>
+  </si>
+  <si>
+    <t>Log 7</t>
+  </si>
+  <si>
+    <t>Log 8</t>
+  </si>
+  <si>
+    <t>Log 9</t>
+  </si>
+  <si>
+    <t>Log 10</t>
+  </si>
+  <si>
+    <t>Log 11</t>
+  </si>
+  <si>
+    <t>Log 12</t>
+  </si>
+  <si>
+    <t>Log 13</t>
+  </si>
+  <si>
+    <t>Log 14</t>
   </si>
 </sst>
 </file>
@@ -57,13 +130,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,13 +144,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,14 +173,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +210,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,965 +531,1138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="10.08984375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="str">
+        <f>B2</f>
+        <v>Description</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,89 +1673,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B0FB71-62C7-4DD6-B6F4-AE0CDDD55057}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,14,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,17,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q1" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,18,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A1" s="4" t="str">
+        <f>A2</f>
+        <v>ID- Descrition</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,19,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B2" t="e">
-        <f>VLOOKUP(A1,Data!$A$1:$KY$1999,20,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1496,7 +1765,7 @@
           <x14:formula1>
             <xm:f>Data!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1</xm:sqref>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1506,96 +1775,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7D3E8-64C8-4AE1-938C-EF1CA99C435B}">
-  <dimension ref="A1:A2003"/>
+  <dimension ref="A1:C2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="16384" width="8.7265625" style="3"/>
+    <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="str">
-        <f>B1&amp;"- "&amp;C1</f>
-        <v xml:space="preserve">- </v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="e" cm="1">
+        <f t="array" ref="A1">B&amp;"- "&amp;C2&amp;"- "&amp;D2&amp;"- "&amp;E2&amp;"- "&amp;F2&amp;"- "&amp;G2&amp;"- "&amp;H2&amp;"- "&amp;I2&amp;"- "&amp;J2&amp;"- "&amp;K2&amp;"- "&amp;L2&amp;"- "&amp;M2&amp;"- "&amp;N2&amp;"- "&amp;O2&amp;"- "&amp;P2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A65" si="0">B4&amp;"- "&amp;C4</f>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321B66B7-78DC-415E-9A7D-18E106691C66}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61A5A8EF-C564-4FAC-96E9-96E265123628}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="1" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -37,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Description</t>
   </si>
@@ -69,9 +47,6 @@
   </si>
   <si>
     <t>Descrition</t>
-  </si>
-  <si>
-    <t>ID- Descrition</t>
   </si>
   <si>
     <t>Log 2</t>
@@ -173,18 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -195,6 +167,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -545,1124 +524,1124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="4" t="str">
         <f>B2</f>
         <v>Description</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1673,7 +1652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B0FB71-62C7-4DD6-B6F4-AE0CDDD55057}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1681,81 +1662,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="3">
         <f>A2</f>
-        <v>ID- Descrition</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="B2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1765,7 +1744,7 @@
           <x14:formula1>
             <xm:f>Data!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
+          <xm:sqref>B2:P2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1787,15 +1766,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="e" cm="1">
-        <f t="array" ref="A1">B&amp;"- "&amp;C2&amp;"- "&amp;D2&amp;"- "&amp;E2&amp;"- "&amp;F2&amp;"- "&amp;G2&amp;"- "&amp;H2&amp;"- "&amp;I2&amp;"- "&amp;J2&amp;"- "&amp;K2&amp;"- "&amp;L2&amp;"- "&amp;M2&amp;"- "&amp;N2&amp;"- "&amp;O2&amp;"- "&amp;P2</f>
-        <v>#NAME?</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>B2&amp;"- "&amp;C2&amp;"- "&amp;D2&amp;"- "&amp;E2&amp;"- "&amp;F2&amp;"- "&amp;G2&amp;"- "&amp;H2&amp;"- "&amp;I2&amp;"- "&amp;J2&amp;"- "&amp;K2&amp;"- "&amp;L2&amp;"- "&amp;M2&amp;"- "&amp;N2&amp;"- "&amp;O2&amp;"- "&amp;P2</f>
+        <v xml:space="preserve">- - - - - - - - - - - - - - </v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61A5A8EF-C564-4FAC-96E9-96E265123628}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0552509-C8C4-4608-8B2B-1064E133C23E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="1" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Description</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Descrition</t>
-  </si>
-  <si>
-    <t>Log 2</t>
-  </si>
-  <si>
-    <t>Log 1</t>
   </si>
   <si>
     <t>Log 3</t>
@@ -73,9 +67,6 @@
     <t>Log 8</t>
   </si>
   <si>
-    <t>Log 9</t>
-  </si>
-  <si>
     <t>Log 10</t>
   </si>
   <si>
@@ -90,12 +81,18 @@
   <si>
     <t>Log 14</t>
   </si>
+  <si>
+    <t xml:space="preserve">Log 9 </t>
+  </si>
+  <si>
+    <t>Log 15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +102,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,9 +161,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -167,13 +169,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,6 +195,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Help outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B46391-E2AF-BCC9-F533-E8D74213A112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="0"/>
+          <a:ext cx="222250" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphic 1" descr="Help outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C801348-2D78-418D-BCD3-157A56457D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="0"/>
+          <a:ext cx="222250" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -523,80 +645,78 @@
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="8" t="str">
         <f>B2</f>
         <v>Description</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="4"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1645,6 +1765,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1652,91 +1773,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B0FB71-62C7-4DD6-B6F4-AE0CDDD55057}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
-    </sheetView>
+    <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="3">
-        <f>A2</f>
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="4"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0552509-C8C4-4608-8B2B-1064E133C23E}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FF87DE-FC82-4A5A-BEE7-BDF846427B96}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -38,15 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Description</t>
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Descrition</t>
   </si>
   <si>
     <t>Log 3</t>
@@ -169,10 +166,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,6 +173,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +632,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,51 +643,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="str">
+      <c r="B1" s="6" t="str">
         <f>B2</f>
         <v>Description</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1781,68 +1778,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1867,104 +1864,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7D3E8-64C8-4AE1-938C-EF1CA99C435B}">
-  <dimension ref="A1:C2003"/>
+  <dimension ref="A1:A2003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>B1&amp;"- "&amp;C1&amp;"- "&amp;D1&amp;"- "&amp;E1&amp;"- "&amp;F1&amp;"- "&amp;G1&amp;"- "&amp;H1&amp;"- "&amp;I1&amp;"- "&amp;J1&amp;"- "&amp;K1&amp;"- "&amp;L1&amp;"- "&amp;M1&amp;"- "&amp;N1&amp;"- "&amp;O1&amp;"- "&amp;P1</f>
+        <v xml:space="preserve">- - - - - - - - - - - - - - </v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>B2&amp;"- "&amp;C2&amp;"- "&amp;D2&amp;"- "&amp;E2&amp;"- "&amp;F2&amp;"- "&amp;G2&amp;"- "&amp;H2&amp;"- "&amp;I2&amp;"- "&amp;J2&amp;"- "&amp;K2&amp;"- "&amp;L2&amp;"- "&amp;M2&amp;"- "&amp;N2&amp;"- "&amp;O2&amp;"- "&amp;P2</f>
         <v xml:space="preserve">- - - - - - - - - - - - - - </v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>B3&amp;"- "&amp;C3&amp;"- "&amp;D3&amp;"- "&amp;E3&amp;"- "&amp;F3&amp;"- "&amp;G3&amp;"- "&amp;H3&amp;"- "&amp;I3&amp;"- "&amp;J3&amp;"- "&amp;K3&amp;"- "&amp;L3&amp;"- "&amp;M3&amp;"- "&amp;N3&amp;"- "&amp;O3&amp;"- "&amp;P3</f>
+        <v xml:space="preserve">- - - - - - - - - - - - - - </v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A65" si="0">B4&amp;"- "&amp;C4</f>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FF87DE-FC82-4A5A-BEE7-BDF846427B96}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A08D038-B98D-42D8-9FCE-1B06C6B11F99}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Log 3</t>
@@ -632,7 +629,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,7 +640,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="5">
+        <f>A2</f>
         <v>1</v>
       </c>
       <c r="B1" s="6" t="str">
@@ -651,43 +649,43 @@
         <v>Description</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1778,48 +1776,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
+      <c r="A1" s="5">
+        <f>B2</f>
+        <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A08D038-B98D-42D8-9FCE-1B06C6B11F99}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F697A316-04EA-49CF-AD3C-B98F27F32798}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -305,10 +305,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,7 +625,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1865,7 +1861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7D3E8-64C8-4AE1-938C-EF1CA99C435B}">
   <dimension ref="A1:A2003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1874,7 +1872,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
-        <f>B1&amp;"- "&amp;C1&amp;"- "&amp;D1&amp;"- "&amp;E1&amp;"- "&amp;F1&amp;"- "&amp;G1&amp;"- "&amp;H1&amp;"- "&amp;I1&amp;"- "&amp;J1&amp;"- "&amp;K1&amp;"- "&amp;L1&amp;"- "&amp;M1&amp;"- "&amp;N1&amp;"- "&amp;O1&amp;"- "&amp;P1</f>
+        <f>S1&amp;"- "&amp;T1&amp;"- "&amp;U1&amp;"- "&amp;V1&amp;"- "&amp;W1&amp;"- "&amp;X1&amp;"- "&amp;Y1&amp;"- "&amp;Z1&amp;"- "&amp;AA1&amp;"- "&amp;AB1&amp;"- "&amp;AC1&amp;"- "&amp;AD1&amp;"- "&amp;AE1&amp;"- "&amp;AF1&amp;"- "&amp;AG1</f>
         <v xml:space="preserve">- - - - - - - - - - - - - - </v>
       </c>
     </row>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F697A316-04EA-49CF-AD3C-B98F27F32798}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4B6443-F0BB-4C0A-859F-A94ABF3B3A62}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -109,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -170,10 +176,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,7 +1773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B0FB71-62C7-4DD6-B6F4-AE0CDDD55057}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1820,6 +1831,7 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1835,6 +1847,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4B6443-F0BB-4C0A-859F-A94ABF3B3A62}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4F1DCC5-C7EA-4795-8EC6-360C6B22C11D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Log 3</t>
   </si>
@@ -80,6 +77,12 @@
   </si>
   <si>
     <t>Log 15</t>
+  </si>
+  <si>
+    <t>Log 1</t>
+  </si>
+  <si>
+    <t>Log 2</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,11 +152,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -165,10 +183,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -176,11 +190,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -314,6 +343,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,9 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -645,78 +676,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5">
-        <f>A2</f>
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="str">
-        <f>B2</f>
-        <v>Description</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1783,55 +1808,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1847,7 +1872,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4F1DCC5-C7EA-4795-8EC6-360C6B22C11D}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0F9225-CE68-4CCA-80D1-DB47BECAF45A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="2" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -193,10 +199,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -209,6 +211,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -666,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -676,72 +690,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1857,21 +1871,21 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="6"/>
     </row>
   </sheetData>
@@ -1897,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7D3E8-64C8-4AE1-938C-EF1CA99C435B}">
-  <dimension ref="A1:A2003"/>
+  <dimension ref="A1:AJQ2003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1908,97 +1922,1094 @@
     <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="str">
+    <row r="1" spans="1:953" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="str">
         <f>S1&amp;"- "&amp;T1&amp;"- "&amp;U1&amp;"- "&amp;V1&amp;"- "&amp;W1&amp;"- "&amp;X1&amp;"- "&amp;Y1&amp;"- "&amp;Z1&amp;"- "&amp;AA1&amp;"- "&amp;AB1&amp;"- "&amp;AC1&amp;"- "&amp;AD1&amp;"- "&amp;AE1&amp;"- "&amp;AF1&amp;"- "&amp;AG1</f>
-        <v xml:space="preserve">- - - - - - - - - - - - - - </v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>Log 1- Log 2- Log 3- Log 4- Log 5- Log 6- Log 7- Log 8- Log 9 - Log 10- Log 11- Log 12- Log 13- Log 14- Log 15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="str">
+        <f>Input!A1</f>
+        <v>Log 1</v>
+      </c>
+      <c r="T1" s="13" t="str">
+        <f>Input!B1</f>
+        <v>Log 2</v>
+      </c>
+      <c r="U1" s="13" t="str">
+        <f>Input!C1</f>
+        <v>Log 3</v>
+      </c>
+      <c r="V1" s="13" t="str">
+        <f>Input!D1</f>
+        <v>Log 4</v>
+      </c>
+      <c r="W1" s="13" t="str">
+        <f>Input!E1</f>
+        <v>Log 5</v>
+      </c>
+      <c r="X1" s="13" t="str">
+        <f>Input!F1</f>
+        <v>Log 6</v>
+      </c>
+      <c r="Y1" s="13" t="str">
+        <f>Input!G1</f>
+        <v>Log 7</v>
+      </c>
+      <c r="Z1" s="13" t="str">
+        <f>Input!H1</f>
+        <v>Log 8</v>
+      </c>
+      <c r="AA1" s="13" t="str">
+        <f>Input!I1</f>
+        <v xml:space="preserve">Log 9 </v>
+      </c>
+      <c r="AB1" s="13" t="str">
+        <f>Input!J1</f>
+        <v>Log 10</v>
+      </c>
+      <c r="AC1" s="13" t="str">
+        <f>Input!K1</f>
+        <v>Log 11</v>
+      </c>
+      <c r="AD1" s="13" t="str">
+        <f>Input!L1</f>
+        <v>Log 12</v>
+      </c>
+      <c r="AE1" s="13" t="str">
+        <f>Input!M1</f>
+        <v>Log 13</v>
+      </c>
+      <c r="AF1" s="13" t="str">
+        <f>Input!N1</f>
+        <v>Log 14</v>
+      </c>
+      <c r="AG1" s="13" t="str">
+        <f>Input!O1</f>
+        <v>Log 15</v>
+      </c>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13"/>
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13"/>
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13"/>
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13"/>
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="13"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="13"/>
+      <c r="GL1" s="13"/>
+      <c r="GM1" s="13"/>
+      <c r="GN1" s="13"/>
+      <c r="GO1" s="13"/>
+      <c r="GP1" s="13"/>
+      <c r="GQ1" s="13"/>
+      <c r="GR1" s="13"/>
+      <c r="GS1" s="13"/>
+      <c r="GT1" s="13"/>
+      <c r="GU1" s="13"/>
+      <c r="GV1" s="13"/>
+      <c r="GW1" s="13"/>
+      <c r="GX1" s="13"/>
+      <c r="GY1" s="13"/>
+      <c r="GZ1" s="13"/>
+      <c r="HA1" s="13"/>
+      <c r="HB1" s="13"/>
+      <c r="HC1" s="13"/>
+      <c r="HD1" s="13"/>
+      <c r="HE1" s="13"/>
+      <c r="HF1" s="13"/>
+      <c r="HG1" s="13"/>
+      <c r="HH1" s="13"/>
+      <c r="HI1" s="13"/>
+      <c r="HJ1" s="13"/>
+      <c r="HK1" s="13"/>
+      <c r="HL1" s="13"/>
+      <c r="HM1" s="13"/>
+      <c r="HN1" s="13"/>
+      <c r="HO1" s="13"/>
+      <c r="HP1" s="13"/>
+      <c r="HQ1" s="13"/>
+      <c r="HR1" s="13"/>
+      <c r="HS1" s="13"/>
+      <c r="HT1" s="13"/>
+      <c r="HU1" s="13"/>
+      <c r="HV1" s="13"/>
+      <c r="HW1" s="13"/>
+      <c r="HX1" s="13"/>
+      <c r="HY1" s="13"/>
+      <c r="HZ1" s="13"/>
+      <c r="IA1" s="13"/>
+      <c r="IB1" s="13"/>
+      <c r="IC1" s="13"/>
+      <c r="ID1" s="13"/>
+      <c r="IE1" s="13"/>
+      <c r="IF1" s="13"/>
+      <c r="IG1" s="13"/>
+      <c r="IH1" s="13"/>
+      <c r="II1" s="13"/>
+      <c r="IJ1" s="13"/>
+      <c r="IK1" s="13"/>
+      <c r="IL1" s="13"/>
+      <c r="IM1" s="13"/>
+      <c r="IN1" s="13"/>
+      <c r="IO1" s="13"/>
+      <c r="IP1" s="13"/>
+      <c r="IQ1" s="13"/>
+      <c r="IR1" s="13"/>
+      <c r="IS1" s="13"/>
+      <c r="IT1" s="13"/>
+      <c r="IU1" s="13"/>
+      <c r="IV1" s="13"/>
+      <c r="IW1" s="13"/>
+      <c r="IX1" s="13"/>
+      <c r="IY1" s="13"/>
+      <c r="IZ1" s="13"/>
+      <c r="JA1" s="13"/>
+      <c r="JB1" s="13"/>
+      <c r="JC1" s="13"/>
+      <c r="JD1" s="13"/>
+      <c r="JE1" s="13"/>
+      <c r="JF1" s="13"/>
+      <c r="JG1" s="13"/>
+      <c r="JH1" s="13"/>
+      <c r="JI1" s="13"/>
+      <c r="JJ1" s="13"/>
+      <c r="JK1" s="13"/>
+      <c r="JL1" s="13"/>
+      <c r="JM1" s="13"/>
+      <c r="JN1" s="13"/>
+      <c r="JO1" s="13"/>
+      <c r="JP1" s="13"/>
+      <c r="JQ1" s="13"/>
+      <c r="JR1" s="13"/>
+      <c r="JS1" s="13"/>
+      <c r="JT1" s="13"/>
+      <c r="JU1" s="13"/>
+      <c r="JV1" s="13"/>
+      <c r="JW1" s="13"/>
+      <c r="JX1" s="13"/>
+      <c r="JY1" s="13"/>
+      <c r="JZ1" s="13"/>
+      <c r="KA1" s="13"/>
+      <c r="KB1" s="13"/>
+      <c r="KC1" s="13"/>
+      <c r="KD1" s="13"/>
+      <c r="KE1" s="13"/>
+      <c r="KF1" s="13"/>
+      <c r="KG1" s="13"/>
+      <c r="KH1" s="13"/>
+      <c r="KI1" s="13"/>
+      <c r="KJ1" s="13"/>
+      <c r="KK1" s="13"/>
+      <c r="KL1" s="13"/>
+      <c r="KM1" s="13"/>
+      <c r="KN1" s="13"/>
+      <c r="KO1" s="13"/>
+      <c r="KP1" s="13"/>
+      <c r="KQ1" s="13"/>
+      <c r="KR1" s="13"/>
+      <c r="KS1" s="13"/>
+      <c r="KT1" s="13"/>
+      <c r="KU1" s="13"/>
+      <c r="KV1" s="13"/>
+      <c r="KW1" s="13"/>
+      <c r="KX1" s="13"/>
+      <c r="KY1" s="13"/>
+      <c r="KZ1" s="13"/>
+      <c r="LA1" s="13"/>
+      <c r="LB1" s="13"/>
+      <c r="LC1" s="13"/>
+      <c r="LD1" s="13"/>
+      <c r="LE1" s="13"/>
+      <c r="LF1" s="13"/>
+      <c r="LG1" s="13"/>
+      <c r="LH1" s="13"/>
+      <c r="LI1" s="13"/>
+      <c r="LJ1" s="13"/>
+      <c r="LK1" s="13"/>
+      <c r="LL1" s="13"/>
+      <c r="LM1" s="13"/>
+      <c r="LN1" s="13"/>
+      <c r="LO1" s="13"/>
+      <c r="LP1" s="13"/>
+      <c r="LQ1" s="13"/>
+      <c r="LR1" s="13"/>
+      <c r="LS1" s="13"/>
+      <c r="LT1" s="13"/>
+      <c r="LU1" s="13"/>
+      <c r="LV1" s="13"/>
+      <c r="LW1" s="13"/>
+      <c r="LX1" s="13"/>
+      <c r="LY1" s="13"/>
+      <c r="LZ1" s="13"/>
+      <c r="MA1" s="13"/>
+      <c r="MB1" s="13"/>
+      <c r="MC1" s="13"/>
+      <c r="MD1" s="13"/>
+      <c r="ME1" s="13"/>
+      <c r="MF1" s="13"/>
+      <c r="MG1" s="13"/>
+      <c r="MH1" s="13"/>
+      <c r="MI1" s="13"/>
+      <c r="MJ1" s="13"/>
+      <c r="MK1" s="13"/>
+      <c r="ML1" s="13"/>
+      <c r="MM1" s="13"/>
+      <c r="MN1" s="13"/>
+      <c r="MO1" s="13"/>
+      <c r="MP1" s="13"/>
+      <c r="MQ1" s="13"/>
+      <c r="MR1" s="13"/>
+      <c r="MS1" s="13"/>
+      <c r="MT1" s="13"/>
+      <c r="MU1" s="13"/>
+      <c r="MV1" s="13"/>
+      <c r="MW1" s="13"/>
+      <c r="MX1" s="13"/>
+      <c r="MY1" s="13"/>
+      <c r="MZ1" s="13"/>
+      <c r="NA1" s="13"/>
+      <c r="NB1" s="13"/>
+      <c r="NC1" s="13"/>
+      <c r="ND1" s="13"/>
+      <c r="NE1" s="13"/>
+      <c r="NF1" s="13"/>
+      <c r="NG1" s="13"/>
+      <c r="NH1" s="13"/>
+      <c r="NI1" s="13"/>
+      <c r="NJ1" s="13"/>
+      <c r="NK1" s="13"/>
+      <c r="NL1" s="13"/>
+      <c r="NM1" s="13"/>
+      <c r="NN1" s="13"/>
+      <c r="NO1" s="13"/>
+      <c r="NP1" s="13"/>
+      <c r="NQ1" s="13"/>
+      <c r="NR1" s="13"/>
+      <c r="NS1" s="13"/>
+      <c r="NT1" s="13"/>
+      <c r="NU1" s="13"/>
+      <c r="NV1" s="13"/>
+      <c r="NW1" s="13"/>
+      <c r="NX1" s="13"/>
+      <c r="NY1" s="13"/>
+      <c r="NZ1" s="13"/>
+      <c r="OA1" s="13"/>
+      <c r="OB1" s="13"/>
+      <c r="OC1" s="13"/>
+      <c r="OD1" s="13"/>
+      <c r="OE1" s="13"/>
+      <c r="OF1" s="13"/>
+      <c r="OG1" s="13"/>
+      <c r="OH1" s="13"/>
+      <c r="OI1" s="13"/>
+      <c r="OJ1" s="13"/>
+      <c r="OK1" s="13"/>
+      <c r="OL1" s="13"/>
+      <c r="OM1" s="13"/>
+      <c r="ON1" s="13"/>
+      <c r="OO1" s="13"/>
+      <c r="OP1" s="13"/>
+      <c r="OQ1" s="13"/>
+      <c r="OR1" s="13"/>
+      <c r="OS1" s="13"/>
+      <c r="OT1" s="13"/>
+      <c r="OU1" s="13"/>
+      <c r="OV1" s="13"/>
+      <c r="OW1" s="13"/>
+      <c r="OX1" s="13"/>
+      <c r="OY1" s="13"/>
+      <c r="OZ1" s="13"/>
+      <c r="PA1" s="13"/>
+      <c r="PB1" s="13"/>
+      <c r="PC1" s="13"/>
+      <c r="PD1" s="13"/>
+      <c r="PE1" s="13"/>
+      <c r="PF1" s="13"/>
+      <c r="PG1" s="13"/>
+      <c r="PH1" s="13"/>
+      <c r="PI1" s="13"/>
+      <c r="PJ1" s="13"/>
+      <c r="PK1" s="13"/>
+      <c r="PL1" s="13"/>
+      <c r="PM1" s="13"/>
+      <c r="PN1" s="13"/>
+      <c r="PO1" s="13"/>
+      <c r="PP1" s="13"/>
+      <c r="PQ1" s="13"/>
+      <c r="PR1" s="13"/>
+      <c r="PS1" s="13"/>
+      <c r="PT1" s="13"/>
+      <c r="PU1" s="13"/>
+      <c r="PV1" s="13"/>
+      <c r="PW1" s="13"/>
+      <c r="PX1" s="13"/>
+      <c r="PY1" s="13"/>
+      <c r="PZ1" s="13"/>
+      <c r="QA1" s="13"/>
+      <c r="QB1" s="13"/>
+      <c r="QC1" s="13"/>
+      <c r="QD1" s="13"/>
+      <c r="QE1" s="13"/>
+      <c r="QF1" s="13"/>
+      <c r="QG1" s="13"/>
+      <c r="QH1" s="13"/>
+      <c r="QI1" s="13"/>
+      <c r="QJ1" s="13"/>
+      <c r="QK1" s="13"/>
+      <c r="QL1" s="13"/>
+      <c r="QM1" s="13"/>
+      <c r="QN1" s="13"/>
+      <c r="QO1" s="13"/>
+      <c r="QP1" s="13"/>
+      <c r="QQ1" s="13"/>
+      <c r="QR1" s="13"/>
+      <c r="QS1" s="13"/>
+      <c r="QT1" s="13"/>
+      <c r="QU1" s="13"/>
+      <c r="QV1" s="13"/>
+      <c r="QW1" s="13"/>
+      <c r="QX1" s="13"/>
+      <c r="QY1" s="13"/>
+      <c r="QZ1" s="13"/>
+      <c r="RA1" s="13"/>
+      <c r="RB1" s="13"/>
+      <c r="RC1" s="13"/>
+      <c r="RD1" s="13"/>
+      <c r="RE1" s="13"/>
+      <c r="RF1" s="13"/>
+      <c r="RG1" s="13"/>
+      <c r="RH1" s="13"/>
+      <c r="RI1" s="13"/>
+      <c r="RJ1" s="13"/>
+      <c r="RK1" s="13"/>
+      <c r="RL1" s="13"/>
+      <c r="RM1" s="13"/>
+      <c r="RN1" s="13"/>
+      <c r="RO1" s="13"/>
+      <c r="RP1" s="13"/>
+      <c r="RQ1" s="13"/>
+      <c r="RR1" s="13"/>
+      <c r="RS1" s="13"/>
+      <c r="RT1" s="13"/>
+      <c r="RU1" s="13"/>
+      <c r="RV1" s="13"/>
+      <c r="RW1" s="13"/>
+      <c r="RX1" s="13"/>
+      <c r="RY1" s="13"/>
+      <c r="RZ1" s="13"/>
+      <c r="SA1" s="13"/>
+      <c r="SB1" s="13"/>
+      <c r="SC1" s="13"/>
+      <c r="SD1" s="13"/>
+      <c r="SE1" s="13"/>
+      <c r="SF1" s="13"/>
+      <c r="SG1" s="13"/>
+      <c r="SH1" s="13"/>
+      <c r="SI1" s="13"/>
+      <c r="SJ1" s="13"/>
+      <c r="SK1" s="13"/>
+      <c r="SL1" s="13"/>
+      <c r="SM1" s="13"/>
+      <c r="SN1" s="13"/>
+      <c r="SO1" s="13"/>
+      <c r="SP1" s="13"/>
+      <c r="SQ1" s="13"/>
+      <c r="SR1" s="13"/>
+      <c r="SS1" s="13"/>
+      <c r="ST1" s="13"/>
+      <c r="SU1" s="13"/>
+      <c r="SV1" s="13"/>
+      <c r="SW1" s="13"/>
+      <c r="SX1" s="13"/>
+      <c r="SY1" s="13"/>
+      <c r="SZ1" s="13"/>
+      <c r="TA1" s="13"/>
+      <c r="TB1" s="13"/>
+      <c r="TC1" s="13"/>
+      <c r="TD1" s="13"/>
+      <c r="TE1" s="13"/>
+      <c r="TF1" s="13"/>
+      <c r="TG1" s="13"/>
+      <c r="TH1" s="13"/>
+      <c r="TI1" s="13"/>
+      <c r="TJ1" s="13"/>
+      <c r="TK1" s="13"/>
+      <c r="TL1" s="13"/>
+      <c r="TM1" s="13"/>
+      <c r="TN1" s="13"/>
+      <c r="TO1" s="13"/>
+      <c r="TP1" s="13"/>
+      <c r="TQ1" s="13"/>
+      <c r="TR1" s="13"/>
+      <c r="TS1" s="13"/>
+      <c r="TT1" s="13"/>
+      <c r="TU1" s="13"/>
+      <c r="TV1" s="13"/>
+      <c r="TW1" s="13"/>
+      <c r="TX1" s="13"/>
+      <c r="TY1" s="13"/>
+      <c r="TZ1" s="13"/>
+      <c r="UA1" s="13"/>
+      <c r="UB1" s="13"/>
+      <c r="UC1" s="13"/>
+      <c r="UD1" s="13"/>
+      <c r="UE1" s="13"/>
+      <c r="UF1" s="13"/>
+      <c r="UG1" s="13"/>
+      <c r="UH1" s="13"/>
+      <c r="UI1" s="13"/>
+      <c r="UJ1" s="13"/>
+      <c r="UK1" s="13"/>
+      <c r="UL1" s="13"/>
+      <c r="UM1" s="13"/>
+      <c r="UN1" s="13"/>
+      <c r="UO1" s="13"/>
+      <c r="UP1" s="13"/>
+      <c r="UQ1" s="13"/>
+      <c r="UR1" s="13"/>
+      <c r="US1" s="13"/>
+      <c r="UT1" s="13"/>
+      <c r="UU1" s="13"/>
+      <c r="UV1" s="13"/>
+      <c r="UW1" s="13"/>
+      <c r="UX1" s="13"/>
+      <c r="UY1" s="13"/>
+      <c r="UZ1" s="13"/>
+      <c r="VA1" s="13"/>
+      <c r="VB1" s="13"/>
+      <c r="VC1" s="13"/>
+      <c r="VD1" s="13"/>
+      <c r="VE1" s="13"/>
+      <c r="VF1" s="13"/>
+      <c r="VG1" s="13"/>
+      <c r="VH1" s="13"/>
+      <c r="VI1" s="13"/>
+      <c r="VJ1" s="13"/>
+      <c r="VK1" s="13"/>
+      <c r="VL1" s="13"/>
+      <c r="VM1" s="13"/>
+      <c r="VN1" s="13"/>
+      <c r="VO1" s="13"/>
+      <c r="VP1" s="13"/>
+      <c r="VQ1" s="13"/>
+      <c r="VR1" s="13"/>
+      <c r="VS1" s="13"/>
+      <c r="VT1" s="13"/>
+      <c r="VU1" s="13"/>
+      <c r="VV1" s="13"/>
+      <c r="VW1" s="13"/>
+      <c r="VX1" s="13"/>
+      <c r="VY1" s="13"/>
+      <c r="VZ1" s="13"/>
+      <c r="WA1" s="13"/>
+      <c r="WB1" s="13"/>
+      <c r="WC1" s="13"/>
+      <c r="WD1" s="13"/>
+      <c r="WE1" s="13"/>
+      <c r="WF1" s="13"/>
+      <c r="WG1" s="13"/>
+      <c r="WH1" s="13"/>
+      <c r="WI1" s="13"/>
+      <c r="WJ1" s="13"/>
+      <c r="WK1" s="13"/>
+      <c r="WL1" s="13"/>
+      <c r="WM1" s="13"/>
+      <c r="WN1" s="13"/>
+      <c r="WO1" s="13"/>
+      <c r="WP1" s="13"/>
+      <c r="WQ1" s="13"/>
+      <c r="WR1" s="13"/>
+      <c r="WS1" s="13"/>
+      <c r="WT1" s="13"/>
+      <c r="WU1" s="13"/>
+      <c r="WV1" s="13"/>
+      <c r="WW1" s="13"/>
+      <c r="WX1" s="13"/>
+      <c r="WY1" s="13"/>
+      <c r="WZ1" s="13"/>
+      <c r="XA1" s="13"/>
+      <c r="XB1" s="13"/>
+      <c r="XC1" s="13"/>
+      <c r="XD1" s="13"/>
+      <c r="XE1" s="13"/>
+      <c r="XF1" s="13"/>
+      <c r="XG1" s="13"/>
+      <c r="XH1" s="13"/>
+      <c r="XI1" s="13"/>
+      <c r="XJ1" s="13"/>
+      <c r="XK1" s="13"/>
+      <c r="XL1" s="13"/>
+      <c r="XM1" s="13"/>
+      <c r="XN1" s="13"/>
+      <c r="XO1" s="13"/>
+      <c r="XP1" s="13"/>
+      <c r="XQ1" s="13"/>
+      <c r="XR1" s="13"/>
+      <c r="XS1" s="13"/>
+      <c r="XT1" s="13"/>
+      <c r="XU1" s="13"/>
+      <c r="XV1" s="13"/>
+      <c r="XW1" s="13"/>
+      <c r="XX1" s="13"/>
+      <c r="XY1" s="13"/>
+      <c r="XZ1" s="13"/>
+      <c r="YA1" s="13"/>
+      <c r="YB1" s="13"/>
+      <c r="YC1" s="13"/>
+      <c r="YD1" s="13"/>
+      <c r="YE1" s="13"/>
+      <c r="YF1" s="13"/>
+      <c r="YG1" s="13"/>
+      <c r="YH1" s="13"/>
+      <c r="YI1" s="13"/>
+      <c r="YJ1" s="13"/>
+      <c r="YK1" s="13"/>
+      <c r="YL1" s="13"/>
+      <c r="YM1" s="13"/>
+      <c r="YN1" s="13"/>
+      <c r="YO1" s="13"/>
+      <c r="YP1" s="13"/>
+      <c r="YQ1" s="13"/>
+      <c r="YR1" s="13"/>
+      <c r="YS1" s="13"/>
+      <c r="YT1" s="13"/>
+      <c r="YU1" s="13"/>
+      <c r="YV1" s="13"/>
+      <c r="YW1" s="13"/>
+      <c r="YX1" s="13"/>
+      <c r="YY1" s="13"/>
+      <c r="YZ1" s="13"/>
+      <c r="ZA1" s="13"/>
+      <c r="ZB1" s="13"/>
+      <c r="ZC1" s="13"/>
+      <c r="ZD1" s="13"/>
+      <c r="ZE1" s="13"/>
+      <c r="ZF1" s="13"/>
+      <c r="ZG1" s="13"/>
+      <c r="ZH1" s="13"/>
+      <c r="ZI1" s="13"/>
+      <c r="ZJ1" s="13"/>
+      <c r="ZK1" s="13"/>
+      <c r="ZL1" s="13"/>
+      <c r="ZM1" s="13"/>
+      <c r="ZN1" s="13"/>
+      <c r="ZO1" s="13"/>
+      <c r="ZP1" s="13"/>
+      <c r="ZQ1" s="13"/>
+      <c r="ZR1" s="13"/>
+      <c r="ZS1" s="13"/>
+      <c r="ZT1" s="13"/>
+      <c r="ZU1" s="13"/>
+      <c r="ZV1" s="13"/>
+      <c r="ZW1" s="13"/>
+      <c r="ZX1" s="13"/>
+      <c r="ZY1" s="13"/>
+      <c r="ZZ1" s="13"/>
+      <c r="AAA1" s="13"/>
+      <c r="AAB1" s="13"/>
+      <c r="AAC1" s="13"/>
+      <c r="AAD1" s="13"/>
+      <c r="AAE1" s="13"/>
+      <c r="AAF1" s="13"/>
+      <c r="AAG1" s="13"/>
+      <c r="AAH1" s="13"/>
+      <c r="AAI1" s="13"/>
+      <c r="AAJ1" s="13"/>
+      <c r="AAK1" s="13"/>
+      <c r="AAL1" s="13"/>
+      <c r="AAM1" s="13"/>
+      <c r="AAN1" s="13"/>
+      <c r="AAO1" s="13"/>
+      <c r="AAP1" s="13"/>
+      <c r="AAQ1" s="13"/>
+      <c r="AAR1" s="13"/>
+      <c r="AAS1" s="13"/>
+      <c r="AAT1" s="13"/>
+      <c r="AAU1" s="13"/>
+      <c r="AAV1" s="13"/>
+      <c r="AAW1" s="13"/>
+      <c r="AAX1" s="13"/>
+      <c r="AAY1" s="13"/>
+      <c r="AAZ1" s="13"/>
+      <c r="ABA1" s="13"/>
+      <c r="ABB1" s="13"/>
+      <c r="ABC1" s="13"/>
+      <c r="ABD1" s="13"/>
+      <c r="ABE1" s="13"/>
+      <c r="ABF1" s="13"/>
+      <c r="ABG1" s="13"/>
+      <c r="ABH1" s="13"/>
+      <c r="ABI1" s="13"/>
+      <c r="ABJ1" s="13"/>
+      <c r="ABK1" s="13"/>
+      <c r="ABL1" s="13"/>
+      <c r="ABM1" s="13"/>
+      <c r="ABN1" s="13"/>
+      <c r="ABO1" s="13"/>
+      <c r="ABP1" s="13"/>
+      <c r="ABQ1" s="13"/>
+      <c r="ABR1" s="13"/>
+      <c r="ABS1" s="13"/>
+      <c r="ABT1" s="13"/>
+      <c r="ABU1" s="13"/>
+      <c r="ABV1" s="13"/>
+      <c r="ABW1" s="13"/>
+      <c r="ABX1" s="13"/>
+      <c r="ABY1" s="13"/>
+      <c r="ABZ1" s="13"/>
+      <c r="ACA1" s="13"/>
+      <c r="ACB1" s="13"/>
+      <c r="ACC1" s="13"/>
+      <c r="ACD1" s="13"/>
+      <c r="ACE1" s="13"/>
+      <c r="ACF1" s="13"/>
+      <c r="ACG1" s="13"/>
+      <c r="ACH1" s="13"/>
+      <c r="ACI1" s="13"/>
+      <c r="ACJ1" s="13"/>
+      <c r="ACK1" s="13"/>
+      <c r="ACL1" s="13"/>
+      <c r="ACM1" s="13"/>
+      <c r="ACN1" s="13"/>
+      <c r="ACO1" s="13"/>
+      <c r="ACP1" s="13"/>
+      <c r="ACQ1" s="13"/>
+      <c r="ACR1" s="13"/>
+      <c r="ACS1" s="13"/>
+      <c r="ACT1" s="13"/>
+      <c r="ACU1" s="13"/>
+      <c r="ACV1" s="13"/>
+      <c r="ACW1" s="13"/>
+      <c r="ACX1" s="13"/>
+      <c r="ACY1" s="13"/>
+      <c r="ACZ1" s="13"/>
+      <c r="ADA1" s="13"/>
+      <c r="ADB1" s="13"/>
+      <c r="ADC1" s="13"/>
+      <c r="ADD1" s="13"/>
+      <c r="ADE1" s="13"/>
+      <c r="ADF1" s="13"/>
+      <c r="ADG1" s="13"/>
+      <c r="ADH1" s="13"/>
+      <c r="ADI1" s="13"/>
+      <c r="ADJ1" s="13"/>
+      <c r="ADK1" s="13"/>
+      <c r="ADL1" s="13"/>
+      <c r="ADM1" s="13"/>
+      <c r="ADN1" s="13"/>
+      <c r="ADO1" s="13"/>
+      <c r="ADP1" s="13"/>
+      <c r="ADQ1" s="13"/>
+      <c r="ADR1" s="13"/>
+      <c r="ADS1" s="13"/>
+      <c r="ADT1" s="13"/>
+      <c r="ADU1" s="13"/>
+      <c r="ADV1" s="13"/>
+      <c r="ADW1" s="13"/>
+      <c r="ADX1" s="13"/>
+      <c r="ADY1" s="13"/>
+      <c r="ADZ1" s="13"/>
+      <c r="AEA1" s="13"/>
+      <c r="AEB1" s="13"/>
+      <c r="AEC1" s="13"/>
+      <c r="AED1" s="13"/>
+      <c r="AEE1" s="13"/>
+      <c r="AEF1" s="13"/>
+      <c r="AEG1" s="13"/>
+      <c r="AEH1" s="13"/>
+      <c r="AEI1" s="13"/>
+      <c r="AEJ1" s="13"/>
+      <c r="AEK1" s="13"/>
+      <c r="AEL1" s="13"/>
+      <c r="AEM1" s="13"/>
+      <c r="AEN1" s="13"/>
+      <c r="AEO1" s="13"/>
+      <c r="AEP1" s="13"/>
+      <c r="AEQ1" s="13"/>
+      <c r="AER1" s="13"/>
+      <c r="AES1" s="13"/>
+      <c r="AET1" s="13"/>
+      <c r="AEU1" s="13"/>
+      <c r="AEV1" s="13"/>
+      <c r="AEW1" s="13"/>
+      <c r="AEX1" s="13"/>
+      <c r="AEY1" s="13"/>
+      <c r="AEZ1" s="13"/>
+      <c r="AFA1" s="13"/>
+      <c r="AFB1" s="13"/>
+      <c r="AFC1" s="13"/>
+      <c r="AFD1" s="13"/>
+      <c r="AFE1" s="13"/>
+      <c r="AFF1" s="13"/>
+      <c r="AFG1" s="13"/>
+      <c r="AFH1" s="13"/>
+      <c r="AFI1" s="13"/>
+      <c r="AFJ1" s="13"/>
+      <c r="AFK1" s="13"/>
+      <c r="AFL1" s="13"/>
+      <c r="AFM1" s="13"/>
+      <c r="AFN1" s="13"/>
+      <c r="AFO1" s="13"/>
+      <c r="AFP1" s="13"/>
+      <c r="AFQ1" s="13"/>
+      <c r="AFR1" s="13"/>
+      <c r="AFS1" s="13"/>
+      <c r="AFT1" s="13"/>
+      <c r="AFU1" s="13"/>
+      <c r="AFV1" s="13"/>
+      <c r="AFW1" s="13"/>
+      <c r="AFX1" s="13"/>
+      <c r="AFY1" s="13"/>
+      <c r="AFZ1" s="13"/>
+      <c r="AGA1" s="13"/>
+      <c r="AGB1" s="13"/>
+      <c r="AGC1" s="13"/>
+      <c r="AGD1" s="13"/>
+      <c r="AGE1" s="13"/>
+      <c r="AGF1" s="13"/>
+      <c r="AGG1" s="13"/>
+      <c r="AGH1" s="13"/>
+      <c r="AGI1" s="13"/>
+      <c r="AGJ1" s="13"/>
+      <c r="AGK1" s="13"/>
+      <c r="AGL1" s="13"/>
+      <c r="AGM1" s="13"/>
+      <c r="AGN1" s="13"/>
+      <c r="AGO1" s="13"/>
+      <c r="AGP1" s="13"/>
+      <c r="AGQ1" s="13"/>
+      <c r="AGR1" s="13"/>
+      <c r="AGS1" s="13"/>
+      <c r="AGT1" s="13"/>
+      <c r="AGU1" s="13"/>
+      <c r="AGV1" s="13"/>
+      <c r="AGW1" s="13"/>
+      <c r="AGX1" s="13"/>
+      <c r="AGY1" s="13"/>
+      <c r="AGZ1" s="13"/>
+      <c r="AHA1" s="13"/>
+      <c r="AHB1" s="13"/>
+      <c r="AHC1" s="13"/>
+      <c r="AHD1" s="13"/>
+      <c r="AHE1" s="13"/>
+      <c r="AHF1" s="13"/>
+      <c r="AHG1" s="13"/>
+      <c r="AHH1" s="13"/>
+      <c r="AHI1" s="13"/>
+      <c r="AHJ1" s="13"/>
+      <c r="AHK1" s="13"/>
+      <c r="AHL1" s="13"/>
+      <c r="AHM1" s="13"/>
+      <c r="AHN1" s="13"/>
+      <c r="AHO1" s="13"/>
+      <c r="AHP1" s="13"/>
+      <c r="AHQ1" s="13"/>
+      <c r="AHR1" s="13"/>
+      <c r="AHS1" s="13"/>
+      <c r="AHT1" s="13"/>
+      <c r="AHU1" s="13"/>
+      <c r="AHV1" s="13"/>
+      <c r="AHW1" s="13"/>
+      <c r="AHX1" s="13"/>
+      <c r="AHY1" s="13"/>
+      <c r="AHZ1" s="13"/>
+      <c r="AIA1" s="13"/>
+      <c r="AIB1" s="13"/>
+      <c r="AIC1" s="13"/>
+      <c r="AID1" s="13"/>
+      <c r="AIE1" s="13"/>
+      <c r="AIF1" s="13"/>
+      <c r="AIG1" s="13"/>
+      <c r="AIH1" s="13"/>
+      <c r="AII1" s="13"/>
+      <c r="AIJ1" s="13"/>
+      <c r="AIK1" s="13"/>
+      <c r="AIL1" s="13"/>
+      <c r="AIM1" s="13"/>
+      <c r="AIN1" s="13"/>
+      <c r="AIO1" s="13"/>
+      <c r="AIP1" s="13"/>
+      <c r="AIQ1" s="13"/>
+      <c r="AIR1" s="13"/>
+      <c r="AIS1" s="13"/>
+      <c r="AIT1" s="13"/>
+      <c r="AIU1" s="13"/>
+      <c r="AIV1" s="13"/>
+      <c r="AIW1" s="13"/>
+      <c r="AIX1" s="13"/>
+      <c r="AIY1" s="13"/>
+      <c r="AIZ1" s="13"/>
+      <c r="AJA1" s="13"/>
+      <c r="AJB1" s="13"/>
+      <c r="AJC1" s="13"/>
+      <c r="AJD1" s="13"/>
+      <c r="AJE1" s="13"/>
+      <c r="AJF1" s="13"/>
+      <c r="AJG1" s="13"/>
+      <c r="AJH1" s="13"/>
+      <c r="AJI1" s="13"/>
+      <c r="AJJ1" s="13"/>
+      <c r="AJK1" s="13"/>
+      <c r="AJL1" s="13"/>
+      <c r="AJM1" s="13"/>
+      <c r="AJN1" s="13"/>
+      <c r="AJO1" s="13"/>
+      <c r="AJP1" s="13"/>
+      <c r="AJQ1" s="13"/>
+    </row>
+    <row r="2" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>B2&amp;"- "&amp;C2&amp;"- "&amp;D2&amp;"- "&amp;E2&amp;"- "&amp;F2&amp;"- "&amp;G2&amp;"- "&amp;H2&amp;"- "&amp;I2&amp;"- "&amp;J2&amp;"- "&amp;K2&amp;"- "&amp;L2&amp;"- "&amp;M2&amp;"- "&amp;N2&amp;"- "&amp;O2&amp;"- "&amp;P2</f>
         <v xml:space="preserve">- - - - - - - - - - - - - - </v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>B3&amp;"- "&amp;C3&amp;"- "&amp;D3&amp;"- "&amp;E3&amp;"- "&amp;F3&amp;"- "&amp;G3&amp;"- "&amp;H3&amp;"- "&amp;I3&amp;"- "&amp;J3&amp;"- "&amp;K3&amp;"- "&amp;L3&amp;"- "&amp;M3&amp;"- "&amp;N3&amp;"- "&amp;O3&amp;"- "&amp;P3</f>
         <v xml:space="preserve">- - - - - - - - - - - - - - </v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A65" si="0">B4&amp;"- "&amp;C4</f>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">- </v>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0F9225-CE68-4CCA-80D1-DB47BECAF45A}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C42E135-104F-4872-81B2-20862213478B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="2" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="View_Print" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Log" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Log 3</t>
   </si>
@@ -83,6 +84,51 @@
   </si>
   <si>
     <t>Log 2</t>
+  </si>
+  <si>
+    <t>#REF!2</t>
+  </si>
+  <si>
+    <t>#REF!3</t>
+  </si>
+  <si>
+    <t>#REF!4</t>
+  </si>
+  <si>
+    <t>#REF!5</t>
+  </si>
+  <si>
+    <t>#REF!6</t>
+  </si>
+  <si>
+    <t>#REF!7</t>
+  </si>
+  <si>
+    <t>#REF!8</t>
+  </si>
+  <si>
+    <t>#REF!9</t>
+  </si>
+  <si>
+    <t>#REF!10</t>
+  </si>
+  <si>
+    <t>#REF!11</t>
+  </si>
+  <si>
+    <t>#REF!12</t>
+  </si>
+  <si>
+    <t>#REF!13</t>
+  </si>
+  <si>
+    <t>#REF!14</t>
+  </si>
+  <si>
+    <t>#REF!15</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -177,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -214,10 +260,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -226,11 +268,43 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -361,6 +435,30 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}" name="Table1" displayName="Table1" ref="A10:O10012" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A10:O10012" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{86F21F60-01CB-4FCC-9708-D8FC26D516BE}" name="0"/>
+    <tableColumn id="2" xr3:uid="{420491F5-7583-4D31-825A-67B38869B0E1}" name="#REF!2"/>
+    <tableColumn id="3" xr3:uid="{1F7E1F41-D28C-4D94-9479-A32BE7AB8C36}" name="#REF!3"/>
+    <tableColumn id="4" xr3:uid="{4B075BA5-1A43-4BFA-978D-5D4BA9D2A918}" name="#REF!4"/>
+    <tableColumn id="5" xr3:uid="{2433C96A-A077-4EEB-93CB-FC164297AAEF}" name="#REF!5"/>
+    <tableColumn id="6" xr3:uid="{3E20F179-64E5-4EF0-9837-9E8E027C6F96}" name="#REF!6"/>
+    <tableColumn id="7" xr3:uid="{05CD1BCF-2477-4CC9-9B4B-35D17E434693}" name="#REF!7"/>
+    <tableColumn id="8" xr3:uid="{9C084DCA-5F41-40FF-B62C-11F54E046C96}" name="#REF!8"/>
+    <tableColumn id="9" xr3:uid="{490BB9B8-37C9-4D40-A019-93822B6C73FC}" name="#REF!9"/>
+    <tableColumn id="10" xr3:uid="{F21D218F-C100-4DD1-B6D5-3DBA6300B241}" name="#REF!10"/>
+    <tableColumn id="11" xr3:uid="{ABEC6EB0-02F8-4F44-9F67-60517E58AB58}" name="#REF!11"/>
+    <tableColumn id="12" xr3:uid="{C8B88CCC-65E9-4182-A5A4-C2CB6C699867}" name="#REF!12"/>
+    <tableColumn id="13" xr3:uid="{C4D464DB-6B22-465A-ACED-0F79DA327241}" name="#REF!13"/>
+    <tableColumn id="14" xr3:uid="{573B3962-FD7A-4EE6-8CF9-5FC3C4689EB1}" name="#REF!14"/>
+    <tableColumn id="15" xr3:uid="{C4A23DBA-9F06-493A-9EEF-42F7287E461C}" name="#REF!15"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,7 +778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -739,7 +839,9 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1871,21 +1973,21 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
       <c r="Q2" s="6"/>
     </row>
   </sheetData>
@@ -1910,11 +2012,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95E05E2-AE3D-4537-B678-D1EB785E7663}">
+  <dimension ref="A10:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="15" width="20.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7D3E8-64C8-4AE1-938C-EF1CA99C435B}">
   <dimension ref="A1:AJQ2003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1922,1008 +2093,1008 @@
     <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:953" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="str">
+    <row r="1" spans="1:953" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="str">
         <f>S1&amp;"- "&amp;T1&amp;"- "&amp;U1&amp;"- "&amp;V1&amp;"- "&amp;W1&amp;"- "&amp;X1&amp;"- "&amp;Y1&amp;"- "&amp;Z1&amp;"- "&amp;AA1&amp;"- "&amp;AB1&amp;"- "&amp;AC1&amp;"- "&amp;AD1&amp;"- "&amp;AE1&amp;"- "&amp;AF1&amp;"- "&amp;AG1</f>
         <v>Log 1- Log 2- Log 3- Log 4- Log 5- Log 6- Log 7- Log 8- Log 9 - Log 10- Log 11- Log 12- Log 13- Log 14- Log 15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="str">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11" t="str">
         <f>Input!A1</f>
         <v>Log 1</v>
       </c>
-      <c r="T1" s="13" t="str">
+      <c r="T1" s="11" t="str">
         <f>Input!B1</f>
         <v>Log 2</v>
       </c>
-      <c r="U1" s="13" t="str">
+      <c r="U1" s="11" t="str">
         <f>Input!C1</f>
         <v>Log 3</v>
       </c>
-      <c r="V1" s="13" t="str">
+      <c r="V1" s="11" t="str">
         <f>Input!D1</f>
         <v>Log 4</v>
       </c>
-      <c r="W1" s="13" t="str">
+      <c r="W1" s="11" t="str">
         <f>Input!E1</f>
         <v>Log 5</v>
       </c>
-      <c r="X1" s="13" t="str">
+      <c r="X1" s="11" t="str">
         <f>Input!F1</f>
         <v>Log 6</v>
       </c>
-      <c r="Y1" s="13" t="str">
+      <c r="Y1" s="11" t="str">
         <f>Input!G1</f>
         <v>Log 7</v>
       </c>
-      <c r="Z1" s="13" t="str">
+      <c r="Z1" s="11" t="str">
         <f>Input!H1</f>
         <v>Log 8</v>
       </c>
-      <c r="AA1" s="13" t="str">
+      <c r="AA1" s="11" t="str">
         <f>Input!I1</f>
         <v xml:space="preserve">Log 9 </v>
       </c>
-      <c r="AB1" s="13" t="str">
+      <c r="AB1" s="11" t="str">
         <f>Input!J1</f>
         <v>Log 10</v>
       </c>
-      <c r="AC1" s="13" t="str">
+      <c r="AC1" s="11" t="str">
         <f>Input!K1</f>
         <v>Log 11</v>
       </c>
-      <c r="AD1" s="13" t="str">
+      <c r="AD1" s="11" t="str">
         <f>Input!L1</f>
         <v>Log 12</v>
       </c>
-      <c r="AE1" s="13" t="str">
+      <c r="AE1" s="11" t="str">
         <f>Input!M1</f>
         <v>Log 13</v>
       </c>
-      <c r="AF1" s="13" t="str">
+      <c r="AF1" s="11" t="str">
         <f>Input!N1</f>
         <v>Log 14</v>
       </c>
-      <c r="AG1" s="13" t="str">
+      <c r="AG1" s="11" t="str">
         <f>Input!O1</f>
         <v>Log 15</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13"/>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="13"/>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
-      <c r="DV1" s="13"/>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13"/>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13"/>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13"/>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13"/>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13"/>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="13"/>
-      <c r="EM1" s="13"/>
-      <c r="EN1" s="13"/>
-      <c r="EO1" s="13"/>
-      <c r="EP1" s="13"/>
-      <c r="EQ1" s="13"/>
-      <c r="ER1" s="13"/>
-      <c r="ES1" s="13"/>
-      <c r="ET1" s="13"/>
-      <c r="EU1" s="13"/>
-      <c r="EV1" s="13"/>
-      <c r="EW1" s="13"/>
-      <c r="EX1" s="13"/>
-      <c r="EY1" s="13"/>
-      <c r="EZ1" s="13"/>
-      <c r="FA1" s="13"/>
-      <c r="FB1" s="13"/>
-      <c r="FC1" s="13"/>
-      <c r="FD1" s="13"/>
-      <c r="FE1" s="13"/>
-      <c r="FF1" s="13"/>
-      <c r="FG1" s="13"/>
-      <c r="FH1" s="13"/>
-      <c r="FI1" s="13"/>
-      <c r="FJ1" s="13"/>
-      <c r="FK1" s="13"/>
-      <c r="FL1" s="13"/>
-      <c r="FM1" s="13"/>
-      <c r="FN1" s="13"/>
-      <c r="FO1" s="13"/>
-      <c r="FP1" s="13"/>
-      <c r="FQ1" s="13"/>
-      <c r="FR1" s="13"/>
-      <c r="FS1" s="13"/>
-      <c r="FT1" s="13"/>
-      <c r="FU1" s="13"/>
-      <c r="FV1" s="13"/>
-      <c r="FW1" s="13"/>
-      <c r="FX1" s="13"/>
-      <c r="FY1" s="13"/>
-      <c r="FZ1" s="13"/>
-      <c r="GA1" s="13"/>
-      <c r="GB1" s="13"/>
-      <c r="GC1" s="13"/>
-      <c r="GD1" s="13"/>
-      <c r="GE1" s="13"/>
-      <c r="GF1" s="13"/>
-      <c r="GG1" s="13"/>
-      <c r="GH1" s="13"/>
-      <c r="GI1" s="13"/>
-      <c r="GJ1" s="13"/>
-      <c r="GK1" s="13"/>
-      <c r="GL1" s="13"/>
-      <c r="GM1" s="13"/>
-      <c r="GN1" s="13"/>
-      <c r="GO1" s="13"/>
-      <c r="GP1" s="13"/>
-      <c r="GQ1" s="13"/>
-      <c r="GR1" s="13"/>
-      <c r="GS1" s="13"/>
-      <c r="GT1" s="13"/>
-      <c r="GU1" s="13"/>
-      <c r="GV1" s="13"/>
-      <c r="GW1" s="13"/>
-      <c r="GX1" s="13"/>
-      <c r="GY1" s="13"/>
-      <c r="GZ1" s="13"/>
-      <c r="HA1" s="13"/>
-      <c r="HB1" s="13"/>
-      <c r="HC1" s="13"/>
-      <c r="HD1" s="13"/>
-      <c r="HE1" s="13"/>
-      <c r="HF1" s="13"/>
-      <c r="HG1" s="13"/>
-      <c r="HH1" s="13"/>
-      <c r="HI1" s="13"/>
-      <c r="HJ1" s="13"/>
-      <c r="HK1" s="13"/>
-      <c r="HL1" s="13"/>
-      <c r="HM1" s="13"/>
-      <c r="HN1" s="13"/>
-      <c r="HO1" s="13"/>
-      <c r="HP1" s="13"/>
-      <c r="HQ1" s="13"/>
-      <c r="HR1" s="13"/>
-      <c r="HS1" s="13"/>
-      <c r="HT1" s="13"/>
-      <c r="HU1" s="13"/>
-      <c r="HV1" s="13"/>
-      <c r="HW1" s="13"/>
-      <c r="HX1" s="13"/>
-      <c r="HY1" s="13"/>
-      <c r="HZ1" s="13"/>
-      <c r="IA1" s="13"/>
-      <c r="IB1" s="13"/>
-      <c r="IC1" s="13"/>
-      <c r="ID1" s="13"/>
-      <c r="IE1" s="13"/>
-      <c r="IF1" s="13"/>
-      <c r="IG1" s="13"/>
-      <c r="IH1" s="13"/>
-      <c r="II1" s="13"/>
-      <c r="IJ1" s="13"/>
-      <c r="IK1" s="13"/>
-      <c r="IL1" s="13"/>
-      <c r="IM1" s="13"/>
-      <c r="IN1" s="13"/>
-      <c r="IO1" s="13"/>
-      <c r="IP1" s="13"/>
-      <c r="IQ1" s="13"/>
-      <c r="IR1" s="13"/>
-      <c r="IS1" s="13"/>
-      <c r="IT1" s="13"/>
-      <c r="IU1" s="13"/>
-      <c r="IV1" s="13"/>
-      <c r="IW1" s="13"/>
-      <c r="IX1" s="13"/>
-      <c r="IY1" s="13"/>
-      <c r="IZ1" s="13"/>
-      <c r="JA1" s="13"/>
-      <c r="JB1" s="13"/>
-      <c r="JC1" s="13"/>
-      <c r="JD1" s="13"/>
-      <c r="JE1" s="13"/>
-      <c r="JF1" s="13"/>
-      <c r="JG1" s="13"/>
-      <c r="JH1" s="13"/>
-      <c r="JI1" s="13"/>
-      <c r="JJ1" s="13"/>
-      <c r="JK1" s="13"/>
-      <c r="JL1" s="13"/>
-      <c r="JM1" s="13"/>
-      <c r="JN1" s="13"/>
-      <c r="JO1" s="13"/>
-      <c r="JP1" s="13"/>
-      <c r="JQ1" s="13"/>
-      <c r="JR1" s="13"/>
-      <c r="JS1" s="13"/>
-      <c r="JT1" s="13"/>
-      <c r="JU1" s="13"/>
-      <c r="JV1" s="13"/>
-      <c r="JW1" s="13"/>
-      <c r="JX1" s="13"/>
-      <c r="JY1" s="13"/>
-      <c r="JZ1" s="13"/>
-      <c r="KA1" s="13"/>
-      <c r="KB1" s="13"/>
-      <c r="KC1" s="13"/>
-      <c r="KD1" s="13"/>
-      <c r="KE1" s="13"/>
-      <c r="KF1" s="13"/>
-      <c r="KG1" s="13"/>
-      <c r="KH1" s="13"/>
-      <c r="KI1" s="13"/>
-      <c r="KJ1" s="13"/>
-      <c r="KK1" s="13"/>
-      <c r="KL1" s="13"/>
-      <c r="KM1" s="13"/>
-      <c r="KN1" s="13"/>
-      <c r="KO1" s="13"/>
-      <c r="KP1" s="13"/>
-      <c r="KQ1" s="13"/>
-      <c r="KR1" s="13"/>
-      <c r="KS1" s="13"/>
-      <c r="KT1" s="13"/>
-      <c r="KU1" s="13"/>
-      <c r="KV1" s="13"/>
-      <c r="KW1" s="13"/>
-      <c r="KX1" s="13"/>
-      <c r="KY1" s="13"/>
-      <c r="KZ1" s="13"/>
-      <c r="LA1" s="13"/>
-      <c r="LB1" s="13"/>
-      <c r="LC1" s="13"/>
-      <c r="LD1" s="13"/>
-      <c r="LE1" s="13"/>
-      <c r="LF1" s="13"/>
-      <c r="LG1" s="13"/>
-      <c r="LH1" s="13"/>
-      <c r="LI1" s="13"/>
-      <c r="LJ1" s="13"/>
-      <c r="LK1" s="13"/>
-      <c r="LL1" s="13"/>
-      <c r="LM1" s="13"/>
-      <c r="LN1" s="13"/>
-      <c r="LO1" s="13"/>
-      <c r="LP1" s="13"/>
-      <c r="LQ1" s="13"/>
-      <c r="LR1" s="13"/>
-      <c r="LS1" s="13"/>
-      <c r="LT1" s="13"/>
-      <c r="LU1" s="13"/>
-      <c r="LV1" s="13"/>
-      <c r="LW1" s="13"/>
-      <c r="LX1" s="13"/>
-      <c r="LY1" s="13"/>
-      <c r="LZ1" s="13"/>
-      <c r="MA1" s="13"/>
-      <c r="MB1" s="13"/>
-      <c r="MC1" s="13"/>
-      <c r="MD1" s="13"/>
-      <c r="ME1" s="13"/>
-      <c r="MF1" s="13"/>
-      <c r="MG1" s="13"/>
-      <c r="MH1" s="13"/>
-      <c r="MI1" s="13"/>
-      <c r="MJ1" s="13"/>
-      <c r="MK1" s="13"/>
-      <c r="ML1" s="13"/>
-      <c r="MM1" s="13"/>
-      <c r="MN1" s="13"/>
-      <c r="MO1" s="13"/>
-      <c r="MP1" s="13"/>
-      <c r="MQ1" s="13"/>
-      <c r="MR1" s="13"/>
-      <c r="MS1" s="13"/>
-      <c r="MT1" s="13"/>
-      <c r="MU1" s="13"/>
-      <c r="MV1" s="13"/>
-      <c r="MW1" s="13"/>
-      <c r="MX1" s="13"/>
-      <c r="MY1" s="13"/>
-      <c r="MZ1" s="13"/>
-      <c r="NA1" s="13"/>
-      <c r="NB1" s="13"/>
-      <c r="NC1" s="13"/>
-      <c r="ND1" s="13"/>
-      <c r="NE1" s="13"/>
-      <c r="NF1" s="13"/>
-      <c r="NG1" s="13"/>
-      <c r="NH1" s="13"/>
-      <c r="NI1" s="13"/>
-      <c r="NJ1" s="13"/>
-      <c r="NK1" s="13"/>
-      <c r="NL1" s="13"/>
-      <c r="NM1" s="13"/>
-      <c r="NN1" s="13"/>
-      <c r="NO1" s="13"/>
-      <c r="NP1" s="13"/>
-      <c r="NQ1" s="13"/>
-      <c r="NR1" s="13"/>
-      <c r="NS1" s="13"/>
-      <c r="NT1" s="13"/>
-      <c r="NU1" s="13"/>
-      <c r="NV1" s="13"/>
-      <c r="NW1" s="13"/>
-      <c r="NX1" s="13"/>
-      <c r="NY1" s="13"/>
-      <c r="NZ1" s="13"/>
-      <c r="OA1" s="13"/>
-      <c r="OB1" s="13"/>
-      <c r="OC1" s="13"/>
-      <c r="OD1" s="13"/>
-      <c r="OE1" s="13"/>
-      <c r="OF1" s="13"/>
-      <c r="OG1" s="13"/>
-      <c r="OH1" s="13"/>
-      <c r="OI1" s="13"/>
-      <c r="OJ1" s="13"/>
-      <c r="OK1" s="13"/>
-      <c r="OL1" s="13"/>
-      <c r="OM1" s="13"/>
-      <c r="ON1" s="13"/>
-      <c r="OO1" s="13"/>
-      <c r="OP1" s="13"/>
-      <c r="OQ1" s="13"/>
-      <c r="OR1" s="13"/>
-      <c r="OS1" s="13"/>
-      <c r="OT1" s="13"/>
-      <c r="OU1" s="13"/>
-      <c r="OV1" s="13"/>
-      <c r="OW1" s="13"/>
-      <c r="OX1" s="13"/>
-      <c r="OY1" s="13"/>
-      <c r="OZ1" s="13"/>
-      <c r="PA1" s="13"/>
-      <c r="PB1" s="13"/>
-      <c r="PC1" s="13"/>
-      <c r="PD1" s="13"/>
-      <c r="PE1" s="13"/>
-      <c r="PF1" s="13"/>
-      <c r="PG1" s="13"/>
-      <c r="PH1" s="13"/>
-      <c r="PI1" s="13"/>
-      <c r="PJ1" s="13"/>
-      <c r="PK1" s="13"/>
-      <c r="PL1" s="13"/>
-      <c r="PM1" s="13"/>
-      <c r="PN1" s="13"/>
-      <c r="PO1" s="13"/>
-      <c r="PP1" s="13"/>
-      <c r="PQ1" s="13"/>
-      <c r="PR1" s="13"/>
-      <c r="PS1" s="13"/>
-      <c r="PT1" s="13"/>
-      <c r="PU1" s="13"/>
-      <c r="PV1" s="13"/>
-      <c r="PW1" s="13"/>
-      <c r="PX1" s="13"/>
-      <c r="PY1" s="13"/>
-      <c r="PZ1" s="13"/>
-      <c r="QA1" s="13"/>
-      <c r="QB1" s="13"/>
-      <c r="QC1" s="13"/>
-      <c r="QD1" s="13"/>
-      <c r="QE1" s="13"/>
-      <c r="QF1" s="13"/>
-      <c r="QG1" s="13"/>
-      <c r="QH1" s="13"/>
-      <c r="QI1" s="13"/>
-      <c r="QJ1" s="13"/>
-      <c r="QK1" s="13"/>
-      <c r="QL1" s="13"/>
-      <c r="QM1" s="13"/>
-      <c r="QN1" s="13"/>
-      <c r="QO1" s="13"/>
-      <c r="QP1" s="13"/>
-      <c r="QQ1" s="13"/>
-      <c r="QR1" s="13"/>
-      <c r="QS1" s="13"/>
-      <c r="QT1" s="13"/>
-      <c r="QU1" s="13"/>
-      <c r="QV1" s="13"/>
-      <c r="QW1" s="13"/>
-      <c r="QX1" s="13"/>
-      <c r="QY1" s="13"/>
-      <c r="QZ1" s="13"/>
-      <c r="RA1" s="13"/>
-      <c r="RB1" s="13"/>
-      <c r="RC1" s="13"/>
-      <c r="RD1" s="13"/>
-      <c r="RE1" s="13"/>
-      <c r="RF1" s="13"/>
-      <c r="RG1" s="13"/>
-      <c r="RH1" s="13"/>
-      <c r="RI1" s="13"/>
-      <c r="RJ1" s="13"/>
-      <c r="RK1" s="13"/>
-      <c r="RL1" s="13"/>
-      <c r="RM1" s="13"/>
-      <c r="RN1" s="13"/>
-      <c r="RO1" s="13"/>
-      <c r="RP1" s="13"/>
-      <c r="RQ1" s="13"/>
-      <c r="RR1" s="13"/>
-      <c r="RS1" s="13"/>
-      <c r="RT1" s="13"/>
-      <c r="RU1" s="13"/>
-      <c r="RV1" s="13"/>
-      <c r="RW1" s="13"/>
-      <c r="RX1" s="13"/>
-      <c r="RY1" s="13"/>
-      <c r="RZ1" s="13"/>
-      <c r="SA1" s="13"/>
-      <c r="SB1" s="13"/>
-      <c r="SC1" s="13"/>
-      <c r="SD1" s="13"/>
-      <c r="SE1" s="13"/>
-      <c r="SF1" s="13"/>
-      <c r="SG1" s="13"/>
-      <c r="SH1" s="13"/>
-      <c r="SI1" s="13"/>
-      <c r="SJ1" s="13"/>
-      <c r="SK1" s="13"/>
-      <c r="SL1" s="13"/>
-      <c r="SM1" s="13"/>
-      <c r="SN1" s="13"/>
-      <c r="SO1" s="13"/>
-      <c r="SP1" s="13"/>
-      <c r="SQ1" s="13"/>
-      <c r="SR1" s="13"/>
-      <c r="SS1" s="13"/>
-      <c r="ST1" s="13"/>
-      <c r="SU1" s="13"/>
-      <c r="SV1" s="13"/>
-      <c r="SW1" s="13"/>
-      <c r="SX1" s="13"/>
-      <c r="SY1" s="13"/>
-      <c r="SZ1" s="13"/>
-      <c r="TA1" s="13"/>
-      <c r="TB1" s="13"/>
-      <c r="TC1" s="13"/>
-      <c r="TD1" s="13"/>
-      <c r="TE1" s="13"/>
-      <c r="TF1" s="13"/>
-      <c r="TG1" s="13"/>
-      <c r="TH1" s="13"/>
-      <c r="TI1" s="13"/>
-      <c r="TJ1" s="13"/>
-      <c r="TK1" s="13"/>
-      <c r="TL1" s="13"/>
-      <c r="TM1" s="13"/>
-      <c r="TN1" s="13"/>
-      <c r="TO1" s="13"/>
-      <c r="TP1" s="13"/>
-      <c r="TQ1" s="13"/>
-      <c r="TR1" s="13"/>
-      <c r="TS1" s="13"/>
-      <c r="TT1" s="13"/>
-      <c r="TU1" s="13"/>
-      <c r="TV1" s="13"/>
-      <c r="TW1" s="13"/>
-      <c r="TX1" s="13"/>
-      <c r="TY1" s="13"/>
-      <c r="TZ1" s="13"/>
-      <c r="UA1" s="13"/>
-      <c r="UB1" s="13"/>
-      <c r="UC1" s="13"/>
-      <c r="UD1" s="13"/>
-      <c r="UE1" s="13"/>
-      <c r="UF1" s="13"/>
-      <c r="UG1" s="13"/>
-      <c r="UH1" s="13"/>
-      <c r="UI1" s="13"/>
-      <c r="UJ1" s="13"/>
-      <c r="UK1" s="13"/>
-      <c r="UL1" s="13"/>
-      <c r="UM1" s="13"/>
-      <c r="UN1" s="13"/>
-      <c r="UO1" s="13"/>
-      <c r="UP1" s="13"/>
-      <c r="UQ1" s="13"/>
-      <c r="UR1" s="13"/>
-      <c r="US1" s="13"/>
-      <c r="UT1" s="13"/>
-      <c r="UU1" s="13"/>
-      <c r="UV1" s="13"/>
-      <c r="UW1" s="13"/>
-      <c r="UX1" s="13"/>
-      <c r="UY1" s="13"/>
-      <c r="UZ1" s="13"/>
-      <c r="VA1" s="13"/>
-      <c r="VB1" s="13"/>
-      <c r="VC1" s="13"/>
-      <c r="VD1" s="13"/>
-      <c r="VE1" s="13"/>
-      <c r="VF1" s="13"/>
-      <c r="VG1" s="13"/>
-      <c r="VH1" s="13"/>
-      <c r="VI1" s="13"/>
-      <c r="VJ1" s="13"/>
-      <c r="VK1" s="13"/>
-      <c r="VL1" s="13"/>
-      <c r="VM1" s="13"/>
-      <c r="VN1" s="13"/>
-      <c r="VO1" s="13"/>
-      <c r="VP1" s="13"/>
-      <c r="VQ1" s="13"/>
-      <c r="VR1" s="13"/>
-      <c r="VS1" s="13"/>
-      <c r="VT1" s="13"/>
-      <c r="VU1" s="13"/>
-      <c r="VV1" s="13"/>
-      <c r="VW1" s="13"/>
-      <c r="VX1" s="13"/>
-      <c r="VY1" s="13"/>
-      <c r="VZ1" s="13"/>
-      <c r="WA1" s="13"/>
-      <c r="WB1" s="13"/>
-      <c r="WC1" s="13"/>
-      <c r="WD1" s="13"/>
-      <c r="WE1" s="13"/>
-      <c r="WF1" s="13"/>
-      <c r="WG1" s="13"/>
-      <c r="WH1" s="13"/>
-      <c r="WI1" s="13"/>
-      <c r="WJ1" s="13"/>
-      <c r="WK1" s="13"/>
-      <c r="WL1" s="13"/>
-      <c r="WM1" s="13"/>
-      <c r="WN1" s="13"/>
-      <c r="WO1" s="13"/>
-      <c r="WP1" s="13"/>
-      <c r="WQ1" s="13"/>
-      <c r="WR1" s="13"/>
-      <c r="WS1" s="13"/>
-      <c r="WT1" s="13"/>
-      <c r="WU1" s="13"/>
-      <c r="WV1" s="13"/>
-      <c r="WW1" s="13"/>
-      <c r="WX1" s="13"/>
-      <c r="WY1" s="13"/>
-      <c r="WZ1" s="13"/>
-      <c r="XA1" s="13"/>
-      <c r="XB1" s="13"/>
-      <c r="XC1" s="13"/>
-      <c r="XD1" s="13"/>
-      <c r="XE1" s="13"/>
-      <c r="XF1" s="13"/>
-      <c r="XG1" s="13"/>
-      <c r="XH1" s="13"/>
-      <c r="XI1" s="13"/>
-      <c r="XJ1" s="13"/>
-      <c r="XK1" s="13"/>
-      <c r="XL1" s="13"/>
-      <c r="XM1" s="13"/>
-      <c r="XN1" s="13"/>
-      <c r="XO1" s="13"/>
-      <c r="XP1" s="13"/>
-      <c r="XQ1" s="13"/>
-      <c r="XR1" s="13"/>
-      <c r="XS1" s="13"/>
-      <c r="XT1" s="13"/>
-      <c r="XU1" s="13"/>
-      <c r="XV1" s="13"/>
-      <c r="XW1" s="13"/>
-      <c r="XX1" s="13"/>
-      <c r="XY1" s="13"/>
-      <c r="XZ1" s="13"/>
-      <c r="YA1" s="13"/>
-      <c r="YB1" s="13"/>
-      <c r="YC1" s="13"/>
-      <c r="YD1" s="13"/>
-      <c r="YE1" s="13"/>
-      <c r="YF1" s="13"/>
-      <c r="YG1" s="13"/>
-      <c r="YH1" s="13"/>
-      <c r="YI1" s="13"/>
-      <c r="YJ1" s="13"/>
-      <c r="YK1" s="13"/>
-      <c r="YL1" s="13"/>
-      <c r="YM1" s="13"/>
-      <c r="YN1" s="13"/>
-      <c r="YO1" s="13"/>
-      <c r="YP1" s="13"/>
-      <c r="YQ1" s="13"/>
-      <c r="YR1" s="13"/>
-      <c r="YS1" s="13"/>
-      <c r="YT1" s="13"/>
-      <c r="YU1" s="13"/>
-      <c r="YV1" s="13"/>
-      <c r="YW1" s="13"/>
-      <c r="YX1" s="13"/>
-      <c r="YY1" s="13"/>
-      <c r="YZ1" s="13"/>
-      <c r="ZA1" s="13"/>
-      <c r="ZB1" s="13"/>
-      <c r="ZC1" s="13"/>
-      <c r="ZD1" s="13"/>
-      <c r="ZE1" s="13"/>
-      <c r="ZF1" s="13"/>
-      <c r="ZG1" s="13"/>
-      <c r="ZH1" s="13"/>
-      <c r="ZI1" s="13"/>
-      <c r="ZJ1" s="13"/>
-      <c r="ZK1" s="13"/>
-      <c r="ZL1" s="13"/>
-      <c r="ZM1" s="13"/>
-      <c r="ZN1" s="13"/>
-      <c r="ZO1" s="13"/>
-      <c r="ZP1" s="13"/>
-      <c r="ZQ1" s="13"/>
-      <c r="ZR1" s="13"/>
-      <c r="ZS1" s="13"/>
-      <c r="ZT1" s="13"/>
-      <c r="ZU1" s="13"/>
-      <c r="ZV1" s="13"/>
-      <c r="ZW1" s="13"/>
-      <c r="ZX1" s="13"/>
-      <c r="ZY1" s="13"/>
-      <c r="ZZ1" s="13"/>
-      <c r="AAA1" s="13"/>
-      <c r="AAB1" s="13"/>
-      <c r="AAC1" s="13"/>
-      <c r="AAD1" s="13"/>
-      <c r="AAE1" s="13"/>
-      <c r="AAF1" s="13"/>
-      <c r="AAG1" s="13"/>
-      <c r="AAH1" s="13"/>
-      <c r="AAI1" s="13"/>
-      <c r="AAJ1" s="13"/>
-      <c r="AAK1" s="13"/>
-      <c r="AAL1" s="13"/>
-      <c r="AAM1" s="13"/>
-      <c r="AAN1" s="13"/>
-      <c r="AAO1" s="13"/>
-      <c r="AAP1" s="13"/>
-      <c r="AAQ1" s="13"/>
-      <c r="AAR1" s="13"/>
-      <c r="AAS1" s="13"/>
-      <c r="AAT1" s="13"/>
-      <c r="AAU1" s="13"/>
-      <c r="AAV1" s="13"/>
-      <c r="AAW1" s="13"/>
-      <c r="AAX1" s="13"/>
-      <c r="AAY1" s="13"/>
-      <c r="AAZ1" s="13"/>
-      <c r="ABA1" s="13"/>
-      <c r="ABB1" s="13"/>
-      <c r="ABC1" s="13"/>
-      <c r="ABD1" s="13"/>
-      <c r="ABE1" s="13"/>
-      <c r="ABF1" s="13"/>
-      <c r="ABG1" s="13"/>
-      <c r="ABH1" s="13"/>
-      <c r="ABI1" s="13"/>
-      <c r="ABJ1" s="13"/>
-      <c r="ABK1" s="13"/>
-      <c r="ABL1" s="13"/>
-      <c r="ABM1" s="13"/>
-      <c r="ABN1" s="13"/>
-      <c r="ABO1" s="13"/>
-      <c r="ABP1" s="13"/>
-      <c r="ABQ1" s="13"/>
-      <c r="ABR1" s="13"/>
-      <c r="ABS1" s="13"/>
-      <c r="ABT1" s="13"/>
-      <c r="ABU1" s="13"/>
-      <c r="ABV1" s="13"/>
-      <c r="ABW1" s="13"/>
-      <c r="ABX1" s="13"/>
-      <c r="ABY1" s="13"/>
-      <c r="ABZ1" s="13"/>
-      <c r="ACA1" s="13"/>
-      <c r="ACB1" s="13"/>
-      <c r="ACC1" s="13"/>
-      <c r="ACD1" s="13"/>
-      <c r="ACE1" s="13"/>
-      <c r="ACF1" s="13"/>
-      <c r="ACG1" s="13"/>
-      <c r="ACH1" s="13"/>
-      <c r="ACI1" s="13"/>
-      <c r="ACJ1" s="13"/>
-      <c r="ACK1" s="13"/>
-      <c r="ACL1" s="13"/>
-      <c r="ACM1" s="13"/>
-      <c r="ACN1" s="13"/>
-      <c r="ACO1" s="13"/>
-      <c r="ACP1" s="13"/>
-      <c r="ACQ1" s="13"/>
-      <c r="ACR1" s="13"/>
-      <c r="ACS1" s="13"/>
-      <c r="ACT1" s="13"/>
-      <c r="ACU1" s="13"/>
-      <c r="ACV1" s="13"/>
-      <c r="ACW1" s="13"/>
-      <c r="ACX1" s="13"/>
-      <c r="ACY1" s="13"/>
-      <c r="ACZ1" s="13"/>
-      <c r="ADA1" s="13"/>
-      <c r="ADB1" s="13"/>
-      <c r="ADC1" s="13"/>
-      <c r="ADD1" s="13"/>
-      <c r="ADE1" s="13"/>
-      <c r="ADF1" s="13"/>
-      <c r="ADG1" s="13"/>
-      <c r="ADH1" s="13"/>
-      <c r="ADI1" s="13"/>
-      <c r="ADJ1" s="13"/>
-      <c r="ADK1" s="13"/>
-      <c r="ADL1" s="13"/>
-      <c r="ADM1" s="13"/>
-      <c r="ADN1" s="13"/>
-      <c r="ADO1" s="13"/>
-      <c r="ADP1" s="13"/>
-      <c r="ADQ1" s="13"/>
-      <c r="ADR1" s="13"/>
-      <c r="ADS1" s="13"/>
-      <c r="ADT1" s="13"/>
-      <c r="ADU1" s="13"/>
-      <c r="ADV1" s="13"/>
-      <c r="ADW1" s="13"/>
-      <c r="ADX1" s="13"/>
-      <c r="ADY1" s="13"/>
-      <c r="ADZ1" s="13"/>
-      <c r="AEA1" s="13"/>
-      <c r="AEB1" s="13"/>
-      <c r="AEC1" s="13"/>
-      <c r="AED1" s="13"/>
-      <c r="AEE1" s="13"/>
-      <c r="AEF1" s="13"/>
-      <c r="AEG1" s="13"/>
-      <c r="AEH1" s="13"/>
-      <c r="AEI1" s="13"/>
-      <c r="AEJ1" s="13"/>
-      <c r="AEK1" s="13"/>
-      <c r="AEL1" s="13"/>
-      <c r="AEM1" s="13"/>
-      <c r="AEN1" s="13"/>
-      <c r="AEO1" s="13"/>
-      <c r="AEP1" s="13"/>
-      <c r="AEQ1" s="13"/>
-      <c r="AER1" s="13"/>
-      <c r="AES1" s="13"/>
-      <c r="AET1" s="13"/>
-      <c r="AEU1" s="13"/>
-      <c r="AEV1" s="13"/>
-      <c r="AEW1" s="13"/>
-      <c r="AEX1" s="13"/>
-      <c r="AEY1" s="13"/>
-      <c r="AEZ1" s="13"/>
-      <c r="AFA1" s="13"/>
-      <c r="AFB1" s="13"/>
-      <c r="AFC1" s="13"/>
-      <c r="AFD1" s="13"/>
-      <c r="AFE1" s="13"/>
-      <c r="AFF1" s="13"/>
-      <c r="AFG1" s="13"/>
-      <c r="AFH1" s="13"/>
-      <c r="AFI1" s="13"/>
-      <c r="AFJ1" s="13"/>
-      <c r="AFK1" s="13"/>
-      <c r="AFL1" s="13"/>
-      <c r="AFM1" s="13"/>
-      <c r="AFN1" s="13"/>
-      <c r="AFO1" s="13"/>
-      <c r="AFP1" s="13"/>
-      <c r="AFQ1" s="13"/>
-      <c r="AFR1" s="13"/>
-      <c r="AFS1" s="13"/>
-      <c r="AFT1" s="13"/>
-      <c r="AFU1" s="13"/>
-      <c r="AFV1" s="13"/>
-      <c r="AFW1" s="13"/>
-      <c r="AFX1" s="13"/>
-      <c r="AFY1" s="13"/>
-      <c r="AFZ1" s="13"/>
-      <c r="AGA1" s="13"/>
-      <c r="AGB1" s="13"/>
-      <c r="AGC1" s="13"/>
-      <c r="AGD1" s="13"/>
-      <c r="AGE1" s="13"/>
-      <c r="AGF1" s="13"/>
-      <c r="AGG1" s="13"/>
-      <c r="AGH1" s="13"/>
-      <c r="AGI1" s="13"/>
-      <c r="AGJ1" s="13"/>
-      <c r="AGK1" s="13"/>
-      <c r="AGL1" s="13"/>
-      <c r="AGM1" s="13"/>
-      <c r="AGN1" s="13"/>
-      <c r="AGO1" s="13"/>
-      <c r="AGP1" s="13"/>
-      <c r="AGQ1" s="13"/>
-      <c r="AGR1" s="13"/>
-      <c r="AGS1" s="13"/>
-      <c r="AGT1" s="13"/>
-      <c r="AGU1" s="13"/>
-      <c r="AGV1" s="13"/>
-      <c r="AGW1" s="13"/>
-      <c r="AGX1" s="13"/>
-      <c r="AGY1" s="13"/>
-      <c r="AGZ1" s="13"/>
-      <c r="AHA1" s="13"/>
-      <c r="AHB1" s="13"/>
-      <c r="AHC1" s="13"/>
-      <c r="AHD1" s="13"/>
-      <c r="AHE1" s="13"/>
-      <c r="AHF1" s="13"/>
-      <c r="AHG1" s="13"/>
-      <c r="AHH1" s="13"/>
-      <c r="AHI1" s="13"/>
-      <c r="AHJ1" s="13"/>
-      <c r="AHK1" s="13"/>
-      <c r="AHL1" s="13"/>
-      <c r="AHM1" s="13"/>
-      <c r="AHN1" s="13"/>
-      <c r="AHO1" s="13"/>
-      <c r="AHP1" s="13"/>
-      <c r="AHQ1" s="13"/>
-      <c r="AHR1" s="13"/>
-      <c r="AHS1" s="13"/>
-      <c r="AHT1" s="13"/>
-      <c r="AHU1" s="13"/>
-      <c r="AHV1" s="13"/>
-      <c r="AHW1" s="13"/>
-      <c r="AHX1" s="13"/>
-      <c r="AHY1" s="13"/>
-      <c r="AHZ1" s="13"/>
-      <c r="AIA1" s="13"/>
-      <c r="AIB1" s="13"/>
-      <c r="AIC1" s="13"/>
-      <c r="AID1" s="13"/>
-      <c r="AIE1" s="13"/>
-      <c r="AIF1" s="13"/>
-      <c r="AIG1" s="13"/>
-      <c r="AIH1" s="13"/>
-      <c r="AII1" s="13"/>
-      <c r="AIJ1" s="13"/>
-      <c r="AIK1" s="13"/>
-      <c r="AIL1" s="13"/>
-      <c r="AIM1" s="13"/>
-      <c r="AIN1" s="13"/>
-      <c r="AIO1" s="13"/>
-      <c r="AIP1" s="13"/>
-      <c r="AIQ1" s="13"/>
-      <c r="AIR1" s="13"/>
-      <c r="AIS1" s="13"/>
-      <c r="AIT1" s="13"/>
-      <c r="AIU1" s="13"/>
-      <c r="AIV1" s="13"/>
-      <c r="AIW1" s="13"/>
-      <c r="AIX1" s="13"/>
-      <c r="AIY1" s="13"/>
-      <c r="AIZ1" s="13"/>
-      <c r="AJA1" s="13"/>
-      <c r="AJB1" s="13"/>
-      <c r="AJC1" s="13"/>
-      <c r="AJD1" s="13"/>
-      <c r="AJE1" s="13"/>
-      <c r="AJF1" s="13"/>
-      <c r="AJG1" s="13"/>
-      <c r="AJH1" s="13"/>
-      <c r="AJI1" s="13"/>
-      <c r="AJJ1" s="13"/>
-      <c r="AJK1" s="13"/>
-      <c r="AJL1" s="13"/>
-      <c r="AJM1" s="13"/>
-      <c r="AJN1" s="13"/>
-      <c r="AJO1" s="13"/>
-      <c r="AJP1" s="13"/>
-      <c r="AJQ1" s="13"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+      <c r="ET1" s="11"/>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="11"/>
+      <c r="EW1" s="11"/>
+      <c r="EX1" s="11"/>
+      <c r="EY1" s="11"/>
+      <c r="EZ1" s="11"/>
+      <c r="FA1" s="11"/>
+      <c r="FB1" s="11"/>
+      <c r="FC1" s="11"/>
+      <c r="FD1" s="11"/>
+      <c r="FE1" s="11"/>
+      <c r="FF1" s="11"/>
+      <c r="FG1" s="11"/>
+      <c r="FH1" s="11"/>
+      <c r="FI1" s="11"/>
+      <c r="FJ1" s="11"/>
+      <c r="FK1" s="11"/>
+      <c r="FL1" s="11"/>
+      <c r="FM1" s="11"/>
+      <c r="FN1" s="11"/>
+      <c r="FO1" s="11"/>
+      <c r="FP1" s="11"/>
+      <c r="FQ1" s="11"/>
+      <c r="FR1" s="11"/>
+      <c r="FS1" s="11"/>
+      <c r="FT1" s="11"/>
+      <c r="FU1" s="11"/>
+      <c r="FV1" s="11"/>
+      <c r="FW1" s="11"/>
+      <c r="FX1" s="11"/>
+      <c r="FY1" s="11"/>
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="11"/>
+      <c r="GB1" s="11"/>
+      <c r="GC1" s="11"/>
+      <c r="GD1" s="11"/>
+      <c r="GE1" s="11"/>
+      <c r="GF1" s="11"/>
+      <c r="GG1" s="11"/>
+      <c r="GH1" s="11"/>
+      <c r="GI1" s="11"/>
+      <c r="GJ1" s="11"/>
+      <c r="GK1" s="11"/>
+      <c r="GL1" s="11"/>
+      <c r="GM1" s="11"/>
+      <c r="GN1" s="11"/>
+      <c r="GO1" s="11"/>
+      <c r="GP1" s="11"/>
+      <c r="GQ1" s="11"/>
+      <c r="GR1" s="11"/>
+      <c r="GS1" s="11"/>
+      <c r="GT1" s="11"/>
+      <c r="GU1" s="11"/>
+      <c r="GV1" s="11"/>
+      <c r="GW1" s="11"/>
+      <c r="GX1" s="11"/>
+      <c r="GY1" s="11"/>
+      <c r="GZ1" s="11"/>
+      <c r="HA1" s="11"/>
+      <c r="HB1" s="11"/>
+      <c r="HC1" s="11"/>
+      <c r="HD1" s="11"/>
+      <c r="HE1" s="11"/>
+      <c r="HF1" s="11"/>
+      <c r="HG1" s="11"/>
+      <c r="HH1" s="11"/>
+      <c r="HI1" s="11"/>
+      <c r="HJ1" s="11"/>
+      <c r="HK1" s="11"/>
+      <c r="HL1" s="11"/>
+      <c r="HM1" s="11"/>
+      <c r="HN1" s="11"/>
+      <c r="HO1" s="11"/>
+      <c r="HP1" s="11"/>
+      <c r="HQ1" s="11"/>
+      <c r="HR1" s="11"/>
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="11"/>
+      <c r="HU1" s="11"/>
+      <c r="HV1" s="11"/>
+      <c r="HW1" s="11"/>
+      <c r="HX1" s="11"/>
+      <c r="HY1" s="11"/>
+      <c r="HZ1" s="11"/>
+      <c r="IA1" s="11"/>
+      <c r="IB1" s="11"/>
+      <c r="IC1" s="11"/>
+      <c r="ID1" s="11"/>
+      <c r="IE1" s="11"/>
+      <c r="IF1" s="11"/>
+      <c r="IG1" s="11"/>
+      <c r="IH1" s="11"/>
+      <c r="II1" s="11"/>
+      <c r="IJ1" s="11"/>
+      <c r="IK1" s="11"/>
+      <c r="IL1" s="11"/>
+      <c r="IM1" s="11"/>
+      <c r="IN1" s="11"/>
+      <c r="IO1" s="11"/>
+      <c r="IP1" s="11"/>
+      <c r="IQ1" s="11"/>
+      <c r="IR1" s="11"/>
+      <c r="IS1" s="11"/>
+      <c r="IT1" s="11"/>
+      <c r="IU1" s="11"/>
+      <c r="IV1" s="11"/>
+      <c r="IW1" s="11"/>
+      <c r="IX1" s="11"/>
+      <c r="IY1" s="11"/>
+      <c r="IZ1" s="11"/>
+      <c r="JA1" s="11"/>
+      <c r="JB1" s="11"/>
+      <c r="JC1" s="11"/>
+      <c r="JD1" s="11"/>
+      <c r="JE1" s="11"/>
+      <c r="JF1" s="11"/>
+      <c r="JG1" s="11"/>
+      <c r="JH1" s="11"/>
+      <c r="JI1" s="11"/>
+      <c r="JJ1" s="11"/>
+      <c r="JK1" s="11"/>
+      <c r="JL1" s="11"/>
+      <c r="JM1" s="11"/>
+      <c r="JN1" s="11"/>
+      <c r="JO1" s="11"/>
+      <c r="JP1" s="11"/>
+      <c r="JQ1" s="11"/>
+      <c r="JR1" s="11"/>
+      <c r="JS1" s="11"/>
+      <c r="JT1" s="11"/>
+      <c r="JU1" s="11"/>
+      <c r="JV1" s="11"/>
+      <c r="JW1" s="11"/>
+      <c r="JX1" s="11"/>
+      <c r="JY1" s="11"/>
+      <c r="JZ1" s="11"/>
+      <c r="KA1" s="11"/>
+      <c r="KB1" s="11"/>
+      <c r="KC1" s="11"/>
+      <c r="KD1" s="11"/>
+      <c r="KE1" s="11"/>
+      <c r="KF1" s="11"/>
+      <c r="KG1" s="11"/>
+      <c r="KH1" s="11"/>
+      <c r="KI1" s="11"/>
+      <c r="KJ1" s="11"/>
+      <c r="KK1" s="11"/>
+      <c r="KL1" s="11"/>
+      <c r="KM1" s="11"/>
+      <c r="KN1" s="11"/>
+      <c r="KO1" s="11"/>
+      <c r="KP1" s="11"/>
+      <c r="KQ1" s="11"/>
+      <c r="KR1" s="11"/>
+      <c r="KS1" s="11"/>
+      <c r="KT1" s="11"/>
+      <c r="KU1" s="11"/>
+      <c r="KV1" s="11"/>
+      <c r="KW1" s="11"/>
+      <c r="KX1" s="11"/>
+      <c r="KY1" s="11"/>
+      <c r="KZ1" s="11"/>
+      <c r="LA1" s="11"/>
+      <c r="LB1" s="11"/>
+      <c r="LC1" s="11"/>
+      <c r="LD1" s="11"/>
+      <c r="LE1" s="11"/>
+      <c r="LF1" s="11"/>
+      <c r="LG1" s="11"/>
+      <c r="LH1" s="11"/>
+      <c r="LI1" s="11"/>
+      <c r="LJ1" s="11"/>
+      <c r="LK1" s="11"/>
+      <c r="LL1" s="11"/>
+      <c r="LM1" s="11"/>
+      <c r="LN1" s="11"/>
+      <c r="LO1" s="11"/>
+      <c r="LP1" s="11"/>
+      <c r="LQ1" s="11"/>
+      <c r="LR1" s="11"/>
+      <c r="LS1" s="11"/>
+      <c r="LT1" s="11"/>
+      <c r="LU1" s="11"/>
+      <c r="LV1" s="11"/>
+      <c r="LW1" s="11"/>
+      <c r="LX1" s="11"/>
+      <c r="LY1" s="11"/>
+      <c r="LZ1" s="11"/>
+      <c r="MA1" s="11"/>
+      <c r="MB1" s="11"/>
+      <c r="MC1" s="11"/>
+      <c r="MD1" s="11"/>
+      <c r="ME1" s="11"/>
+      <c r="MF1" s="11"/>
+      <c r="MG1" s="11"/>
+      <c r="MH1" s="11"/>
+      <c r="MI1" s="11"/>
+      <c r="MJ1" s="11"/>
+      <c r="MK1" s="11"/>
+      <c r="ML1" s="11"/>
+      <c r="MM1" s="11"/>
+      <c r="MN1" s="11"/>
+      <c r="MO1" s="11"/>
+      <c r="MP1" s="11"/>
+      <c r="MQ1" s="11"/>
+      <c r="MR1" s="11"/>
+      <c r="MS1" s="11"/>
+      <c r="MT1" s="11"/>
+      <c r="MU1" s="11"/>
+      <c r="MV1" s="11"/>
+      <c r="MW1" s="11"/>
+      <c r="MX1" s="11"/>
+      <c r="MY1" s="11"/>
+      <c r="MZ1" s="11"/>
+      <c r="NA1" s="11"/>
+      <c r="NB1" s="11"/>
+      <c r="NC1" s="11"/>
+      <c r="ND1" s="11"/>
+      <c r="NE1" s="11"/>
+      <c r="NF1" s="11"/>
+      <c r="NG1" s="11"/>
+      <c r="NH1" s="11"/>
+      <c r="NI1" s="11"/>
+      <c r="NJ1" s="11"/>
+      <c r="NK1" s="11"/>
+      <c r="NL1" s="11"/>
+      <c r="NM1" s="11"/>
+      <c r="NN1" s="11"/>
+      <c r="NO1" s="11"/>
+      <c r="NP1" s="11"/>
+      <c r="NQ1" s="11"/>
+      <c r="NR1" s="11"/>
+      <c r="NS1" s="11"/>
+      <c r="NT1" s="11"/>
+      <c r="NU1" s="11"/>
+      <c r="NV1" s="11"/>
+      <c r="NW1" s="11"/>
+      <c r="NX1" s="11"/>
+      <c r="NY1" s="11"/>
+      <c r="NZ1" s="11"/>
+      <c r="OA1" s="11"/>
+      <c r="OB1" s="11"/>
+      <c r="OC1" s="11"/>
+      <c r="OD1" s="11"/>
+      <c r="OE1" s="11"/>
+      <c r="OF1" s="11"/>
+      <c r="OG1" s="11"/>
+      <c r="OH1" s="11"/>
+      <c r="OI1" s="11"/>
+      <c r="OJ1" s="11"/>
+      <c r="OK1" s="11"/>
+      <c r="OL1" s="11"/>
+      <c r="OM1" s="11"/>
+      <c r="ON1" s="11"/>
+      <c r="OO1" s="11"/>
+      <c r="OP1" s="11"/>
+      <c r="OQ1" s="11"/>
+      <c r="OR1" s="11"/>
+      <c r="OS1" s="11"/>
+      <c r="OT1" s="11"/>
+      <c r="OU1" s="11"/>
+      <c r="OV1" s="11"/>
+      <c r="OW1" s="11"/>
+      <c r="OX1" s="11"/>
+      <c r="OY1" s="11"/>
+      <c r="OZ1" s="11"/>
+      <c r="PA1" s="11"/>
+      <c r="PB1" s="11"/>
+      <c r="PC1" s="11"/>
+      <c r="PD1" s="11"/>
+      <c r="PE1" s="11"/>
+      <c r="PF1" s="11"/>
+      <c r="PG1" s="11"/>
+      <c r="PH1" s="11"/>
+      <c r="PI1" s="11"/>
+      <c r="PJ1" s="11"/>
+      <c r="PK1" s="11"/>
+      <c r="PL1" s="11"/>
+      <c r="PM1" s="11"/>
+      <c r="PN1" s="11"/>
+      <c r="PO1" s="11"/>
+      <c r="PP1" s="11"/>
+      <c r="PQ1" s="11"/>
+      <c r="PR1" s="11"/>
+      <c r="PS1" s="11"/>
+      <c r="PT1" s="11"/>
+      <c r="PU1" s="11"/>
+      <c r="PV1" s="11"/>
+      <c r="PW1" s="11"/>
+      <c r="PX1" s="11"/>
+      <c r="PY1" s="11"/>
+      <c r="PZ1" s="11"/>
+      <c r="QA1" s="11"/>
+      <c r="QB1" s="11"/>
+      <c r="QC1" s="11"/>
+      <c r="QD1" s="11"/>
+      <c r="QE1" s="11"/>
+      <c r="QF1" s="11"/>
+      <c r="QG1" s="11"/>
+      <c r="QH1" s="11"/>
+      <c r="QI1" s="11"/>
+      <c r="QJ1" s="11"/>
+      <c r="QK1" s="11"/>
+      <c r="QL1" s="11"/>
+      <c r="QM1" s="11"/>
+      <c r="QN1" s="11"/>
+      <c r="QO1" s="11"/>
+      <c r="QP1" s="11"/>
+      <c r="QQ1" s="11"/>
+      <c r="QR1" s="11"/>
+      <c r="QS1" s="11"/>
+      <c r="QT1" s="11"/>
+      <c r="QU1" s="11"/>
+      <c r="QV1" s="11"/>
+      <c r="QW1" s="11"/>
+      <c r="QX1" s="11"/>
+      <c r="QY1" s="11"/>
+      <c r="QZ1" s="11"/>
+      <c r="RA1" s="11"/>
+      <c r="RB1" s="11"/>
+      <c r="RC1" s="11"/>
+      <c r="RD1" s="11"/>
+      <c r="RE1" s="11"/>
+      <c r="RF1" s="11"/>
+      <c r="RG1" s="11"/>
+      <c r="RH1" s="11"/>
+      <c r="RI1" s="11"/>
+      <c r="RJ1" s="11"/>
+      <c r="RK1" s="11"/>
+      <c r="RL1" s="11"/>
+      <c r="RM1" s="11"/>
+      <c r="RN1" s="11"/>
+      <c r="RO1" s="11"/>
+      <c r="RP1" s="11"/>
+      <c r="RQ1" s="11"/>
+      <c r="RR1" s="11"/>
+      <c r="RS1" s="11"/>
+      <c r="RT1" s="11"/>
+      <c r="RU1" s="11"/>
+      <c r="RV1" s="11"/>
+      <c r="RW1" s="11"/>
+      <c r="RX1" s="11"/>
+      <c r="RY1" s="11"/>
+      <c r="RZ1" s="11"/>
+      <c r="SA1" s="11"/>
+      <c r="SB1" s="11"/>
+      <c r="SC1" s="11"/>
+      <c r="SD1" s="11"/>
+      <c r="SE1" s="11"/>
+      <c r="SF1" s="11"/>
+      <c r="SG1" s="11"/>
+      <c r="SH1" s="11"/>
+      <c r="SI1" s="11"/>
+      <c r="SJ1" s="11"/>
+      <c r="SK1" s="11"/>
+      <c r="SL1" s="11"/>
+      <c r="SM1" s="11"/>
+      <c r="SN1" s="11"/>
+      <c r="SO1" s="11"/>
+      <c r="SP1" s="11"/>
+      <c r="SQ1" s="11"/>
+      <c r="SR1" s="11"/>
+      <c r="SS1" s="11"/>
+      <c r="ST1" s="11"/>
+      <c r="SU1" s="11"/>
+      <c r="SV1" s="11"/>
+      <c r="SW1" s="11"/>
+      <c r="SX1" s="11"/>
+      <c r="SY1" s="11"/>
+      <c r="SZ1" s="11"/>
+      <c r="TA1" s="11"/>
+      <c r="TB1" s="11"/>
+      <c r="TC1" s="11"/>
+      <c r="TD1" s="11"/>
+      <c r="TE1" s="11"/>
+      <c r="TF1" s="11"/>
+      <c r="TG1" s="11"/>
+      <c r="TH1" s="11"/>
+      <c r="TI1" s="11"/>
+      <c r="TJ1" s="11"/>
+      <c r="TK1" s="11"/>
+      <c r="TL1" s="11"/>
+      <c r="TM1" s="11"/>
+      <c r="TN1" s="11"/>
+      <c r="TO1" s="11"/>
+      <c r="TP1" s="11"/>
+      <c r="TQ1" s="11"/>
+      <c r="TR1" s="11"/>
+      <c r="TS1" s="11"/>
+      <c r="TT1" s="11"/>
+      <c r="TU1" s="11"/>
+      <c r="TV1" s="11"/>
+      <c r="TW1" s="11"/>
+      <c r="TX1" s="11"/>
+      <c r="TY1" s="11"/>
+      <c r="TZ1" s="11"/>
+      <c r="UA1" s="11"/>
+      <c r="UB1" s="11"/>
+      <c r="UC1" s="11"/>
+      <c r="UD1" s="11"/>
+      <c r="UE1" s="11"/>
+      <c r="UF1" s="11"/>
+      <c r="UG1" s="11"/>
+      <c r="UH1" s="11"/>
+      <c r="UI1" s="11"/>
+      <c r="UJ1" s="11"/>
+      <c r="UK1" s="11"/>
+      <c r="UL1" s="11"/>
+      <c r="UM1" s="11"/>
+      <c r="UN1" s="11"/>
+      <c r="UO1" s="11"/>
+      <c r="UP1" s="11"/>
+      <c r="UQ1" s="11"/>
+      <c r="UR1" s="11"/>
+      <c r="US1" s="11"/>
+      <c r="UT1" s="11"/>
+      <c r="UU1" s="11"/>
+      <c r="UV1" s="11"/>
+      <c r="UW1" s="11"/>
+      <c r="UX1" s="11"/>
+      <c r="UY1" s="11"/>
+      <c r="UZ1" s="11"/>
+      <c r="VA1" s="11"/>
+      <c r="VB1" s="11"/>
+      <c r="VC1" s="11"/>
+      <c r="VD1" s="11"/>
+      <c r="VE1" s="11"/>
+      <c r="VF1" s="11"/>
+      <c r="VG1" s="11"/>
+      <c r="VH1" s="11"/>
+      <c r="VI1" s="11"/>
+      <c r="VJ1" s="11"/>
+      <c r="VK1" s="11"/>
+      <c r="VL1" s="11"/>
+      <c r="VM1" s="11"/>
+      <c r="VN1" s="11"/>
+      <c r="VO1" s="11"/>
+      <c r="VP1" s="11"/>
+      <c r="VQ1" s="11"/>
+      <c r="VR1" s="11"/>
+      <c r="VS1" s="11"/>
+      <c r="VT1" s="11"/>
+      <c r="VU1" s="11"/>
+      <c r="VV1" s="11"/>
+      <c r="VW1" s="11"/>
+      <c r="VX1" s="11"/>
+      <c r="VY1" s="11"/>
+      <c r="VZ1" s="11"/>
+      <c r="WA1" s="11"/>
+      <c r="WB1" s="11"/>
+      <c r="WC1" s="11"/>
+      <c r="WD1" s="11"/>
+      <c r="WE1" s="11"/>
+      <c r="WF1" s="11"/>
+      <c r="WG1" s="11"/>
+      <c r="WH1" s="11"/>
+      <c r="WI1" s="11"/>
+      <c r="WJ1" s="11"/>
+      <c r="WK1" s="11"/>
+      <c r="WL1" s="11"/>
+      <c r="WM1" s="11"/>
+      <c r="WN1" s="11"/>
+      <c r="WO1" s="11"/>
+      <c r="WP1" s="11"/>
+      <c r="WQ1" s="11"/>
+      <c r="WR1" s="11"/>
+      <c r="WS1" s="11"/>
+      <c r="WT1" s="11"/>
+      <c r="WU1" s="11"/>
+      <c r="WV1" s="11"/>
+      <c r="WW1" s="11"/>
+      <c r="WX1" s="11"/>
+      <c r="WY1" s="11"/>
+      <c r="WZ1" s="11"/>
+      <c r="XA1" s="11"/>
+      <c r="XB1" s="11"/>
+      <c r="XC1" s="11"/>
+      <c r="XD1" s="11"/>
+      <c r="XE1" s="11"/>
+      <c r="XF1" s="11"/>
+      <c r="XG1" s="11"/>
+      <c r="XH1" s="11"/>
+      <c r="XI1" s="11"/>
+      <c r="XJ1" s="11"/>
+      <c r="XK1" s="11"/>
+      <c r="XL1" s="11"/>
+      <c r="XM1" s="11"/>
+      <c r="XN1" s="11"/>
+      <c r="XO1" s="11"/>
+      <c r="XP1" s="11"/>
+      <c r="XQ1" s="11"/>
+      <c r="XR1" s="11"/>
+      <c r="XS1" s="11"/>
+      <c r="XT1" s="11"/>
+      <c r="XU1" s="11"/>
+      <c r="XV1" s="11"/>
+      <c r="XW1" s="11"/>
+      <c r="XX1" s="11"/>
+      <c r="XY1" s="11"/>
+      <c r="XZ1" s="11"/>
+      <c r="YA1" s="11"/>
+      <c r="YB1" s="11"/>
+      <c r="YC1" s="11"/>
+      <c r="YD1" s="11"/>
+      <c r="YE1" s="11"/>
+      <c r="YF1" s="11"/>
+      <c r="YG1" s="11"/>
+      <c r="YH1" s="11"/>
+      <c r="YI1" s="11"/>
+      <c r="YJ1" s="11"/>
+      <c r="YK1" s="11"/>
+      <c r="YL1" s="11"/>
+      <c r="YM1" s="11"/>
+      <c r="YN1" s="11"/>
+      <c r="YO1" s="11"/>
+      <c r="YP1" s="11"/>
+      <c r="YQ1" s="11"/>
+      <c r="YR1" s="11"/>
+      <c r="YS1" s="11"/>
+      <c r="YT1" s="11"/>
+      <c r="YU1" s="11"/>
+      <c r="YV1" s="11"/>
+      <c r="YW1" s="11"/>
+      <c r="YX1" s="11"/>
+      <c r="YY1" s="11"/>
+      <c r="YZ1" s="11"/>
+      <c r="ZA1" s="11"/>
+      <c r="ZB1" s="11"/>
+      <c r="ZC1" s="11"/>
+      <c r="ZD1" s="11"/>
+      <c r="ZE1" s="11"/>
+      <c r="ZF1" s="11"/>
+      <c r="ZG1" s="11"/>
+      <c r="ZH1" s="11"/>
+      <c r="ZI1" s="11"/>
+      <c r="ZJ1" s="11"/>
+      <c r="ZK1" s="11"/>
+      <c r="ZL1" s="11"/>
+      <c r="ZM1" s="11"/>
+      <c r="ZN1" s="11"/>
+      <c r="ZO1" s="11"/>
+      <c r="ZP1" s="11"/>
+      <c r="ZQ1" s="11"/>
+      <c r="ZR1" s="11"/>
+      <c r="ZS1" s="11"/>
+      <c r="ZT1" s="11"/>
+      <c r="ZU1" s="11"/>
+      <c r="ZV1" s="11"/>
+      <c r="ZW1" s="11"/>
+      <c r="ZX1" s="11"/>
+      <c r="ZY1" s="11"/>
+      <c r="ZZ1" s="11"/>
+      <c r="AAA1" s="11"/>
+      <c r="AAB1" s="11"/>
+      <c r="AAC1" s="11"/>
+      <c r="AAD1" s="11"/>
+      <c r="AAE1" s="11"/>
+      <c r="AAF1" s="11"/>
+      <c r="AAG1" s="11"/>
+      <c r="AAH1" s="11"/>
+      <c r="AAI1" s="11"/>
+      <c r="AAJ1" s="11"/>
+      <c r="AAK1" s="11"/>
+      <c r="AAL1" s="11"/>
+      <c r="AAM1" s="11"/>
+      <c r="AAN1" s="11"/>
+      <c r="AAO1" s="11"/>
+      <c r="AAP1" s="11"/>
+      <c r="AAQ1" s="11"/>
+      <c r="AAR1" s="11"/>
+      <c r="AAS1" s="11"/>
+      <c r="AAT1" s="11"/>
+      <c r="AAU1" s="11"/>
+      <c r="AAV1" s="11"/>
+      <c r="AAW1" s="11"/>
+      <c r="AAX1" s="11"/>
+      <c r="AAY1" s="11"/>
+      <c r="AAZ1" s="11"/>
+      <c r="ABA1" s="11"/>
+      <c r="ABB1" s="11"/>
+      <c r="ABC1" s="11"/>
+      <c r="ABD1" s="11"/>
+      <c r="ABE1" s="11"/>
+      <c r="ABF1" s="11"/>
+      <c r="ABG1" s="11"/>
+      <c r="ABH1" s="11"/>
+      <c r="ABI1" s="11"/>
+      <c r="ABJ1" s="11"/>
+      <c r="ABK1" s="11"/>
+      <c r="ABL1" s="11"/>
+      <c r="ABM1" s="11"/>
+      <c r="ABN1" s="11"/>
+      <c r="ABO1" s="11"/>
+      <c r="ABP1" s="11"/>
+      <c r="ABQ1" s="11"/>
+      <c r="ABR1" s="11"/>
+      <c r="ABS1" s="11"/>
+      <c r="ABT1" s="11"/>
+      <c r="ABU1" s="11"/>
+      <c r="ABV1" s="11"/>
+      <c r="ABW1" s="11"/>
+      <c r="ABX1" s="11"/>
+      <c r="ABY1" s="11"/>
+      <c r="ABZ1" s="11"/>
+      <c r="ACA1" s="11"/>
+      <c r="ACB1" s="11"/>
+      <c r="ACC1" s="11"/>
+      <c r="ACD1" s="11"/>
+      <c r="ACE1" s="11"/>
+      <c r="ACF1" s="11"/>
+      <c r="ACG1" s="11"/>
+      <c r="ACH1" s="11"/>
+      <c r="ACI1" s="11"/>
+      <c r="ACJ1" s="11"/>
+      <c r="ACK1" s="11"/>
+      <c r="ACL1" s="11"/>
+      <c r="ACM1" s="11"/>
+      <c r="ACN1" s="11"/>
+      <c r="ACO1" s="11"/>
+      <c r="ACP1" s="11"/>
+      <c r="ACQ1" s="11"/>
+      <c r="ACR1" s="11"/>
+      <c r="ACS1" s="11"/>
+      <c r="ACT1" s="11"/>
+      <c r="ACU1" s="11"/>
+      <c r="ACV1" s="11"/>
+      <c r="ACW1" s="11"/>
+      <c r="ACX1" s="11"/>
+      <c r="ACY1" s="11"/>
+      <c r="ACZ1" s="11"/>
+      <c r="ADA1" s="11"/>
+      <c r="ADB1" s="11"/>
+      <c r="ADC1" s="11"/>
+      <c r="ADD1" s="11"/>
+      <c r="ADE1" s="11"/>
+      <c r="ADF1" s="11"/>
+      <c r="ADG1" s="11"/>
+      <c r="ADH1" s="11"/>
+      <c r="ADI1" s="11"/>
+      <c r="ADJ1" s="11"/>
+      <c r="ADK1" s="11"/>
+      <c r="ADL1" s="11"/>
+      <c r="ADM1" s="11"/>
+      <c r="ADN1" s="11"/>
+      <c r="ADO1" s="11"/>
+      <c r="ADP1" s="11"/>
+      <c r="ADQ1" s="11"/>
+      <c r="ADR1" s="11"/>
+      <c r="ADS1" s="11"/>
+      <c r="ADT1" s="11"/>
+      <c r="ADU1" s="11"/>
+      <c r="ADV1" s="11"/>
+      <c r="ADW1" s="11"/>
+      <c r="ADX1" s="11"/>
+      <c r="ADY1" s="11"/>
+      <c r="ADZ1" s="11"/>
+      <c r="AEA1" s="11"/>
+      <c r="AEB1" s="11"/>
+      <c r="AEC1" s="11"/>
+      <c r="AED1" s="11"/>
+      <c r="AEE1" s="11"/>
+      <c r="AEF1" s="11"/>
+      <c r="AEG1" s="11"/>
+      <c r="AEH1" s="11"/>
+      <c r="AEI1" s="11"/>
+      <c r="AEJ1" s="11"/>
+      <c r="AEK1" s="11"/>
+      <c r="AEL1" s="11"/>
+      <c r="AEM1" s="11"/>
+      <c r="AEN1" s="11"/>
+      <c r="AEO1" s="11"/>
+      <c r="AEP1" s="11"/>
+      <c r="AEQ1" s="11"/>
+      <c r="AER1" s="11"/>
+      <c r="AES1" s="11"/>
+      <c r="AET1" s="11"/>
+      <c r="AEU1" s="11"/>
+      <c r="AEV1" s="11"/>
+      <c r="AEW1" s="11"/>
+      <c r="AEX1" s="11"/>
+      <c r="AEY1" s="11"/>
+      <c r="AEZ1" s="11"/>
+      <c r="AFA1" s="11"/>
+      <c r="AFB1" s="11"/>
+      <c r="AFC1" s="11"/>
+      <c r="AFD1" s="11"/>
+      <c r="AFE1" s="11"/>
+      <c r="AFF1" s="11"/>
+      <c r="AFG1" s="11"/>
+      <c r="AFH1" s="11"/>
+      <c r="AFI1" s="11"/>
+      <c r="AFJ1" s="11"/>
+      <c r="AFK1" s="11"/>
+      <c r="AFL1" s="11"/>
+      <c r="AFM1" s="11"/>
+      <c r="AFN1" s="11"/>
+      <c r="AFO1" s="11"/>
+      <c r="AFP1" s="11"/>
+      <c r="AFQ1" s="11"/>
+      <c r="AFR1" s="11"/>
+      <c r="AFS1" s="11"/>
+      <c r="AFT1" s="11"/>
+      <c r="AFU1" s="11"/>
+      <c r="AFV1" s="11"/>
+      <c r="AFW1" s="11"/>
+      <c r="AFX1" s="11"/>
+      <c r="AFY1" s="11"/>
+      <c r="AFZ1" s="11"/>
+      <c r="AGA1" s="11"/>
+      <c r="AGB1" s="11"/>
+      <c r="AGC1" s="11"/>
+      <c r="AGD1" s="11"/>
+      <c r="AGE1" s="11"/>
+      <c r="AGF1" s="11"/>
+      <c r="AGG1" s="11"/>
+      <c r="AGH1" s="11"/>
+      <c r="AGI1" s="11"/>
+      <c r="AGJ1" s="11"/>
+      <c r="AGK1" s="11"/>
+      <c r="AGL1" s="11"/>
+      <c r="AGM1" s="11"/>
+      <c r="AGN1" s="11"/>
+      <c r="AGO1" s="11"/>
+      <c r="AGP1" s="11"/>
+      <c r="AGQ1" s="11"/>
+      <c r="AGR1" s="11"/>
+      <c r="AGS1" s="11"/>
+      <c r="AGT1" s="11"/>
+      <c r="AGU1" s="11"/>
+      <c r="AGV1" s="11"/>
+      <c r="AGW1" s="11"/>
+      <c r="AGX1" s="11"/>
+      <c r="AGY1" s="11"/>
+      <c r="AGZ1" s="11"/>
+      <c r="AHA1" s="11"/>
+      <c r="AHB1" s="11"/>
+      <c r="AHC1" s="11"/>
+      <c r="AHD1" s="11"/>
+      <c r="AHE1" s="11"/>
+      <c r="AHF1" s="11"/>
+      <c r="AHG1" s="11"/>
+      <c r="AHH1" s="11"/>
+      <c r="AHI1" s="11"/>
+      <c r="AHJ1" s="11"/>
+      <c r="AHK1" s="11"/>
+      <c r="AHL1" s="11"/>
+      <c r="AHM1" s="11"/>
+      <c r="AHN1" s="11"/>
+      <c r="AHO1" s="11"/>
+      <c r="AHP1" s="11"/>
+      <c r="AHQ1" s="11"/>
+      <c r="AHR1" s="11"/>
+      <c r="AHS1" s="11"/>
+      <c r="AHT1" s="11"/>
+      <c r="AHU1" s="11"/>
+      <c r="AHV1" s="11"/>
+      <c r="AHW1" s="11"/>
+      <c r="AHX1" s="11"/>
+      <c r="AHY1" s="11"/>
+      <c r="AHZ1" s="11"/>
+      <c r="AIA1" s="11"/>
+      <c r="AIB1" s="11"/>
+      <c r="AIC1" s="11"/>
+      <c r="AID1" s="11"/>
+      <c r="AIE1" s="11"/>
+      <c r="AIF1" s="11"/>
+      <c r="AIG1" s="11"/>
+      <c r="AIH1" s="11"/>
+      <c r="AII1" s="11"/>
+      <c r="AIJ1" s="11"/>
+      <c r="AIK1" s="11"/>
+      <c r="AIL1" s="11"/>
+      <c r="AIM1" s="11"/>
+      <c r="AIN1" s="11"/>
+      <c r="AIO1" s="11"/>
+      <c r="AIP1" s="11"/>
+      <c r="AIQ1" s="11"/>
+      <c r="AIR1" s="11"/>
+      <c r="AIS1" s="11"/>
+      <c r="AIT1" s="11"/>
+      <c r="AIU1" s="11"/>
+      <c r="AIV1" s="11"/>
+      <c r="AIW1" s="11"/>
+      <c r="AIX1" s="11"/>
+      <c r="AIY1" s="11"/>
+      <c r="AIZ1" s="11"/>
+      <c r="AJA1" s="11"/>
+      <c r="AJB1" s="11"/>
+      <c r="AJC1" s="11"/>
+      <c r="AJD1" s="11"/>
+      <c r="AJE1" s="11"/>
+      <c r="AJF1" s="11"/>
+      <c r="AJG1" s="11"/>
+      <c r="AJH1" s="11"/>
+      <c r="AJI1" s="11"/>
+      <c r="AJJ1" s="11"/>
+      <c r="AJK1" s="11"/>
+      <c r="AJL1" s="11"/>
+      <c r="AJM1" s="11"/>
+      <c r="AJN1" s="11"/>
+      <c r="AJO1" s="11"/>
+      <c r="AJP1" s="11"/>
+      <c r="AJQ1" s="11"/>
     </row>
     <row r="2" spans="1:953" x14ac:dyDescent="0.35">
       <c r="A2" t="str">

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C42E135-104F-4872-81B2-20862213478B}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A843774-CCE2-44FC-9D15-D6A02F2B3227}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Log 3</t>
   </si>
@@ -84,51 +84,6 @@
   </si>
   <si>
     <t>Log 2</t>
-  </si>
-  <si>
-    <t>#REF!2</t>
-  </si>
-  <si>
-    <t>#REF!3</t>
-  </si>
-  <si>
-    <t>#REF!4</t>
-  </si>
-  <si>
-    <t>#REF!5</t>
-  </si>
-  <si>
-    <t>#REF!6</t>
-  </si>
-  <si>
-    <t>#REF!7</t>
-  </si>
-  <si>
-    <t>#REF!8</t>
-  </si>
-  <si>
-    <t>#REF!9</t>
-  </si>
-  <si>
-    <t>#REF!10</t>
-  </si>
-  <si>
-    <t>#REF!11</t>
-  </si>
-  <si>
-    <t>#REF!12</t>
-  </si>
-  <si>
-    <t>#REF!13</t>
-  </si>
-  <si>
-    <t>#REF!14</t>
-  </si>
-  <si>
-    <t>#REF!15</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -223,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -272,7 +227,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,7 +252,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -441,21 +395,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}" name="Table1" displayName="Table1" ref="A10:O10012" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A10:O10012" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{86F21F60-01CB-4FCC-9708-D8FC26D516BE}" name="0"/>
-    <tableColumn id="2" xr3:uid="{420491F5-7583-4D31-825A-67B38869B0E1}" name="#REF!2"/>
-    <tableColumn id="3" xr3:uid="{1F7E1F41-D28C-4D94-9479-A32BE7AB8C36}" name="#REF!3"/>
-    <tableColumn id="4" xr3:uid="{4B075BA5-1A43-4BFA-978D-5D4BA9D2A918}" name="#REF!4"/>
-    <tableColumn id="5" xr3:uid="{2433C96A-A077-4EEB-93CB-FC164297AAEF}" name="#REF!5"/>
-    <tableColumn id="6" xr3:uid="{3E20F179-64E5-4EF0-9837-9E8E027C6F96}" name="#REF!6"/>
-    <tableColumn id="7" xr3:uid="{05CD1BCF-2477-4CC9-9B4B-35D17E434693}" name="#REF!7"/>
-    <tableColumn id="8" xr3:uid="{9C084DCA-5F41-40FF-B62C-11F54E046C96}" name="#REF!8"/>
-    <tableColumn id="9" xr3:uid="{490BB9B8-37C9-4D40-A019-93822B6C73FC}" name="#REF!9"/>
-    <tableColumn id="10" xr3:uid="{F21D218F-C100-4DD1-B6D5-3DBA6300B241}" name="#REF!10"/>
-    <tableColumn id="11" xr3:uid="{ABEC6EB0-02F8-4F44-9F67-60517E58AB58}" name="#REF!11"/>
-    <tableColumn id="12" xr3:uid="{C8B88CCC-65E9-4182-A5A4-C2CB6C699867}" name="#REF!12"/>
-    <tableColumn id="13" xr3:uid="{C4D464DB-6B22-465A-ACED-0F79DA327241}" name="#REF!13"/>
-    <tableColumn id="14" xr3:uid="{573B3962-FD7A-4EE6-8CF9-5FC3C4689EB1}" name="#REF!14"/>
-    <tableColumn id="15" xr3:uid="{C4A23DBA-9F06-493A-9EEF-42F7287E461C}" name="#REF!15"/>
+    <tableColumn id="1" xr3:uid="{86F21F60-01CB-4FCC-9708-D8FC26D516BE}" name="Log 1"/>
+    <tableColumn id="2" xr3:uid="{420491F5-7583-4D31-825A-67B38869B0E1}" name="Log 2"/>
+    <tableColumn id="3" xr3:uid="{1F7E1F41-D28C-4D94-9479-A32BE7AB8C36}" name="Log 3"/>
+    <tableColumn id="4" xr3:uid="{4B075BA5-1A43-4BFA-978D-5D4BA9D2A918}" name="Log 4"/>
+    <tableColumn id="5" xr3:uid="{2433C96A-A077-4EEB-93CB-FC164297AAEF}" name="Log 5"/>
+    <tableColumn id="6" xr3:uid="{3E20F179-64E5-4EF0-9837-9E8E027C6F96}" name="Log 6"/>
+    <tableColumn id="7" xr3:uid="{05CD1BCF-2477-4CC9-9B4B-35D17E434693}" name="Log 7"/>
+    <tableColumn id="8" xr3:uid="{9C084DCA-5F41-40FF-B62C-11F54E046C96}" name="Log 8"/>
+    <tableColumn id="9" xr3:uid="{490BB9B8-37C9-4D40-A019-93822B6C73FC}" name="Log 9 "/>
+    <tableColumn id="10" xr3:uid="{F21D218F-C100-4DD1-B6D5-3DBA6300B241}" name="Log 10"/>
+    <tableColumn id="11" xr3:uid="{ABEC6EB0-02F8-4F44-9F67-60517E58AB58}" name="Log 11"/>
+    <tableColumn id="12" xr3:uid="{C8B88CCC-65E9-4182-A5A4-C2CB6C699867}" name="Log 12"/>
+    <tableColumn id="13" xr3:uid="{C4D464DB-6B22-465A-ACED-0F79DA327241}" name="Log 13"/>
+    <tableColumn id="14" xr3:uid="{573B3962-FD7A-4EE6-8CF9-5FC3C4689EB1}" name="Log 14"/>
+    <tableColumn id="15" xr3:uid="{C4A23DBA-9F06-493A-9EEF-42F7287E461C}" name="Log 15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,7 +733,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,9 +793,7 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
+      <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1915,7 +1867,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
+      <selection activeCell="O1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1924,11 +1876,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2013,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95E05E2-AE3D-4537-B678-D1EB785E7663}">
-  <dimension ref="A10:P10"/>
+  <dimension ref="A10:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2024,53 +1977,52 @@
     <col min="1" max="15" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="15"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A843774-CCE2-44FC-9D15-D6A02F2B3227}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A7707AC-4D3E-4C50-9342-60A61652C014}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Log 3</t>
   </si>
@@ -733,7 +733,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,7 +793,9 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1867,7 +1869,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:O1"/>
+      <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1876,51 +1878,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4">
+        <f>A2</f>
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC8E8C7-A9F0-462B-967D-CA2518995AA0}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{186C45A8-5720-41F0-A54D-9404F1271FFC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -209,14 +209,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +723,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,7 +784,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1869,7 +1869,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
-        <f>A2</f>
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
@@ -1891,24 +1891,25 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="7lwWdF1wrhPxWgYfcNEA8Cu3e8P43pDAP+ZFkwDAL5T/GP4F8JzG01h4/BbSkaZpaWsgA5Ml9R9Xw9TKHCkIfA==" saltValue="kFx79AHKnMrCbzClA7yknQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:P2"/>
   </mergeCells>
@@ -2010,8 +2011,8 @@
     <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="str">
+    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="str">
         <f>S1&amp;"- "&amp;T1&amp;"- "&amp;U1&amp;"- "&amp;V1&amp;"- "&amp;W1&amp;"- "&amp;X1&amp;"- "&amp;Y1&amp;"- "&amp;Z1&amp;"- "&amp;AA1&amp;"- "&amp;AB1&amp;"- "&amp;AC1&amp;"- "&amp;AD1&amp;"- "&amp;AE1&amp;"- "&amp;AF1&amp;"- "&amp;AG1</f>
         <v xml:space="preserve">- - - - - - - - - - - - - - </v>
       </c>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{186C45A8-5720-41F0-A54D-9404F1271FFC}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F01C89-F20C-4818-B61B-09EB25120E5D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -722,9 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -784,7 +782,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1859,7 +1857,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1909,7 +1907,7 @@
       <c r="Q2" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7lwWdF1wrhPxWgYfcNEA8Cu3e8P43pDAP+ZFkwDAL5T/GP4F8JzG01h4/BbSkaZpaWsgA5Ml9R9Xw9TKHCkIfA==" saltValue="kFx79AHKnMrCbzClA7yknQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:P2"/>
   </mergeCells>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F01C89-F20C-4818-B61B-09EB25120E5D}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D044889-A137-4736-B562-575BD000EF20}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -377,10 +377,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}" name="Table1" displayName="Table1" ref="A10:O10012" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A10:O10012" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}"/>
@@ -722,7 +718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -782,7 +780,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1932,7 +1930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95E05E2-AE3D-4537-B678-D1EB785E7663}">
   <dimension ref="A10:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D044889-A137-4736-B562-575BD000EF20}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D71576-B952-4773-8A85-777F8409E77B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Log 3</t>
   </si>
@@ -85,12 +85,18 @@
   <si>
     <t>Log 2</t>
   </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +113,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -168,11 +190,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -217,11 +297,33 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -240,13 +342,30 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}" name="Table1" displayName="Table1" ref="A10:O10012" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}" name="Table1" displayName="Table1" ref="A10:O10012" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
   <autoFilter ref="A10:O10012" xr:uid="{1D7CE7E8-5466-4289-B40D-7A5BDCB6F100}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{86F21F60-01CB-4FCC-9708-D8FC26D516BE}" name="Log 1"/>
@@ -719,7 +838,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,7 +899,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1928,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95E05E2-AE3D-4537-B678-D1EB785E7663}">
-  <dimension ref="A10:O10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1939,54 +2058,165 @@
     <col min="1" max="15" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:15" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="str">
+        <f>Input!A1</f>
+        <v>Log 1</v>
+      </c>
+      <c r="B9" s="20" t="str">
+        <f>Input!B1</f>
+        <v>Log 2</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>Input!C1</f>
+        <v>Log 3</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f>Input!D1</f>
+        <v>Log 4</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f>Input!E1</f>
+        <v>Log 5</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <f>Input!F1</f>
+        <v>Log 6</v>
+      </c>
+      <c r="G9" s="20" t="str">
+        <f>Input!G1</f>
+        <v>Log 7</v>
+      </c>
+      <c r="H9" s="20" t="str">
+        <f>Input!H1</f>
+        <v>Log 8</v>
+      </c>
+      <c r="I9" s="20" t="str">
+        <f>Input!I1</f>
+        <v xml:space="preserve">Log 9 </v>
+      </c>
+      <c r="J9" s="20" t="str">
+        <f>Input!J1</f>
+        <v>Log 10</v>
+      </c>
+      <c r="K9" s="20" t="str">
+        <f>Input!K1</f>
+        <v>Log 11</v>
+      </c>
+      <c r="L9" s="20" t="str">
+        <f>Input!L1</f>
+        <v>Log 12</v>
+      </c>
+      <c r="M9" s="20" t="str">
+        <f>Input!M1</f>
+        <v>Log 13</v>
+      </c>
+      <c r="N9" s="20" t="str">
+        <f>Input!N1</f>
+        <v>Log 14</v>
+      </c>
+      <c r="O9" s="21" t="str">
+        <f>Input!O1</f>
+        <v>Log 15</v>
+      </c>
+    </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="18" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C645EB60-FDE0-4499-8E3F-0278B12D51F8}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91E56E4C-750B-46FE-A1D1-4AF3170A16FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -714,10 +714,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,7 +1058,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,7 +1119,7 @@
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -2486,7 +2482,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{607258E8-EC18-4921-B844-41DB49E1088E}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$10000</xm:f>
+            <xm:f>Data!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>B2:P2</xm:sqref>
         </x14:dataValidation>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{A87C9981-052D-4FB4-846F-484201E85A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A305AA70-1E0A-4434-9D3B-9EE2E933C67C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="View_Print" sheetId="2" r:id="rId2"/>
     <sheet name="Log" sheetId="4" r:id="rId3"/>
-    <sheet name="Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Update" sheetId="5" r:id="rId4"/>
+    <sheet name="Data" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Log 3</t>
   </si>
@@ -91,6 +92,24 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Update 1</t>
+  </si>
+  <si>
+    <t>Update 2</t>
+  </si>
+  <si>
+    <t>Update 3</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -419,11 +444,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -539,6 +577,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -550,17 +599,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +785,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,7 +1129,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1134,20 +1177,20 @@
         <v>8</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P1" s="20"/>
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2235,21 +2278,21 @@
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -2524,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95E05E2-AE3D-4537-B678-D1EB785E7663}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2534,40 +2577,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2575,7 +2618,7 @@
       </c>
       <c r="B3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45290</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2630,15 +2673,15 @@
       </c>
       <c r="M9" s="7" t="str">
         <f>Input!M1</f>
-        <v>Log 13</v>
+        <v>Update 1</v>
       </c>
       <c r="N9" s="7" t="str">
         <f>Input!N1</f>
-        <v>Log 14</v>
+        <v>Update 2</v>
       </c>
       <c r="O9" s="8" t="str">
         <f>Input!O1</f>
-        <v>Log 15</v>
+        <v>Update 3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2700,11 +2743,115 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5548A8-A7B7-44E4-9FC1-74D99A59A3D4}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" style="48" customWidth="1"/>
+    <col min="2" max="4" width="10.36328125" customWidth="1"/>
+    <col min="5" max="16" width="10.36328125" style="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="49"/>
+      <c r="B1" s="45" t="str">
+        <f>Input!M1</f>
+        <v>Update 1</v>
+      </c>
+      <c r="C1" s="45" t="str">
+        <f>Input!N1</f>
+        <v>Update 2</v>
+      </c>
+      <c r="D1" s="45" t="str">
+        <f>Input!O1</f>
+        <v>Update 3</v>
+      </c>
+      <c r="E1" s="46" t="str">
+        <f>Input!A1</f>
+        <v>Log 1</v>
+      </c>
+      <c r="F1" s="47" t="str">
+        <f>Input!B1</f>
+        <v>Log 2</v>
+      </c>
+      <c r="G1" s="47" t="str">
+        <f>Input!C1</f>
+        <v>Log 3</v>
+      </c>
+      <c r="H1" s="47" t="str">
+        <f>Input!D1</f>
+        <v>Log 4</v>
+      </c>
+      <c r="I1" s="47" t="str">
+        <f>Input!E1</f>
+        <v>Log 5</v>
+      </c>
+      <c r="J1" s="47" t="str">
+        <f>Input!F1</f>
+        <v>Log 6</v>
+      </c>
+      <c r="K1" s="47" t="str">
+        <f>Input!G1</f>
+        <v>Log 7</v>
+      </c>
+      <c r="L1" s="47" t="str">
+        <f>Input!H1</f>
+        <v>Log 8</v>
+      </c>
+      <c r="M1" s="47" t="str">
+        <f>Input!I1</f>
+        <v xml:space="preserve">Log 9 </v>
+      </c>
+      <c r="N1" s="47" t="str">
+        <f>Input!J1</f>
+        <v>Log 10</v>
+      </c>
+      <c r="O1" s="47" t="str">
+        <f>Input!K1</f>
+        <v>Log 11</v>
+      </c>
+      <c r="P1" s="47" t="str">
+        <f>Input!L1</f>
+        <v>Log 12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1" xr:uid="{E6D3FAC0-FAFD-4676-B7B3-212CC3CED54E}">
+      <formula1>$R:$R</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7D3E8-64C8-4AE1-938C-EF1CA99C435B}">
   <dimension ref="A1:AJQ1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2714,1008 +2861,1008 @@
     <col min="954" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:953" s="44" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="str">
+    <row r="1" spans="1:953" s="40" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="str">
         <f>S1&amp;"- "&amp;T1&amp;"- "&amp;U1&amp;"- "&amp;V1&amp;"- "&amp;W1&amp;"- "&amp;X1&amp;"- "&amp;Y1&amp;"- "&amp;Z1&amp;"- "&amp;AA1&amp;"- "&amp;AB1&amp;"- "&amp;AC1&amp;"- "&amp;AD1&amp;"- "&amp;AE1&amp;"- "&amp;AF1&amp;"- "&amp;AG1</f>
-        <v>Log 1- Log 2- Log 3- Log 4- Log 5- Log 6- Log 7- Log 8- Log 9 - Log 10- Log 11- Log 12- Log 13- Log 14- Log 15</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43" t="str">
+        <v>Log 1- Log 2- Log 3- Log 4- Log 5- Log 6- Log 7- Log 8- Log 9 - Log 10- Log 11- Log 12- Update 1- Update 2- Update 3</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="39" t="str">
         <f>Input!A1</f>
         <v>Log 1</v>
       </c>
-      <c r="T1" s="43" t="str">
+      <c r="T1" s="39" t="str">
         <f>Input!B1</f>
         <v>Log 2</v>
       </c>
-      <c r="U1" s="43" t="str">
+      <c r="U1" s="39" t="str">
         <f>Input!C1</f>
         <v>Log 3</v>
       </c>
-      <c r="V1" s="43" t="str">
+      <c r="V1" s="39" t="str">
         <f>Input!D1</f>
         <v>Log 4</v>
       </c>
-      <c r="W1" s="43" t="str">
+      <c r="W1" s="39" t="str">
         <f>Input!E1</f>
         <v>Log 5</v>
       </c>
-      <c r="X1" s="43" t="str">
+      <c r="X1" s="39" t="str">
         <f>Input!F1</f>
         <v>Log 6</v>
       </c>
-      <c r="Y1" s="43" t="str">
+      <c r="Y1" s="39" t="str">
         <f>Input!G1</f>
         <v>Log 7</v>
       </c>
-      <c r="Z1" s="43" t="str">
+      <c r="Z1" s="39" t="str">
         <f>Input!H1</f>
         <v>Log 8</v>
       </c>
-      <c r="AA1" s="43" t="str">
+      <c r="AA1" s="39" t="str">
         <f>Input!I1</f>
         <v xml:space="preserve">Log 9 </v>
       </c>
-      <c r="AB1" s="43" t="str">
+      <c r="AB1" s="39" t="str">
         <f>Input!J1</f>
         <v>Log 10</v>
       </c>
-      <c r="AC1" s="43" t="str">
+      <c r="AC1" s="39" t="str">
         <f>Input!K1</f>
         <v>Log 11</v>
       </c>
-      <c r="AD1" s="43" t="str">
+      <c r="AD1" s="39" t="str">
         <f>Input!L1</f>
         <v>Log 12</v>
       </c>
-      <c r="AE1" s="43" t="str">
+      <c r="AE1" s="39" t="str">
         <f>Input!M1</f>
-        <v>Log 13</v>
-      </c>
-      <c r="AF1" s="43" t="str">
+        <v>Update 1</v>
+      </c>
+      <c r="AF1" s="39" t="str">
         <f>Input!N1</f>
-        <v>Log 14</v>
-      </c>
-      <c r="AG1" s="43" t="str">
+        <v>Update 2</v>
+      </c>
+      <c r="AG1" s="39" t="str">
         <f>Input!O1</f>
-        <v>Log 15</v>
-      </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="42"/>
-      <c r="BL1" s="42"/>
-      <c r="BM1" s="42"/>
-      <c r="BN1" s="42"/>
-      <c r="BO1" s="42"/>
-      <c r="BP1" s="42"/>
-      <c r="BQ1" s="42"/>
-      <c r="BR1" s="42"/>
-      <c r="BS1" s="42"/>
-      <c r="BT1" s="42"/>
-      <c r="BU1" s="42"/>
-      <c r="BV1" s="42"/>
-      <c r="BW1" s="42"/>
-      <c r="BX1" s="42"/>
-      <c r="BY1" s="42"/>
-      <c r="BZ1" s="42"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="42"/>
-      <c r="CC1" s="42"/>
-      <c r="CD1" s="42"/>
-      <c r="CE1" s="42"/>
-      <c r="CF1" s="42"/>
-      <c r="CG1" s="42"/>
-      <c r="CH1" s="42"/>
-      <c r="CI1" s="42"/>
-      <c r="CJ1" s="42"/>
-      <c r="CK1" s="42"/>
-      <c r="CL1" s="42"/>
-      <c r="CM1" s="42"/>
-      <c r="CN1" s="42"/>
-      <c r="CO1" s="42"/>
-      <c r="CP1" s="42"/>
-      <c r="CQ1" s="42"/>
-      <c r="CR1" s="42"/>
-      <c r="CS1" s="42"/>
-      <c r="CT1" s="42"/>
-      <c r="CU1" s="42"/>
-      <c r="CV1" s="42"/>
-      <c r="CW1" s="42"/>
-      <c r="CX1" s="42"/>
-      <c r="CY1" s="42"/>
-      <c r="CZ1" s="42"/>
-      <c r="DA1" s="42"/>
-      <c r="DB1" s="42"/>
-      <c r="DC1" s="42"/>
-      <c r="DD1" s="42"/>
-      <c r="DE1" s="42"/>
-      <c r="DF1" s="42"/>
-      <c r="DG1" s="42"/>
-      <c r="DH1" s="42"/>
-      <c r="DI1" s="42"/>
-      <c r="DJ1" s="42"/>
-      <c r="DK1" s="42"/>
-      <c r="DL1" s="42"/>
-      <c r="DM1" s="42"/>
-      <c r="DN1" s="42"/>
-      <c r="DO1" s="42"/>
-      <c r="DP1" s="42"/>
-      <c r="DQ1" s="42"/>
-      <c r="DR1" s="42"/>
-      <c r="DS1" s="42"/>
-      <c r="DT1" s="42"/>
-      <c r="DU1" s="42"/>
-      <c r="DV1" s="42"/>
-      <c r="DW1" s="42"/>
-      <c r="DX1" s="42"/>
-      <c r="DY1" s="42"/>
-      <c r="DZ1" s="42"/>
-      <c r="EA1" s="42"/>
-      <c r="EB1" s="42"/>
-      <c r="EC1" s="42"/>
-      <c r="ED1" s="42"/>
-      <c r="EE1" s="42"/>
-      <c r="EF1" s="42"/>
-      <c r="EG1" s="42"/>
-      <c r="EH1" s="42"/>
-      <c r="EI1" s="42"/>
-      <c r="EJ1" s="42"/>
-      <c r="EK1" s="42"/>
-      <c r="EL1" s="42"/>
-      <c r="EM1" s="42"/>
-      <c r="EN1" s="42"/>
-      <c r="EO1" s="42"/>
-      <c r="EP1" s="42"/>
-      <c r="EQ1" s="42"/>
-      <c r="ER1" s="42"/>
-      <c r="ES1" s="42"/>
-      <c r="ET1" s="42"/>
-      <c r="EU1" s="42"/>
-      <c r="EV1" s="42"/>
-      <c r="EW1" s="42"/>
-      <c r="EX1" s="42"/>
-      <c r="EY1" s="42"/>
-      <c r="EZ1" s="42"/>
-      <c r="FA1" s="42"/>
-      <c r="FB1" s="42"/>
-      <c r="FC1" s="42"/>
-      <c r="FD1" s="42"/>
-      <c r="FE1" s="42"/>
-      <c r="FF1" s="42"/>
-      <c r="FG1" s="42"/>
-      <c r="FH1" s="42"/>
-      <c r="FI1" s="42"/>
-      <c r="FJ1" s="42"/>
-      <c r="FK1" s="42"/>
-      <c r="FL1" s="42"/>
-      <c r="FM1" s="42"/>
-      <c r="FN1" s="42"/>
-      <c r="FO1" s="42"/>
-      <c r="FP1" s="42"/>
-      <c r="FQ1" s="42"/>
-      <c r="FR1" s="42"/>
-      <c r="FS1" s="42"/>
-      <c r="FT1" s="42"/>
-      <c r="FU1" s="42"/>
-      <c r="FV1" s="42"/>
-      <c r="FW1" s="42"/>
-      <c r="FX1" s="42"/>
-      <c r="FY1" s="42"/>
-      <c r="FZ1" s="42"/>
-      <c r="GA1" s="42"/>
-      <c r="GB1" s="42"/>
-      <c r="GC1" s="42"/>
-      <c r="GD1" s="42"/>
-      <c r="GE1" s="42"/>
-      <c r="GF1" s="42"/>
-      <c r="GG1" s="42"/>
-      <c r="GH1" s="42"/>
-      <c r="GI1" s="42"/>
-      <c r="GJ1" s="42"/>
-      <c r="GK1" s="42"/>
-      <c r="GL1" s="42"/>
-      <c r="GM1" s="42"/>
-      <c r="GN1" s="42"/>
-      <c r="GO1" s="42"/>
-      <c r="GP1" s="42"/>
-      <c r="GQ1" s="42"/>
-      <c r="GR1" s="42"/>
-      <c r="GS1" s="42"/>
-      <c r="GT1" s="42"/>
-      <c r="GU1" s="42"/>
-      <c r="GV1" s="42"/>
-      <c r="GW1" s="42"/>
-      <c r="GX1" s="42"/>
-      <c r="GY1" s="42"/>
-      <c r="GZ1" s="42"/>
-      <c r="HA1" s="42"/>
-      <c r="HB1" s="42"/>
-      <c r="HC1" s="42"/>
-      <c r="HD1" s="42"/>
-      <c r="HE1" s="42"/>
-      <c r="HF1" s="42"/>
-      <c r="HG1" s="42"/>
-      <c r="HH1" s="42"/>
-      <c r="HI1" s="42"/>
-      <c r="HJ1" s="42"/>
-      <c r="HK1" s="42"/>
-      <c r="HL1" s="42"/>
-      <c r="HM1" s="42"/>
-      <c r="HN1" s="42"/>
-      <c r="HO1" s="42"/>
-      <c r="HP1" s="42"/>
-      <c r="HQ1" s="42"/>
-      <c r="HR1" s="42"/>
-      <c r="HS1" s="42"/>
-      <c r="HT1" s="42"/>
-      <c r="HU1" s="42"/>
-      <c r="HV1" s="42"/>
-      <c r="HW1" s="42"/>
-      <c r="HX1" s="42"/>
-      <c r="HY1" s="42"/>
-      <c r="HZ1" s="42"/>
-      <c r="IA1" s="42"/>
-      <c r="IB1" s="42"/>
-      <c r="IC1" s="42"/>
-      <c r="ID1" s="42"/>
-      <c r="IE1" s="42"/>
-      <c r="IF1" s="42"/>
-      <c r="IG1" s="42"/>
-      <c r="IH1" s="42"/>
-      <c r="II1" s="42"/>
-      <c r="IJ1" s="42"/>
-      <c r="IK1" s="42"/>
-      <c r="IL1" s="42"/>
-      <c r="IM1" s="42"/>
-      <c r="IN1" s="42"/>
-      <c r="IO1" s="42"/>
-      <c r="IP1" s="42"/>
-      <c r="IQ1" s="42"/>
-      <c r="IR1" s="42"/>
-      <c r="IS1" s="42"/>
-      <c r="IT1" s="42"/>
-      <c r="IU1" s="42"/>
-      <c r="IV1" s="42"/>
-      <c r="IW1" s="42"/>
-      <c r="IX1" s="42"/>
-      <c r="IY1" s="42"/>
-      <c r="IZ1" s="42"/>
-      <c r="JA1" s="42"/>
-      <c r="JB1" s="42"/>
-      <c r="JC1" s="42"/>
-      <c r="JD1" s="42"/>
-      <c r="JE1" s="42"/>
-      <c r="JF1" s="42"/>
-      <c r="JG1" s="42"/>
-      <c r="JH1" s="42"/>
-      <c r="JI1" s="42"/>
-      <c r="JJ1" s="42"/>
-      <c r="JK1" s="42"/>
-      <c r="JL1" s="42"/>
-      <c r="JM1" s="42"/>
-      <c r="JN1" s="42"/>
-      <c r="JO1" s="42"/>
-      <c r="JP1" s="42"/>
-      <c r="JQ1" s="42"/>
-      <c r="JR1" s="42"/>
-      <c r="JS1" s="42"/>
-      <c r="JT1" s="42"/>
-      <c r="JU1" s="42"/>
-      <c r="JV1" s="42"/>
-      <c r="JW1" s="42"/>
-      <c r="JX1" s="42"/>
-      <c r="JY1" s="42"/>
-      <c r="JZ1" s="42"/>
-      <c r="KA1" s="42"/>
-      <c r="KB1" s="42"/>
-      <c r="KC1" s="42"/>
-      <c r="KD1" s="42"/>
-      <c r="KE1" s="42"/>
-      <c r="KF1" s="42"/>
-      <c r="KG1" s="42"/>
-      <c r="KH1" s="42"/>
-      <c r="KI1" s="42"/>
-      <c r="KJ1" s="42"/>
-      <c r="KK1" s="42"/>
-      <c r="KL1" s="42"/>
-      <c r="KM1" s="42"/>
-      <c r="KN1" s="42"/>
-      <c r="KO1" s="42"/>
-      <c r="KP1" s="42"/>
-      <c r="KQ1" s="42"/>
-      <c r="KR1" s="42"/>
-      <c r="KS1" s="42"/>
-      <c r="KT1" s="42"/>
-      <c r="KU1" s="42"/>
-      <c r="KV1" s="42"/>
-      <c r="KW1" s="42"/>
-      <c r="KX1" s="42"/>
-      <c r="KY1" s="42"/>
-      <c r="KZ1" s="42"/>
-      <c r="LA1" s="42"/>
-      <c r="LB1" s="42"/>
-      <c r="LC1" s="42"/>
-      <c r="LD1" s="42"/>
-      <c r="LE1" s="42"/>
-      <c r="LF1" s="42"/>
-      <c r="LG1" s="42"/>
-      <c r="LH1" s="42"/>
-      <c r="LI1" s="42"/>
-      <c r="LJ1" s="42"/>
-      <c r="LK1" s="42"/>
-      <c r="LL1" s="42"/>
-      <c r="LM1" s="42"/>
-      <c r="LN1" s="42"/>
-      <c r="LO1" s="42"/>
-      <c r="LP1" s="42"/>
-      <c r="LQ1" s="42"/>
-      <c r="LR1" s="42"/>
-      <c r="LS1" s="42"/>
-      <c r="LT1" s="42"/>
-      <c r="LU1" s="42"/>
-      <c r="LV1" s="42"/>
-      <c r="LW1" s="42"/>
-      <c r="LX1" s="42"/>
-      <c r="LY1" s="42"/>
-      <c r="LZ1" s="42"/>
-      <c r="MA1" s="42"/>
-      <c r="MB1" s="42"/>
-      <c r="MC1" s="42"/>
-      <c r="MD1" s="42"/>
-      <c r="ME1" s="42"/>
-      <c r="MF1" s="42"/>
-      <c r="MG1" s="42"/>
-      <c r="MH1" s="42"/>
-      <c r="MI1" s="42"/>
-      <c r="MJ1" s="42"/>
-      <c r="MK1" s="42"/>
-      <c r="ML1" s="42"/>
-      <c r="MM1" s="42"/>
-      <c r="MN1" s="42"/>
-      <c r="MO1" s="42"/>
-      <c r="MP1" s="42"/>
-      <c r="MQ1" s="42"/>
-      <c r="MR1" s="42"/>
-      <c r="MS1" s="42"/>
-      <c r="MT1" s="42"/>
-      <c r="MU1" s="42"/>
-      <c r="MV1" s="42"/>
-      <c r="MW1" s="42"/>
-      <c r="MX1" s="42"/>
-      <c r="MY1" s="42"/>
-      <c r="MZ1" s="42"/>
-      <c r="NA1" s="42"/>
-      <c r="NB1" s="42"/>
-      <c r="NC1" s="42"/>
-      <c r="ND1" s="42"/>
-      <c r="NE1" s="42"/>
-      <c r="NF1" s="42"/>
-      <c r="NG1" s="42"/>
-      <c r="NH1" s="42"/>
-      <c r="NI1" s="42"/>
-      <c r="NJ1" s="42"/>
-      <c r="NK1" s="42"/>
-      <c r="NL1" s="42"/>
-      <c r="NM1" s="42"/>
-      <c r="NN1" s="42"/>
-      <c r="NO1" s="42"/>
-      <c r="NP1" s="42"/>
-      <c r="NQ1" s="42"/>
-      <c r="NR1" s="42"/>
-      <c r="NS1" s="42"/>
-      <c r="NT1" s="42"/>
-      <c r="NU1" s="42"/>
-      <c r="NV1" s="42"/>
-      <c r="NW1" s="42"/>
-      <c r="NX1" s="42"/>
-      <c r="NY1" s="42"/>
-      <c r="NZ1" s="42"/>
-      <c r="OA1" s="42"/>
-      <c r="OB1" s="42"/>
-      <c r="OC1" s="42"/>
-      <c r="OD1" s="42"/>
-      <c r="OE1" s="42"/>
-      <c r="OF1" s="42"/>
-      <c r="OG1" s="42"/>
-      <c r="OH1" s="42"/>
-      <c r="OI1" s="42"/>
-      <c r="OJ1" s="42"/>
-      <c r="OK1" s="42"/>
-      <c r="OL1" s="42"/>
-      <c r="OM1" s="42"/>
-      <c r="ON1" s="42"/>
-      <c r="OO1" s="42"/>
-      <c r="OP1" s="42"/>
-      <c r="OQ1" s="42"/>
-      <c r="OR1" s="42"/>
-      <c r="OS1" s="42"/>
-      <c r="OT1" s="42"/>
-      <c r="OU1" s="42"/>
-      <c r="OV1" s="42"/>
-      <c r="OW1" s="42"/>
-      <c r="OX1" s="42"/>
-      <c r="OY1" s="42"/>
-      <c r="OZ1" s="42"/>
-      <c r="PA1" s="42"/>
-      <c r="PB1" s="42"/>
-      <c r="PC1" s="42"/>
-      <c r="PD1" s="42"/>
-      <c r="PE1" s="42"/>
-      <c r="PF1" s="42"/>
-      <c r="PG1" s="42"/>
-      <c r="PH1" s="42"/>
-      <c r="PI1" s="42"/>
-      <c r="PJ1" s="42"/>
-      <c r="PK1" s="42"/>
-      <c r="PL1" s="42"/>
-      <c r="PM1" s="42"/>
-      <c r="PN1" s="42"/>
-      <c r="PO1" s="42"/>
-      <c r="PP1" s="42"/>
-      <c r="PQ1" s="42"/>
-      <c r="PR1" s="42"/>
-      <c r="PS1" s="42"/>
-      <c r="PT1" s="42"/>
-      <c r="PU1" s="42"/>
-      <c r="PV1" s="42"/>
-      <c r="PW1" s="42"/>
-      <c r="PX1" s="42"/>
-      <c r="PY1" s="42"/>
-      <c r="PZ1" s="42"/>
-      <c r="QA1" s="42"/>
-      <c r="QB1" s="42"/>
-      <c r="QC1" s="42"/>
-      <c r="QD1" s="42"/>
-      <c r="QE1" s="42"/>
-      <c r="QF1" s="42"/>
-      <c r="QG1" s="42"/>
-      <c r="QH1" s="42"/>
-      <c r="QI1" s="42"/>
-      <c r="QJ1" s="42"/>
-      <c r="QK1" s="42"/>
-      <c r="QL1" s="42"/>
-      <c r="QM1" s="42"/>
-      <c r="QN1" s="42"/>
-      <c r="QO1" s="42"/>
-      <c r="QP1" s="42"/>
-      <c r="QQ1" s="42"/>
-      <c r="QR1" s="42"/>
-      <c r="QS1" s="42"/>
-      <c r="QT1" s="42"/>
-      <c r="QU1" s="42"/>
-      <c r="QV1" s="42"/>
-      <c r="QW1" s="42"/>
-      <c r="QX1" s="42"/>
-      <c r="QY1" s="42"/>
-      <c r="QZ1" s="42"/>
-      <c r="RA1" s="42"/>
-      <c r="RB1" s="42"/>
-      <c r="RC1" s="42"/>
-      <c r="RD1" s="42"/>
-      <c r="RE1" s="42"/>
-      <c r="RF1" s="42"/>
-      <c r="RG1" s="42"/>
-      <c r="RH1" s="42"/>
-      <c r="RI1" s="42"/>
-      <c r="RJ1" s="42"/>
-      <c r="RK1" s="42"/>
-      <c r="RL1" s="42"/>
-      <c r="RM1" s="42"/>
-      <c r="RN1" s="42"/>
-      <c r="RO1" s="42"/>
-      <c r="RP1" s="42"/>
-      <c r="RQ1" s="42"/>
-      <c r="RR1" s="42"/>
-      <c r="RS1" s="42"/>
-      <c r="RT1" s="42"/>
-      <c r="RU1" s="42"/>
-      <c r="RV1" s="42"/>
-      <c r="RW1" s="42"/>
-      <c r="RX1" s="42"/>
-      <c r="RY1" s="42"/>
-      <c r="RZ1" s="42"/>
-      <c r="SA1" s="42"/>
-      <c r="SB1" s="42"/>
-      <c r="SC1" s="42"/>
-      <c r="SD1" s="42"/>
-      <c r="SE1" s="42"/>
-      <c r="SF1" s="42"/>
-      <c r="SG1" s="42"/>
-      <c r="SH1" s="42"/>
-      <c r="SI1" s="42"/>
-      <c r="SJ1" s="42"/>
-      <c r="SK1" s="42"/>
-      <c r="SL1" s="42"/>
-      <c r="SM1" s="42"/>
-      <c r="SN1" s="42"/>
-      <c r="SO1" s="42"/>
-      <c r="SP1" s="42"/>
-      <c r="SQ1" s="42"/>
-      <c r="SR1" s="42"/>
-      <c r="SS1" s="42"/>
-      <c r="ST1" s="42"/>
-      <c r="SU1" s="42"/>
-      <c r="SV1" s="42"/>
-      <c r="SW1" s="42"/>
-      <c r="SX1" s="42"/>
-      <c r="SY1" s="42"/>
-      <c r="SZ1" s="42"/>
-      <c r="TA1" s="42"/>
-      <c r="TB1" s="42"/>
-      <c r="TC1" s="42"/>
-      <c r="TD1" s="42"/>
-      <c r="TE1" s="42"/>
-      <c r="TF1" s="42"/>
-      <c r="TG1" s="42"/>
-      <c r="TH1" s="42"/>
-      <c r="TI1" s="42"/>
-      <c r="TJ1" s="42"/>
-      <c r="TK1" s="42"/>
-      <c r="TL1" s="42"/>
-      <c r="TM1" s="42"/>
-      <c r="TN1" s="42"/>
-      <c r="TO1" s="42"/>
-      <c r="TP1" s="42"/>
-      <c r="TQ1" s="42"/>
-      <c r="TR1" s="42"/>
-      <c r="TS1" s="42"/>
-      <c r="TT1" s="42"/>
-      <c r="TU1" s="42"/>
-      <c r="TV1" s="42"/>
-      <c r="TW1" s="42"/>
-      <c r="TX1" s="42"/>
-      <c r="TY1" s="42"/>
-      <c r="TZ1" s="42"/>
-      <c r="UA1" s="42"/>
-      <c r="UB1" s="42"/>
-      <c r="UC1" s="42"/>
-      <c r="UD1" s="42"/>
-      <c r="UE1" s="42"/>
-      <c r="UF1" s="42"/>
-      <c r="UG1" s="42"/>
-      <c r="UH1" s="42"/>
-      <c r="UI1" s="42"/>
-      <c r="UJ1" s="42"/>
-      <c r="UK1" s="42"/>
-      <c r="UL1" s="42"/>
-      <c r="UM1" s="42"/>
-      <c r="UN1" s="42"/>
-      <c r="UO1" s="42"/>
-      <c r="UP1" s="42"/>
-      <c r="UQ1" s="42"/>
-      <c r="UR1" s="42"/>
-      <c r="US1" s="42"/>
-      <c r="UT1" s="42"/>
-      <c r="UU1" s="42"/>
-      <c r="UV1" s="42"/>
-      <c r="UW1" s="42"/>
-      <c r="UX1" s="42"/>
-      <c r="UY1" s="42"/>
-      <c r="UZ1" s="42"/>
-      <c r="VA1" s="42"/>
-      <c r="VB1" s="42"/>
-      <c r="VC1" s="42"/>
-      <c r="VD1" s="42"/>
-      <c r="VE1" s="42"/>
-      <c r="VF1" s="42"/>
-      <c r="VG1" s="42"/>
-      <c r="VH1" s="42"/>
-      <c r="VI1" s="42"/>
-      <c r="VJ1" s="42"/>
-      <c r="VK1" s="42"/>
-      <c r="VL1" s="42"/>
-      <c r="VM1" s="42"/>
-      <c r="VN1" s="42"/>
-      <c r="VO1" s="42"/>
-      <c r="VP1" s="42"/>
-      <c r="VQ1" s="42"/>
-      <c r="VR1" s="42"/>
-      <c r="VS1" s="42"/>
-      <c r="VT1" s="42"/>
-      <c r="VU1" s="42"/>
-      <c r="VV1" s="42"/>
-      <c r="VW1" s="42"/>
-      <c r="VX1" s="42"/>
-      <c r="VY1" s="42"/>
-      <c r="VZ1" s="42"/>
-      <c r="WA1" s="42"/>
-      <c r="WB1" s="42"/>
-      <c r="WC1" s="42"/>
-      <c r="WD1" s="42"/>
-      <c r="WE1" s="42"/>
-      <c r="WF1" s="42"/>
-      <c r="WG1" s="42"/>
-      <c r="WH1" s="42"/>
-      <c r="WI1" s="42"/>
-      <c r="WJ1" s="42"/>
-      <c r="WK1" s="42"/>
-      <c r="WL1" s="42"/>
-      <c r="WM1" s="42"/>
-      <c r="WN1" s="42"/>
-      <c r="WO1" s="42"/>
-      <c r="WP1" s="42"/>
-      <c r="WQ1" s="42"/>
-      <c r="WR1" s="42"/>
-      <c r="WS1" s="42"/>
-      <c r="WT1" s="42"/>
-      <c r="WU1" s="42"/>
-      <c r="WV1" s="42"/>
-      <c r="WW1" s="42"/>
-      <c r="WX1" s="42"/>
-      <c r="WY1" s="42"/>
-      <c r="WZ1" s="42"/>
-      <c r="XA1" s="42"/>
-      <c r="XB1" s="42"/>
-      <c r="XC1" s="42"/>
-      <c r="XD1" s="42"/>
-      <c r="XE1" s="42"/>
-      <c r="XF1" s="42"/>
-      <c r="XG1" s="42"/>
-      <c r="XH1" s="42"/>
-      <c r="XI1" s="42"/>
-      <c r="XJ1" s="42"/>
-      <c r="XK1" s="42"/>
-      <c r="XL1" s="42"/>
-      <c r="XM1" s="42"/>
-      <c r="XN1" s="42"/>
-      <c r="XO1" s="42"/>
-      <c r="XP1" s="42"/>
-      <c r="XQ1" s="42"/>
-      <c r="XR1" s="42"/>
-      <c r="XS1" s="42"/>
-      <c r="XT1" s="42"/>
-      <c r="XU1" s="42"/>
-      <c r="XV1" s="42"/>
-      <c r="XW1" s="42"/>
-      <c r="XX1" s="42"/>
-      <c r="XY1" s="42"/>
-      <c r="XZ1" s="42"/>
-      <c r="YA1" s="42"/>
-      <c r="YB1" s="42"/>
-      <c r="YC1" s="42"/>
-      <c r="YD1" s="42"/>
-      <c r="YE1" s="42"/>
-      <c r="YF1" s="42"/>
-      <c r="YG1" s="42"/>
-      <c r="YH1" s="42"/>
-      <c r="YI1" s="42"/>
-      <c r="YJ1" s="42"/>
-      <c r="YK1" s="42"/>
-      <c r="YL1" s="42"/>
-      <c r="YM1" s="42"/>
-      <c r="YN1" s="42"/>
-      <c r="YO1" s="42"/>
-      <c r="YP1" s="42"/>
-      <c r="YQ1" s="42"/>
-      <c r="YR1" s="42"/>
-      <c r="YS1" s="42"/>
-      <c r="YT1" s="42"/>
-      <c r="YU1" s="42"/>
-      <c r="YV1" s="42"/>
-      <c r="YW1" s="42"/>
-      <c r="YX1" s="42"/>
-      <c r="YY1" s="42"/>
-      <c r="YZ1" s="42"/>
-      <c r="ZA1" s="42"/>
-      <c r="ZB1" s="42"/>
-      <c r="ZC1" s="42"/>
-      <c r="ZD1" s="42"/>
-      <c r="ZE1" s="42"/>
-      <c r="ZF1" s="42"/>
-      <c r="ZG1" s="42"/>
-      <c r="ZH1" s="42"/>
-      <c r="ZI1" s="42"/>
-      <c r="ZJ1" s="42"/>
-      <c r="ZK1" s="42"/>
-      <c r="ZL1" s="42"/>
-      <c r="ZM1" s="42"/>
-      <c r="ZN1" s="42"/>
-      <c r="ZO1" s="42"/>
-      <c r="ZP1" s="42"/>
-      <c r="ZQ1" s="42"/>
-      <c r="ZR1" s="42"/>
-      <c r="ZS1" s="42"/>
-      <c r="ZT1" s="42"/>
-      <c r="ZU1" s="42"/>
-      <c r="ZV1" s="42"/>
-      <c r="ZW1" s="42"/>
-      <c r="ZX1" s="42"/>
-      <c r="ZY1" s="42"/>
-      <c r="ZZ1" s="42"/>
-      <c r="AAA1" s="42"/>
-      <c r="AAB1" s="42"/>
-      <c r="AAC1" s="42"/>
-      <c r="AAD1" s="42"/>
-      <c r="AAE1" s="42"/>
-      <c r="AAF1" s="42"/>
-      <c r="AAG1" s="42"/>
-      <c r="AAH1" s="42"/>
-      <c r="AAI1" s="42"/>
-      <c r="AAJ1" s="42"/>
-      <c r="AAK1" s="42"/>
-      <c r="AAL1" s="42"/>
-      <c r="AAM1" s="42"/>
-      <c r="AAN1" s="42"/>
-      <c r="AAO1" s="42"/>
-      <c r="AAP1" s="42"/>
-      <c r="AAQ1" s="42"/>
-      <c r="AAR1" s="42"/>
-      <c r="AAS1" s="42"/>
-      <c r="AAT1" s="42"/>
-      <c r="AAU1" s="42"/>
-      <c r="AAV1" s="42"/>
-      <c r="AAW1" s="42"/>
-      <c r="AAX1" s="42"/>
-      <c r="AAY1" s="42"/>
-      <c r="AAZ1" s="42"/>
-      <c r="ABA1" s="42"/>
-      <c r="ABB1" s="42"/>
-      <c r="ABC1" s="42"/>
-      <c r="ABD1" s="42"/>
-      <c r="ABE1" s="42"/>
-      <c r="ABF1" s="42"/>
-      <c r="ABG1" s="42"/>
-      <c r="ABH1" s="42"/>
-      <c r="ABI1" s="42"/>
-      <c r="ABJ1" s="42"/>
-      <c r="ABK1" s="42"/>
-      <c r="ABL1" s="42"/>
-      <c r="ABM1" s="42"/>
-      <c r="ABN1" s="42"/>
-      <c r="ABO1" s="42"/>
-      <c r="ABP1" s="42"/>
-      <c r="ABQ1" s="42"/>
-      <c r="ABR1" s="42"/>
-      <c r="ABS1" s="42"/>
-      <c r="ABT1" s="42"/>
-      <c r="ABU1" s="42"/>
-      <c r="ABV1" s="42"/>
-      <c r="ABW1" s="42"/>
-      <c r="ABX1" s="42"/>
-      <c r="ABY1" s="42"/>
-      <c r="ABZ1" s="42"/>
-      <c r="ACA1" s="42"/>
-      <c r="ACB1" s="42"/>
-      <c r="ACC1" s="42"/>
-      <c r="ACD1" s="42"/>
-      <c r="ACE1" s="42"/>
-      <c r="ACF1" s="42"/>
-      <c r="ACG1" s="42"/>
-      <c r="ACH1" s="42"/>
-      <c r="ACI1" s="42"/>
-      <c r="ACJ1" s="42"/>
-      <c r="ACK1" s="42"/>
-      <c r="ACL1" s="42"/>
-      <c r="ACM1" s="42"/>
-      <c r="ACN1" s="42"/>
-      <c r="ACO1" s="42"/>
-      <c r="ACP1" s="42"/>
-      <c r="ACQ1" s="42"/>
-      <c r="ACR1" s="42"/>
-      <c r="ACS1" s="42"/>
-      <c r="ACT1" s="42"/>
-      <c r="ACU1" s="42"/>
-      <c r="ACV1" s="42"/>
-      <c r="ACW1" s="42"/>
-      <c r="ACX1" s="42"/>
-      <c r="ACY1" s="42"/>
-      <c r="ACZ1" s="42"/>
-      <c r="ADA1" s="42"/>
-      <c r="ADB1" s="42"/>
-      <c r="ADC1" s="42"/>
-      <c r="ADD1" s="42"/>
-      <c r="ADE1" s="42"/>
-      <c r="ADF1" s="42"/>
-      <c r="ADG1" s="42"/>
-      <c r="ADH1" s="42"/>
-      <c r="ADI1" s="42"/>
-      <c r="ADJ1" s="42"/>
-      <c r="ADK1" s="42"/>
-      <c r="ADL1" s="42"/>
-      <c r="ADM1" s="42"/>
-      <c r="ADN1" s="42"/>
-      <c r="ADO1" s="42"/>
-      <c r="ADP1" s="42"/>
-      <c r="ADQ1" s="42"/>
-      <c r="ADR1" s="42"/>
-      <c r="ADS1" s="42"/>
-      <c r="ADT1" s="42"/>
-      <c r="ADU1" s="42"/>
-      <c r="ADV1" s="42"/>
-      <c r="ADW1" s="42"/>
-      <c r="ADX1" s="42"/>
-      <c r="ADY1" s="42"/>
-      <c r="ADZ1" s="42"/>
-      <c r="AEA1" s="42"/>
-      <c r="AEB1" s="42"/>
-      <c r="AEC1" s="42"/>
-      <c r="AED1" s="42"/>
-      <c r="AEE1" s="42"/>
-      <c r="AEF1" s="42"/>
-      <c r="AEG1" s="42"/>
-      <c r="AEH1" s="42"/>
-      <c r="AEI1" s="42"/>
-      <c r="AEJ1" s="42"/>
-      <c r="AEK1" s="42"/>
-      <c r="AEL1" s="42"/>
-      <c r="AEM1" s="42"/>
-      <c r="AEN1" s="42"/>
-      <c r="AEO1" s="42"/>
-      <c r="AEP1" s="42"/>
-      <c r="AEQ1" s="42"/>
-      <c r="AER1" s="42"/>
-      <c r="AES1" s="42"/>
-      <c r="AET1" s="42"/>
-      <c r="AEU1" s="42"/>
-      <c r="AEV1" s="42"/>
-      <c r="AEW1" s="42"/>
-      <c r="AEX1" s="42"/>
-      <c r="AEY1" s="42"/>
-      <c r="AEZ1" s="42"/>
-      <c r="AFA1" s="42"/>
-      <c r="AFB1" s="42"/>
-      <c r="AFC1" s="42"/>
-      <c r="AFD1" s="42"/>
-      <c r="AFE1" s="42"/>
-      <c r="AFF1" s="42"/>
-      <c r="AFG1" s="42"/>
-      <c r="AFH1" s="42"/>
-      <c r="AFI1" s="42"/>
-      <c r="AFJ1" s="42"/>
-      <c r="AFK1" s="42"/>
-      <c r="AFL1" s="42"/>
-      <c r="AFM1" s="42"/>
-      <c r="AFN1" s="42"/>
-      <c r="AFO1" s="42"/>
-      <c r="AFP1" s="42"/>
-      <c r="AFQ1" s="42"/>
-      <c r="AFR1" s="42"/>
-      <c r="AFS1" s="42"/>
-      <c r="AFT1" s="42"/>
-      <c r="AFU1" s="42"/>
-      <c r="AFV1" s="42"/>
-      <c r="AFW1" s="42"/>
-      <c r="AFX1" s="42"/>
-      <c r="AFY1" s="42"/>
-      <c r="AFZ1" s="42"/>
-      <c r="AGA1" s="42"/>
-      <c r="AGB1" s="42"/>
-      <c r="AGC1" s="42"/>
-      <c r="AGD1" s="42"/>
-      <c r="AGE1" s="42"/>
-      <c r="AGF1" s="42"/>
-      <c r="AGG1" s="42"/>
-      <c r="AGH1" s="42"/>
-      <c r="AGI1" s="42"/>
-      <c r="AGJ1" s="42"/>
-      <c r="AGK1" s="42"/>
-      <c r="AGL1" s="42"/>
-      <c r="AGM1" s="42"/>
-      <c r="AGN1" s="42"/>
-      <c r="AGO1" s="42"/>
-      <c r="AGP1" s="42"/>
-      <c r="AGQ1" s="42"/>
-      <c r="AGR1" s="42"/>
-      <c r="AGS1" s="42"/>
-      <c r="AGT1" s="42"/>
-      <c r="AGU1" s="42"/>
-      <c r="AGV1" s="42"/>
-      <c r="AGW1" s="42"/>
-      <c r="AGX1" s="42"/>
-      <c r="AGY1" s="42"/>
-      <c r="AGZ1" s="42"/>
-      <c r="AHA1" s="42"/>
-      <c r="AHB1" s="42"/>
-      <c r="AHC1" s="42"/>
-      <c r="AHD1" s="42"/>
-      <c r="AHE1" s="42"/>
-      <c r="AHF1" s="42"/>
-      <c r="AHG1" s="42"/>
-      <c r="AHH1" s="42"/>
-      <c r="AHI1" s="42"/>
-      <c r="AHJ1" s="42"/>
-      <c r="AHK1" s="42"/>
-      <c r="AHL1" s="42"/>
-      <c r="AHM1" s="42"/>
-      <c r="AHN1" s="42"/>
-      <c r="AHO1" s="42"/>
-      <c r="AHP1" s="42"/>
-      <c r="AHQ1" s="42"/>
-      <c r="AHR1" s="42"/>
-      <c r="AHS1" s="42"/>
-      <c r="AHT1" s="42"/>
-      <c r="AHU1" s="42"/>
-      <c r="AHV1" s="42"/>
-      <c r="AHW1" s="42"/>
-      <c r="AHX1" s="42"/>
-      <c r="AHY1" s="42"/>
-      <c r="AHZ1" s="42"/>
-      <c r="AIA1" s="42"/>
-      <c r="AIB1" s="42"/>
-      <c r="AIC1" s="42"/>
-      <c r="AID1" s="42"/>
-      <c r="AIE1" s="42"/>
-      <c r="AIF1" s="42"/>
-      <c r="AIG1" s="42"/>
-      <c r="AIH1" s="42"/>
-      <c r="AII1" s="42"/>
-      <c r="AIJ1" s="42"/>
-      <c r="AIK1" s="42"/>
-      <c r="AIL1" s="42"/>
-      <c r="AIM1" s="42"/>
-      <c r="AIN1" s="42"/>
-      <c r="AIO1" s="42"/>
-      <c r="AIP1" s="42"/>
-      <c r="AIQ1" s="42"/>
-      <c r="AIR1" s="42"/>
-      <c r="AIS1" s="42"/>
-      <c r="AIT1" s="42"/>
-      <c r="AIU1" s="42"/>
-      <c r="AIV1" s="42"/>
-      <c r="AIW1" s="42"/>
-      <c r="AIX1" s="42"/>
-      <c r="AIY1" s="42"/>
-      <c r="AIZ1" s="42"/>
-      <c r="AJA1" s="42"/>
-      <c r="AJB1" s="42"/>
-      <c r="AJC1" s="42"/>
-      <c r="AJD1" s="42"/>
-      <c r="AJE1" s="42"/>
-      <c r="AJF1" s="42"/>
-      <c r="AJG1" s="42"/>
-      <c r="AJH1" s="42"/>
-      <c r="AJI1" s="42"/>
-      <c r="AJJ1" s="42"/>
-      <c r="AJK1" s="42"/>
-      <c r="AJL1" s="42"/>
-      <c r="AJM1" s="42"/>
-      <c r="AJN1" s="42"/>
-      <c r="AJO1" s="42"/>
-      <c r="AJP1" s="42"/>
-      <c r="AJQ1" s="42"/>
+        <v>Update 3</v>
+      </c>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="38"/>
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="38"/>
+      <c r="BU1" s="38"/>
+      <c r="BV1" s="38"/>
+      <c r="BW1" s="38"/>
+      <c r="BX1" s="38"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="38"/>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="38"/>
+      <c r="CI1" s="38"/>
+      <c r="CJ1" s="38"/>
+      <c r="CK1" s="38"/>
+      <c r="CL1" s="38"/>
+      <c r="CM1" s="38"/>
+      <c r="CN1" s="38"/>
+      <c r="CO1" s="38"/>
+      <c r="CP1" s="38"/>
+      <c r="CQ1" s="38"/>
+      <c r="CR1" s="38"/>
+      <c r="CS1" s="38"/>
+      <c r="CT1" s="38"/>
+      <c r="CU1" s="38"/>
+      <c r="CV1" s="38"/>
+      <c r="CW1" s="38"/>
+      <c r="CX1" s="38"/>
+      <c r="CY1" s="38"/>
+      <c r="CZ1" s="38"/>
+      <c r="DA1" s="38"/>
+      <c r="DB1" s="38"/>
+      <c r="DC1" s="38"/>
+      <c r="DD1" s="38"/>
+      <c r="DE1" s="38"/>
+      <c r="DF1" s="38"/>
+      <c r="DG1" s="38"/>
+      <c r="DH1" s="38"/>
+      <c r="DI1" s="38"/>
+      <c r="DJ1" s="38"/>
+      <c r="DK1" s="38"/>
+      <c r="DL1" s="38"/>
+      <c r="DM1" s="38"/>
+      <c r="DN1" s="38"/>
+      <c r="DO1" s="38"/>
+      <c r="DP1" s="38"/>
+      <c r="DQ1" s="38"/>
+      <c r="DR1" s="38"/>
+      <c r="DS1" s="38"/>
+      <c r="DT1" s="38"/>
+      <c r="DU1" s="38"/>
+      <c r="DV1" s="38"/>
+      <c r="DW1" s="38"/>
+      <c r="DX1" s="38"/>
+      <c r="DY1" s="38"/>
+      <c r="DZ1" s="38"/>
+      <c r="EA1" s="38"/>
+      <c r="EB1" s="38"/>
+      <c r="EC1" s="38"/>
+      <c r="ED1" s="38"/>
+      <c r="EE1" s="38"/>
+      <c r="EF1" s="38"/>
+      <c r="EG1" s="38"/>
+      <c r="EH1" s="38"/>
+      <c r="EI1" s="38"/>
+      <c r="EJ1" s="38"/>
+      <c r="EK1" s="38"/>
+      <c r="EL1" s="38"/>
+      <c r="EM1" s="38"/>
+      <c r="EN1" s="38"/>
+      <c r="EO1" s="38"/>
+      <c r="EP1" s="38"/>
+      <c r="EQ1" s="38"/>
+      <c r="ER1" s="38"/>
+      <c r="ES1" s="38"/>
+      <c r="ET1" s="38"/>
+      <c r="EU1" s="38"/>
+      <c r="EV1" s="38"/>
+      <c r="EW1" s="38"/>
+      <c r="EX1" s="38"/>
+      <c r="EY1" s="38"/>
+      <c r="EZ1" s="38"/>
+      <c r="FA1" s="38"/>
+      <c r="FB1" s="38"/>
+      <c r="FC1" s="38"/>
+      <c r="FD1" s="38"/>
+      <c r="FE1" s="38"/>
+      <c r="FF1" s="38"/>
+      <c r="FG1" s="38"/>
+      <c r="FH1" s="38"/>
+      <c r="FI1" s="38"/>
+      <c r="FJ1" s="38"/>
+      <c r="FK1" s="38"/>
+      <c r="FL1" s="38"/>
+      <c r="FM1" s="38"/>
+      <c r="FN1" s="38"/>
+      <c r="FO1" s="38"/>
+      <c r="FP1" s="38"/>
+      <c r="FQ1" s="38"/>
+      <c r="FR1" s="38"/>
+      <c r="FS1" s="38"/>
+      <c r="FT1" s="38"/>
+      <c r="FU1" s="38"/>
+      <c r="FV1" s="38"/>
+      <c r="FW1" s="38"/>
+      <c r="FX1" s="38"/>
+      <c r="FY1" s="38"/>
+      <c r="FZ1" s="38"/>
+      <c r="GA1" s="38"/>
+      <c r="GB1" s="38"/>
+      <c r="GC1" s="38"/>
+      <c r="GD1" s="38"/>
+      <c r="GE1" s="38"/>
+      <c r="GF1" s="38"/>
+      <c r="GG1" s="38"/>
+      <c r="GH1" s="38"/>
+      <c r="GI1" s="38"/>
+      <c r="GJ1" s="38"/>
+      <c r="GK1" s="38"/>
+      <c r="GL1" s="38"/>
+      <c r="GM1" s="38"/>
+      <c r="GN1" s="38"/>
+      <c r="GO1" s="38"/>
+      <c r="GP1" s="38"/>
+      <c r="GQ1" s="38"/>
+      <c r="GR1" s="38"/>
+      <c r="GS1" s="38"/>
+      <c r="GT1" s="38"/>
+      <c r="GU1" s="38"/>
+      <c r="GV1" s="38"/>
+      <c r="GW1" s="38"/>
+      <c r="GX1" s="38"/>
+      <c r="GY1" s="38"/>
+      <c r="GZ1" s="38"/>
+      <c r="HA1" s="38"/>
+      <c r="HB1" s="38"/>
+      <c r="HC1" s="38"/>
+      <c r="HD1" s="38"/>
+      <c r="HE1" s="38"/>
+      <c r="HF1" s="38"/>
+      <c r="HG1" s="38"/>
+      <c r="HH1" s="38"/>
+      <c r="HI1" s="38"/>
+      <c r="HJ1" s="38"/>
+      <c r="HK1" s="38"/>
+      <c r="HL1" s="38"/>
+      <c r="HM1" s="38"/>
+      <c r="HN1" s="38"/>
+      <c r="HO1" s="38"/>
+      <c r="HP1" s="38"/>
+      <c r="HQ1" s="38"/>
+      <c r="HR1" s="38"/>
+      <c r="HS1" s="38"/>
+      <c r="HT1" s="38"/>
+      <c r="HU1" s="38"/>
+      <c r="HV1" s="38"/>
+      <c r="HW1" s="38"/>
+      <c r="HX1" s="38"/>
+      <c r="HY1" s="38"/>
+      <c r="HZ1" s="38"/>
+      <c r="IA1" s="38"/>
+      <c r="IB1" s="38"/>
+      <c r="IC1" s="38"/>
+      <c r="ID1" s="38"/>
+      <c r="IE1" s="38"/>
+      <c r="IF1" s="38"/>
+      <c r="IG1" s="38"/>
+      <c r="IH1" s="38"/>
+      <c r="II1" s="38"/>
+      <c r="IJ1" s="38"/>
+      <c r="IK1" s="38"/>
+      <c r="IL1" s="38"/>
+      <c r="IM1" s="38"/>
+      <c r="IN1" s="38"/>
+      <c r="IO1" s="38"/>
+      <c r="IP1" s="38"/>
+      <c r="IQ1" s="38"/>
+      <c r="IR1" s="38"/>
+      <c r="IS1" s="38"/>
+      <c r="IT1" s="38"/>
+      <c r="IU1" s="38"/>
+      <c r="IV1" s="38"/>
+      <c r="IW1" s="38"/>
+      <c r="IX1" s="38"/>
+      <c r="IY1" s="38"/>
+      <c r="IZ1" s="38"/>
+      <c r="JA1" s="38"/>
+      <c r="JB1" s="38"/>
+      <c r="JC1" s="38"/>
+      <c r="JD1" s="38"/>
+      <c r="JE1" s="38"/>
+      <c r="JF1" s="38"/>
+      <c r="JG1" s="38"/>
+      <c r="JH1" s="38"/>
+      <c r="JI1" s="38"/>
+      <c r="JJ1" s="38"/>
+      <c r="JK1" s="38"/>
+      <c r="JL1" s="38"/>
+      <c r="JM1" s="38"/>
+      <c r="JN1" s="38"/>
+      <c r="JO1" s="38"/>
+      <c r="JP1" s="38"/>
+      <c r="JQ1" s="38"/>
+      <c r="JR1" s="38"/>
+      <c r="JS1" s="38"/>
+      <c r="JT1" s="38"/>
+      <c r="JU1" s="38"/>
+      <c r="JV1" s="38"/>
+      <c r="JW1" s="38"/>
+      <c r="JX1" s="38"/>
+      <c r="JY1" s="38"/>
+      <c r="JZ1" s="38"/>
+      <c r="KA1" s="38"/>
+      <c r="KB1" s="38"/>
+      <c r="KC1" s="38"/>
+      <c r="KD1" s="38"/>
+      <c r="KE1" s="38"/>
+      <c r="KF1" s="38"/>
+      <c r="KG1" s="38"/>
+      <c r="KH1" s="38"/>
+      <c r="KI1" s="38"/>
+      <c r="KJ1" s="38"/>
+      <c r="KK1" s="38"/>
+      <c r="KL1" s="38"/>
+      <c r="KM1" s="38"/>
+      <c r="KN1" s="38"/>
+      <c r="KO1" s="38"/>
+      <c r="KP1" s="38"/>
+      <c r="KQ1" s="38"/>
+      <c r="KR1" s="38"/>
+      <c r="KS1" s="38"/>
+      <c r="KT1" s="38"/>
+      <c r="KU1" s="38"/>
+      <c r="KV1" s="38"/>
+      <c r="KW1" s="38"/>
+      <c r="KX1" s="38"/>
+      <c r="KY1" s="38"/>
+      <c r="KZ1" s="38"/>
+      <c r="LA1" s="38"/>
+      <c r="LB1" s="38"/>
+      <c r="LC1" s="38"/>
+      <c r="LD1" s="38"/>
+      <c r="LE1" s="38"/>
+      <c r="LF1" s="38"/>
+      <c r="LG1" s="38"/>
+      <c r="LH1" s="38"/>
+      <c r="LI1" s="38"/>
+      <c r="LJ1" s="38"/>
+      <c r="LK1" s="38"/>
+      <c r="LL1" s="38"/>
+      <c r="LM1" s="38"/>
+      <c r="LN1" s="38"/>
+      <c r="LO1" s="38"/>
+      <c r="LP1" s="38"/>
+      <c r="LQ1" s="38"/>
+      <c r="LR1" s="38"/>
+      <c r="LS1" s="38"/>
+      <c r="LT1" s="38"/>
+      <c r="LU1" s="38"/>
+      <c r="LV1" s="38"/>
+      <c r="LW1" s="38"/>
+      <c r="LX1" s="38"/>
+      <c r="LY1" s="38"/>
+      <c r="LZ1" s="38"/>
+      <c r="MA1" s="38"/>
+      <c r="MB1" s="38"/>
+      <c r="MC1" s="38"/>
+      <c r="MD1" s="38"/>
+      <c r="ME1" s="38"/>
+      <c r="MF1" s="38"/>
+      <c r="MG1" s="38"/>
+      <c r="MH1" s="38"/>
+      <c r="MI1" s="38"/>
+      <c r="MJ1" s="38"/>
+      <c r="MK1" s="38"/>
+      <c r="ML1" s="38"/>
+      <c r="MM1" s="38"/>
+      <c r="MN1" s="38"/>
+      <c r="MO1" s="38"/>
+      <c r="MP1" s="38"/>
+      <c r="MQ1" s="38"/>
+      <c r="MR1" s="38"/>
+      <c r="MS1" s="38"/>
+      <c r="MT1" s="38"/>
+      <c r="MU1" s="38"/>
+      <c r="MV1" s="38"/>
+      <c r="MW1" s="38"/>
+      <c r="MX1" s="38"/>
+      <c r="MY1" s="38"/>
+      <c r="MZ1" s="38"/>
+      <c r="NA1" s="38"/>
+      <c r="NB1" s="38"/>
+      <c r="NC1" s="38"/>
+      <c r="ND1" s="38"/>
+      <c r="NE1" s="38"/>
+      <c r="NF1" s="38"/>
+      <c r="NG1" s="38"/>
+      <c r="NH1" s="38"/>
+      <c r="NI1" s="38"/>
+      <c r="NJ1" s="38"/>
+      <c r="NK1" s="38"/>
+      <c r="NL1" s="38"/>
+      <c r="NM1" s="38"/>
+      <c r="NN1" s="38"/>
+      <c r="NO1" s="38"/>
+      <c r="NP1" s="38"/>
+      <c r="NQ1" s="38"/>
+      <c r="NR1" s="38"/>
+      <c r="NS1" s="38"/>
+      <c r="NT1" s="38"/>
+      <c r="NU1" s="38"/>
+      <c r="NV1" s="38"/>
+      <c r="NW1" s="38"/>
+      <c r="NX1" s="38"/>
+      <c r="NY1" s="38"/>
+      <c r="NZ1" s="38"/>
+      <c r="OA1" s="38"/>
+      <c r="OB1" s="38"/>
+      <c r="OC1" s="38"/>
+      <c r="OD1" s="38"/>
+      <c r="OE1" s="38"/>
+      <c r="OF1" s="38"/>
+      <c r="OG1" s="38"/>
+      <c r="OH1" s="38"/>
+      <c r="OI1" s="38"/>
+      <c r="OJ1" s="38"/>
+      <c r="OK1" s="38"/>
+      <c r="OL1" s="38"/>
+      <c r="OM1" s="38"/>
+      <c r="ON1" s="38"/>
+      <c r="OO1" s="38"/>
+      <c r="OP1" s="38"/>
+      <c r="OQ1" s="38"/>
+      <c r="OR1" s="38"/>
+      <c r="OS1" s="38"/>
+      <c r="OT1" s="38"/>
+      <c r="OU1" s="38"/>
+      <c r="OV1" s="38"/>
+      <c r="OW1" s="38"/>
+      <c r="OX1" s="38"/>
+      <c r="OY1" s="38"/>
+      <c r="OZ1" s="38"/>
+      <c r="PA1" s="38"/>
+      <c r="PB1" s="38"/>
+      <c r="PC1" s="38"/>
+      <c r="PD1" s="38"/>
+      <c r="PE1" s="38"/>
+      <c r="PF1" s="38"/>
+      <c r="PG1" s="38"/>
+      <c r="PH1" s="38"/>
+      <c r="PI1" s="38"/>
+      <c r="PJ1" s="38"/>
+      <c r="PK1" s="38"/>
+      <c r="PL1" s="38"/>
+      <c r="PM1" s="38"/>
+      <c r="PN1" s="38"/>
+      <c r="PO1" s="38"/>
+      <c r="PP1" s="38"/>
+      <c r="PQ1" s="38"/>
+      <c r="PR1" s="38"/>
+      <c r="PS1" s="38"/>
+      <c r="PT1" s="38"/>
+      <c r="PU1" s="38"/>
+      <c r="PV1" s="38"/>
+      <c r="PW1" s="38"/>
+      <c r="PX1" s="38"/>
+      <c r="PY1" s="38"/>
+      <c r="PZ1" s="38"/>
+      <c r="QA1" s="38"/>
+      <c r="QB1" s="38"/>
+      <c r="QC1" s="38"/>
+      <c r="QD1" s="38"/>
+      <c r="QE1" s="38"/>
+      <c r="QF1" s="38"/>
+      <c r="QG1" s="38"/>
+      <c r="QH1" s="38"/>
+      <c r="QI1" s="38"/>
+      <c r="QJ1" s="38"/>
+      <c r="QK1" s="38"/>
+      <c r="QL1" s="38"/>
+      <c r="QM1" s="38"/>
+      <c r="QN1" s="38"/>
+      <c r="QO1" s="38"/>
+      <c r="QP1" s="38"/>
+      <c r="QQ1" s="38"/>
+      <c r="QR1" s="38"/>
+      <c r="QS1" s="38"/>
+      <c r="QT1" s="38"/>
+      <c r="QU1" s="38"/>
+      <c r="QV1" s="38"/>
+      <c r="QW1" s="38"/>
+      <c r="QX1" s="38"/>
+      <c r="QY1" s="38"/>
+      <c r="QZ1" s="38"/>
+      <c r="RA1" s="38"/>
+      <c r="RB1" s="38"/>
+      <c r="RC1" s="38"/>
+      <c r="RD1" s="38"/>
+      <c r="RE1" s="38"/>
+      <c r="RF1" s="38"/>
+      <c r="RG1" s="38"/>
+      <c r="RH1" s="38"/>
+      <c r="RI1" s="38"/>
+      <c r="RJ1" s="38"/>
+      <c r="RK1" s="38"/>
+      <c r="RL1" s="38"/>
+      <c r="RM1" s="38"/>
+      <c r="RN1" s="38"/>
+      <c r="RO1" s="38"/>
+      <c r="RP1" s="38"/>
+      <c r="RQ1" s="38"/>
+      <c r="RR1" s="38"/>
+      <c r="RS1" s="38"/>
+      <c r="RT1" s="38"/>
+      <c r="RU1" s="38"/>
+      <c r="RV1" s="38"/>
+      <c r="RW1" s="38"/>
+      <c r="RX1" s="38"/>
+      <c r="RY1" s="38"/>
+      <c r="RZ1" s="38"/>
+      <c r="SA1" s="38"/>
+      <c r="SB1" s="38"/>
+      <c r="SC1" s="38"/>
+      <c r="SD1" s="38"/>
+      <c r="SE1" s="38"/>
+      <c r="SF1" s="38"/>
+      <c r="SG1" s="38"/>
+      <c r="SH1" s="38"/>
+      <c r="SI1" s="38"/>
+      <c r="SJ1" s="38"/>
+      <c r="SK1" s="38"/>
+      <c r="SL1" s="38"/>
+      <c r="SM1" s="38"/>
+      <c r="SN1" s="38"/>
+      <c r="SO1" s="38"/>
+      <c r="SP1" s="38"/>
+      <c r="SQ1" s="38"/>
+      <c r="SR1" s="38"/>
+      <c r="SS1" s="38"/>
+      <c r="ST1" s="38"/>
+      <c r="SU1" s="38"/>
+      <c r="SV1" s="38"/>
+      <c r="SW1" s="38"/>
+      <c r="SX1" s="38"/>
+      <c r="SY1" s="38"/>
+      <c r="SZ1" s="38"/>
+      <c r="TA1" s="38"/>
+      <c r="TB1" s="38"/>
+      <c r="TC1" s="38"/>
+      <c r="TD1" s="38"/>
+      <c r="TE1" s="38"/>
+      <c r="TF1" s="38"/>
+      <c r="TG1" s="38"/>
+      <c r="TH1" s="38"/>
+      <c r="TI1" s="38"/>
+      <c r="TJ1" s="38"/>
+      <c r="TK1" s="38"/>
+      <c r="TL1" s="38"/>
+      <c r="TM1" s="38"/>
+      <c r="TN1" s="38"/>
+      <c r="TO1" s="38"/>
+      <c r="TP1" s="38"/>
+      <c r="TQ1" s="38"/>
+      <c r="TR1" s="38"/>
+      <c r="TS1" s="38"/>
+      <c r="TT1" s="38"/>
+      <c r="TU1" s="38"/>
+      <c r="TV1" s="38"/>
+      <c r="TW1" s="38"/>
+      <c r="TX1" s="38"/>
+      <c r="TY1" s="38"/>
+      <c r="TZ1" s="38"/>
+      <c r="UA1" s="38"/>
+      <c r="UB1" s="38"/>
+      <c r="UC1" s="38"/>
+      <c r="UD1" s="38"/>
+      <c r="UE1" s="38"/>
+      <c r="UF1" s="38"/>
+      <c r="UG1" s="38"/>
+      <c r="UH1" s="38"/>
+      <c r="UI1" s="38"/>
+      <c r="UJ1" s="38"/>
+      <c r="UK1" s="38"/>
+      <c r="UL1" s="38"/>
+      <c r="UM1" s="38"/>
+      <c r="UN1" s="38"/>
+      <c r="UO1" s="38"/>
+      <c r="UP1" s="38"/>
+      <c r="UQ1" s="38"/>
+      <c r="UR1" s="38"/>
+      <c r="US1" s="38"/>
+      <c r="UT1" s="38"/>
+      <c r="UU1" s="38"/>
+      <c r="UV1" s="38"/>
+      <c r="UW1" s="38"/>
+      <c r="UX1" s="38"/>
+      <c r="UY1" s="38"/>
+      <c r="UZ1" s="38"/>
+      <c r="VA1" s="38"/>
+      <c r="VB1" s="38"/>
+      <c r="VC1" s="38"/>
+      <c r="VD1" s="38"/>
+      <c r="VE1" s="38"/>
+      <c r="VF1" s="38"/>
+      <c r="VG1" s="38"/>
+      <c r="VH1" s="38"/>
+      <c r="VI1" s="38"/>
+      <c r="VJ1" s="38"/>
+      <c r="VK1" s="38"/>
+      <c r="VL1" s="38"/>
+      <c r="VM1" s="38"/>
+      <c r="VN1" s="38"/>
+      <c r="VO1" s="38"/>
+      <c r="VP1" s="38"/>
+      <c r="VQ1" s="38"/>
+      <c r="VR1" s="38"/>
+      <c r="VS1" s="38"/>
+      <c r="VT1" s="38"/>
+      <c r="VU1" s="38"/>
+      <c r="VV1" s="38"/>
+      <c r="VW1" s="38"/>
+      <c r="VX1" s="38"/>
+      <c r="VY1" s="38"/>
+      <c r="VZ1" s="38"/>
+      <c r="WA1" s="38"/>
+      <c r="WB1" s="38"/>
+      <c r="WC1" s="38"/>
+      <c r="WD1" s="38"/>
+      <c r="WE1" s="38"/>
+      <c r="WF1" s="38"/>
+      <c r="WG1" s="38"/>
+      <c r="WH1" s="38"/>
+      <c r="WI1" s="38"/>
+      <c r="WJ1" s="38"/>
+      <c r="WK1" s="38"/>
+      <c r="WL1" s="38"/>
+      <c r="WM1" s="38"/>
+      <c r="WN1" s="38"/>
+      <c r="WO1" s="38"/>
+      <c r="WP1" s="38"/>
+      <c r="WQ1" s="38"/>
+      <c r="WR1" s="38"/>
+      <c r="WS1" s="38"/>
+      <c r="WT1" s="38"/>
+      <c r="WU1" s="38"/>
+      <c r="WV1" s="38"/>
+      <c r="WW1" s="38"/>
+      <c r="WX1" s="38"/>
+      <c r="WY1" s="38"/>
+      <c r="WZ1" s="38"/>
+      <c r="XA1" s="38"/>
+      <c r="XB1" s="38"/>
+      <c r="XC1" s="38"/>
+      <c r="XD1" s="38"/>
+      <c r="XE1" s="38"/>
+      <c r="XF1" s="38"/>
+      <c r="XG1" s="38"/>
+      <c r="XH1" s="38"/>
+      <c r="XI1" s="38"/>
+      <c r="XJ1" s="38"/>
+      <c r="XK1" s="38"/>
+      <c r="XL1" s="38"/>
+      <c r="XM1" s="38"/>
+      <c r="XN1" s="38"/>
+      <c r="XO1" s="38"/>
+      <c r="XP1" s="38"/>
+      <c r="XQ1" s="38"/>
+      <c r="XR1" s="38"/>
+      <c r="XS1" s="38"/>
+      <c r="XT1" s="38"/>
+      <c r="XU1" s="38"/>
+      <c r="XV1" s="38"/>
+      <c r="XW1" s="38"/>
+      <c r="XX1" s="38"/>
+      <c r="XY1" s="38"/>
+      <c r="XZ1" s="38"/>
+      <c r="YA1" s="38"/>
+      <c r="YB1" s="38"/>
+      <c r="YC1" s="38"/>
+      <c r="YD1" s="38"/>
+      <c r="YE1" s="38"/>
+      <c r="YF1" s="38"/>
+      <c r="YG1" s="38"/>
+      <c r="YH1" s="38"/>
+      <c r="YI1" s="38"/>
+      <c r="YJ1" s="38"/>
+      <c r="YK1" s="38"/>
+      <c r="YL1" s="38"/>
+      <c r="YM1" s="38"/>
+      <c r="YN1" s="38"/>
+      <c r="YO1" s="38"/>
+      <c r="YP1" s="38"/>
+      <c r="YQ1" s="38"/>
+      <c r="YR1" s="38"/>
+      <c r="YS1" s="38"/>
+      <c r="YT1" s="38"/>
+      <c r="YU1" s="38"/>
+      <c r="YV1" s="38"/>
+      <c r="YW1" s="38"/>
+      <c r="YX1" s="38"/>
+      <c r="YY1" s="38"/>
+      <c r="YZ1" s="38"/>
+      <c r="ZA1" s="38"/>
+      <c r="ZB1" s="38"/>
+      <c r="ZC1" s="38"/>
+      <c r="ZD1" s="38"/>
+      <c r="ZE1" s="38"/>
+      <c r="ZF1" s="38"/>
+      <c r="ZG1" s="38"/>
+      <c r="ZH1" s="38"/>
+      <c r="ZI1" s="38"/>
+      <c r="ZJ1" s="38"/>
+      <c r="ZK1" s="38"/>
+      <c r="ZL1" s="38"/>
+      <c r="ZM1" s="38"/>
+      <c r="ZN1" s="38"/>
+      <c r="ZO1" s="38"/>
+      <c r="ZP1" s="38"/>
+      <c r="ZQ1" s="38"/>
+      <c r="ZR1" s="38"/>
+      <c r="ZS1" s="38"/>
+      <c r="ZT1" s="38"/>
+      <c r="ZU1" s="38"/>
+      <c r="ZV1" s="38"/>
+      <c r="ZW1" s="38"/>
+      <c r="ZX1" s="38"/>
+      <c r="ZY1" s="38"/>
+      <c r="ZZ1" s="38"/>
+      <c r="AAA1" s="38"/>
+      <c r="AAB1" s="38"/>
+      <c r="AAC1" s="38"/>
+      <c r="AAD1" s="38"/>
+      <c r="AAE1" s="38"/>
+      <c r="AAF1" s="38"/>
+      <c r="AAG1" s="38"/>
+      <c r="AAH1" s="38"/>
+      <c r="AAI1" s="38"/>
+      <c r="AAJ1" s="38"/>
+      <c r="AAK1" s="38"/>
+      <c r="AAL1" s="38"/>
+      <c r="AAM1" s="38"/>
+      <c r="AAN1" s="38"/>
+      <c r="AAO1" s="38"/>
+      <c r="AAP1" s="38"/>
+      <c r="AAQ1" s="38"/>
+      <c r="AAR1" s="38"/>
+      <c r="AAS1" s="38"/>
+      <c r="AAT1" s="38"/>
+      <c r="AAU1" s="38"/>
+      <c r="AAV1" s="38"/>
+      <c r="AAW1" s="38"/>
+      <c r="AAX1" s="38"/>
+      <c r="AAY1" s="38"/>
+      <c r="AAZ1" s="38"/>
+      <c r="ABA1" s="38"/>
+      <c r="ABB1" s="38"/>
+      <c r="ABC1" s="38"/>
+      <c r="ABD1" s="38"/>
+      <c r="ABE1" s="38"/>
+      <c r="ABF1" s="38"/>
+      <c r="ABG1" s="38"/>
+      <c r="ABH1" s="38"/>
+      <c r="ABI1" s="38"/>
+      <c r="ABJ1" s="38"/>
+      <c r="ABK1" s="38"/>
+      <c r="ABL1" s="38"/>
+      <c r="ABM1" s="38"/>
+      <c r="ABN1" s="38"/>
+      <c r="ABO1" s="38"/>
+      <c r="ABP1" s="38"/>
+      <c r="ABQ1" s="38"/>
+      <c r="ABR1" s="38"/>
+      <c r="ABS1" s="38"/>
+      <c r="ABT1" s="38"/>
+      <c r="ABU1" s="38"/>
+      <c r="ABV1" s="38"/>
+      <c r="ABW1" s="38"/>
+      <c r="ABX1" s="38"/>
+      <c r="ABY1" s="38"/>
+      <c r="ABZ1" s="38"/>
+      <c r="ACA1" s="38"/>
+      <c r="ACB1" s="38"/>
+      <c r="ACC1" s="38"/>
+      <c r="ACD1" s="38"/>
+      <c r="ACE1" s="38"/>
+      <c r="ACF1" s="38"/>
+      <c r="ACG1" s="38"/>
+      <c r="ACH1" s="38"/>
+      <c r="ACI1" s="38"/>
+      <c r="ACJ1" s="38"/>
+      <c r="ACK1" s="38"/>
+      <c r="ACL1" s="38"/>
+      <c r="ACM1" s="38"/>
+      <c r="ACN1" s="38"/>
+      <c r="ACO1" s="38"/>
+      <c r="ACP1" s="38"/>
+      <c r="ACQ1" s="38"/>
+      <c r="ACR1" s="38"/>
+      <c r="ACS1" s="38"/>
+      <c r="ACT1" s="38"/>
+      <c r="ACU1" s="38"/>
+      <c r="ACV1" s="38"/>
+      <c r="ACW1" s="38"/>
+      <c r="ACX1" s="38"/>
+      <c r="ACY1" s="38"/>
+      <c r="ACZ1" s="38"/>
+      <c r="ADA1" s="38"/>
+      <c r="ADB1" s="38"/>
+      <c r="ADC1" s="38"/>
+      <c r="ADD1" s="38"/>
+      <c r="ADE1" s="38"/>
+      <c r="ADF1" s="38"/>
+      <c r="ADG1" s="38"/>
+      <c r="ADH1" s="38"/>
+      <c r="ADI1" s="38"/>
+      <c r="ADJ1" s="38"/>
+      <c r="ADK1" s="38"/>
+      <c r="ADL1" s="38"/>
+      <c r="ADM1" s="38"/>
+      <c r="ADN1" s="38"/>
+      <c r="ADO1" s="38"/>
+      <c r="ADP1" s="38"/>
+      <c r="ADQ1" s="38"/>
+      <c r="ADR1" s="38"/>
+      <c r="ADS1" s="38"/>
+      <c r="ADT1" s="38"/>
+      <c r="ADU1" s="38"/>
+      <c r="ADV1" s="38"/>
+      <c r="ADW1" s="38"/>
+      <c r="ADX1" s="38"/>
+      <c r="ADY1" s="38"/>
+      <c r="ADZ1" s="38"/>
+      <c r="AEA1" s="38"/>
+      <c r="AEB1" s="38"/>
+      <c r="AEC1" s="38"/>
+      <c r="AED1" s="38"/>
+      <c r="AEE1" s="38"/>
+      <c r="AEF1" s="38"/>
+      <c r="AEG1" s="38"/>
+      <c r="AEH1" s="38"/>
+      <c r="AEI1" s="38"/>
+      <c r="AEJ1" s="38"/>
+      <c r="AEK1" s="38"/>
+      <c r="AEL1" s="38"/>
+      <c r="AEM1" s="38"/>
+      <c r="AEN1" s="38"/>
+      <c r="AEO1" s="38"/>
+      <c r="AEP1" s="38"/>
+      <c r="AEQ1" s="38"/>
+      <c r="AER1" s="38"/>
+      <c r="AES1" s="38"/>
+      <c r="AET1" s="38"/>
+      <c r="AEU1" s="38"/>
+      <c r="AEV1" s="38"/>
+      <c r="AEW1" s="38"/>
+      <c r="AEX1" s="38"/>
+      <c r="AEY1" s="38"/>
+      <c r="AEZ1" s="38"/>
+      <c r="AFA1" s="38"/>
+      <c r="AFB1" s="38"/>
+      <c r="AFC1" s="38"/>
+      <c r="AFD1" s="38"/>
+      <c r="AFE1" s="38"/>
+      <c r="AFF1" s="38"/>
+      <c r="AFG1" s="38"/>
+      <c r="AFH1" s="38"/>
+      <c r="AFI1" s="38"/>
+      <c r="AFJ1" s="38"/>
+      <c r="AFK1" s="38"/>
+      <c r="AFL1" s="38"/>
+      <c r="AFM1" s="38"/>
+      <c r="AFN1" s="38"/>
+      <c r="AFO1" s="38"/>
+      <c r="AFP1" s="38"/>
+      <c r="AFQ1" s="38"/>
+      <c r="AFR1" s="38"/>
+      <c r="AFS1" s="38"/>
+      <c r="AFT1" s="38"/>
+      <c r="AFU1" s="38"/>
+      <c r="AFV1" s="38"/>
+      <c r="AFW1" s="38"/>
+      <c r="AFX1" s="38"/>
+      <c r="AFY1" s="38"/>
+      <c r="AFZ1" s="38"/>
+      <c r="AGA1" s="38"/>
+      <c r="AGB1" s="38"/>
+      <c r="AGC1" s="38"/>
+      <c r="AGD1" s="38"/>
+      <c r="AGE1" s="38"/>
+      <c r="AGF1" s="38"/>
+      <c r="AGG1" s="38"/>
+      <c r="AGH1" s="38"/>
+      <c r="AGI1" s="38"/>
+      <c r="AGJ1" s="38"/>
+      <c r="AGK1" s="38"/>
+      <c r="AGL1" s="38"/>
+      <c r="AGM1" s="38"/>
+      <c r="AGN1" s="38"/>
+      <c r="AGO1" s="38"/>
+      <c r="AGP1" s="38"/>
+      <c r="AGQ1" s="38"/>
+      <c r="AGR1" s="38"/>
+      <c r="AGS1" s="38"/>
+      <c r="AGT1" s="38"/>
+      <c r="AGU1" s="38"/>
+      <c r="AGV1" s="38"/>
+      <c r="AGW1" s="38"/>
+      <c r="AGX1" s="38"/>
+      <c r="AGY1" s="38"/>
+      <c r="AGZ1" s="38"/>
+      <c r="AHA1" s="38"/>
+      <c r="AHB1" s="38"/>
+      <c r="AHC1" s="38"/>
+      <c r="AHD1" s="38"/>
+      <c r="AHE1" s="38"/>
+      <c r="AHF1" s="38"/>
+      <c r="AHG1" s="38"/>
+      <c r="AHH1" s="38"/>
+      <c r="AHI1" s="38"/>
+      <c r="AHJ1" s="38"/>
+      <c r="AHK1" s="38"/>
+      <c r="AHL1" s="38"/>
+      <c r="AHM1" s="38"/>
+      <c r="AHN1" s="38"/>
+      <c r="AHO1" s="38"/>
+      <c r="AHP1" s="38"/>
+      <c r="AHQ1" s="38"/>
+      <c r="AHR1" s="38"/>
+      <c r="AHS1" s="38"/>
+      <c r="AHT1" s="38"/>
+      <c r="AHU1" s="38"/>
+      <c r="AHV1" s="38"/>
+      <c r="AHW1" s="38"/>
+      <c r="AHX1" s="38"/>
+      <c r="AHY1" s="38"/>
+      <c r="AHZ1" s="38"/>
+      <c r="AIA1" s="38"/>
+      <c r="AIB1" s="38"/>
+      <c r="AIC1" s="38"/>
+      <c r="AID1" s="38"/>
+      <c r="AIE1" s="38"/>
+      <c r="AIF1" s="38"/>
+      <c r="AIG1" s="38"/>
+      <c r="AIH1" s="38"/>
+      <c r="AII1" s="38"/>
+      <c r="AIJ1" s="38"/>
+      <c r="AIK1" s="38"/>
+      <c r="AIL1" s="38"/>
+      <c r="AIM1" s="38"/>
+      <c r="AIN1" s="38"/>
+      <c r="AIO1" s="38"/>
+      <c r="AIP1" s="38"/>
+      <c r="AIQ1" s="38"/>
+      <c r="AIR1" s="38"/>
+      <c r="AIS1" s="38"/>
+      <c r="AIT1" s="38"/>
+      <c r="AIU1" s="38"/>
+      <c r="AIV1" s="38"/>
+      <c r="AIW1" s="38"/>
+      <c r="AIX1" s="38"/>
+      <c r="AIY1" s="38"/>
+      <c r="AIZ1" s="38"/>
+      <c r="AJA1" s="38"/>
+      <c r="AJB1" s="38"/>
+      <c r="AJC1" s="38"/>
+      <c r="AJD1" s="38"/>
+      <c r="AJE1" s="38"/>
+      <c r="AJF1" s="38"/>
+      <c r="AJG1" s="38"/>
+      <c r="AJH1" s="38"/>
+      <c r="AJI1" s="38"/>
+      <c r="AJJ1" s="38"/>
+      <c r="AJK1" s="38"/>
+      <c r="AJL1" s="38"/>
+      <c r="AJM1" s="38"/>
+      <c r="AJN1" s="38"/>
+      <c r="AJO1" s="38"/>
+      <c r="AJP1" s="38"/>
+      <c r="AJQ1" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B37C14A-88CD-48D8-9B12-5DC0C74DC3B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -186,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -417,19 +417,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -461,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -579,35 +566,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,6 +773,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,7 +1182,7 @@
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2246,7 +2238,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2278,21 +2270,21 @@
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="46"/>
       <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -2308,10 +2300,6 @@
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
       <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -2544,7 +2532,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2555,7 +2543,7 @@
           <x14:formula1>
             <xm:f>Data!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:P2</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2567,7 +2555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95E05E2-AE3D-4537-B678-D1EB785E7663}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:L9"/>
     </sheetView>
   </sheetViews>
@@ -2577,40 +2565,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2618,7 +2606,7 @@
       </c>
       <c r="B3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45293</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2752,70 +2740,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="44" customWidth="1"/>
     <col min="2" max="4" width="10.36328125" customWidth="1"/>
-    <col min="5" max="16" width="10.36328125" style="48" customWidth="1"/>
+    <col min="5" max="16" width="10.36328125" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="49"/>
-      <c r="B1" s="45" t="str">
+      <c r="A1" s="45"/>
+      <c r="B1" s="41" t="str">
         <f>Input!M1</f>
         <v>Update 1</v>
       </c>
-      <c r="C1" s="45" t="str">
+      <c r="C1" s="41" t="str">
         <f>Input!N1</f>
         <v>Update 2</v>
       </c>
-      <c r="D1" s="45" t="str">
+      <c r="D1" s="41" t="str">
         <f>Input!O1</f>
         <v>Update 3</v>
       </c>
-      <c r="E1" s="46" t="str">
+      <c r="E1" s="42" t="str">
         <f>Input!A1</f>
         <v>Log 1</v>
       </c>
-      <c r="F1" s="47" t="str">
+      <c r="F1" s="43" t="str">
         <f>Input!B1</f>
         <v>Log 2</v>
       </c>
-      <c r="G1" s="47" t="str">
+      <c r="G1" s="43" t="str">
         <f>Input!C1</f>
         <v>Log 3</v>
       </c>
-      <c r="H1" s="47" t="str">
+      <c r="H1" s="43" t="str">
         <f>Input!D1</f>
         <v>Log 4</v>
       </c>
-      <c r="I1" s="47" t="str">
+      <c r="I1" s="43" t="str">
         <f>Input!E1</f>
         <v>Log 5</v>
       </c>
-      <c r="J1" s="47" t="str">
+      <c r="J1" s="43" t="str">
         <f>Input!F1</f>
         <v>Log 6</v>
       </c>
-      <c r="K1" s="47" t="str">
+      <c r="K1" s="43" t="str">
         <f>Input!G1</f>
         <v>Log 7</v>
       </c>
-      <c r="L1" s="47" t="str">
+      <c r="L1" s="43" t="str">
         <f>Input!H1</f>
         <v>Log 8</v>
       </c>
-      <c r="M1" s="47" t="str">
+      <c r="M1" s="43" t="str">
         <f>Input!I1</f>
         <v xml:space="preserve">Log 9 </v>
       </c>
-      <c r="N1" s="47" t="str">
+      <c r="N1" s="43" t="str">
         <f>Input!J1</f>
         <v>Log 10</v>
       </c>
-      <c r="O1" s="47" t="str">
+      <c r="O1" s="43" t="str">
         <f>Input!K1</f>
         <v>Log 11</v>
       </c>
-      <c r="P1" s="47" t="str">
+      <c r="P1" s="43" t="str">
         <f>Input!L1</f>
         <v>Log 12</v>
       </c>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B37C14A-88CD-48D8-9B12-5DC0C74DC3B8}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{325B2116-6B9D-401B-BBC4-3870F7252A70}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Update 1</t>
-  </si>
-  <si>
     <t>Update 2</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>maybe</t>
+  </si>
+  <si>
+    <t>Update Select</t>
   </si>
 </sst>
 </file>
@@ -587,6 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -595,7 +596,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,13 +1169,13 @@
         <v>8</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="P1" s="20"/>
       <c r="Q1" s="21"/>
@@ -2270,20 +2270,20 @@
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="29"/>
     </row>
@@ -2565,40 +2565,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="M9" s="7" t="str">
         <f>Input!M1</f>
-        <v>Update 1</v>
+        <v>Update Select</v>
       </c>
       <c r="N9" s="7" t="str">
         <f>Input!N1</f>
@@ -2749,7 +2749,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="41" t="str">
         <f>Input!M1</f>
-        <v>Update 1</v>
+        <v>Update Select</v>
       </c>
       <c r="C1" s="41" t="str">
         <f>Input!N1</f>
@@ -2808,20 +2808,20 @@
         <v>Log 12</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2852,7 @@
     <row r="1" spans="1:953" s="40" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="str">
         <f>S1&amp;"- "&amp;T1&amp;"- "&amp;U1&amp;"- "&amp;V1&amp;"- "&amp;W1&amp;"- "&amp;X1&amp;"- "&amp;Y1&amp;"- "&amp;Z1&amp;"- "&amp;AA1&amp;"- "&amp;AB1&amp;"- "&amp;AC1&amp;"- "&amp;AD1&amp;"- "&amp;AE1&amp;"- "&amp;AF1&amp;"- "&amp;AG1</f>
-        <v>Log 1- Log 2- Log 3- Log 4- Log 5- Log 6- Log 7- Log 8- Log 9 - Log 10- Log 11- Log 12- Update 1- Update 2- Update 3</v>
+        <v>Log 1- Log 2- Log 3- Log 4- Log 5- Log 6- Log 7- Log 8- Log 9 - Log 10- Log 11- Log 12- Update Select- Update 2- Update 3</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="AE1" s="39" t="str">
         <f>Input!M1</f>
-        <v>Update 1</v>
+        <v>Update Select</v>
       </c>
       <c r="AF1" s="39" t="str">
         <f>Input!N1</f>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{325B2116-6B9D-401B-BBC4-3870F7252A70}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65A0E5A0-95CC-4447-862D-966125D1F0C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="4" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -773,10 +773,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1120,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2606,7 +2602,7 @@
       </c>
       <c r="B3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45294</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2838,7 +2834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7D3E8-64C8-4AE1-938C-EF1CA99C435B}">
   <dimension ref="A1:AJQ1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>

--- a/Save.xlsx
+++ b/Save.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/_Excellence-US^J LLC/Project Manager Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65A0E5A0-95CC-4447-862D-966125D1F0C1}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{7A438F6D-461E-48BB-837A-E408F5030743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2CCFB3D-DC80-4793-B808-239EE7F047BD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="4" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A98A5B91-A01E-41A7-877D-930BF053E1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -773,6 +773,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29FEEA-EA13-4BFF-9B46-CA61E87AE9E0}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1177,9 +1181,7 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
+      <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2602,7 +2604,7 @@
       </c>
       <c r="B3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45295</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2834,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7D3E8-64C8-4AE1-938C-EF1CA99C435B}">
   <dimension ref="A1:AJQ1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="S1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
